--- a/document/crm数据结构.xlsx
+++ b/document/crm数据结构.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="799">
   <si>
     <t>表格名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -3253,6 +3253,106 @@
   </si>
   <si>
     <t>WC_SHOP_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC_SHOP_DEPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应微信企业号通讯录中部门id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_PARENT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_ADMIN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_TXL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_REGISTDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_REGISTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSA_DEPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属组织</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3593,7 +3693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3978,16 +4078,37 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3999,14 +4120,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4022,12 +4143,6 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4360,23 +4475,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="35" customFormat="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="139" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132" t="s">
+      <c r="D1" s="140"/>
+      <c r="E1" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="133"/>
+      <c r="F1" s="138"/>
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="137" t="s">
+      <c r="K1" s="135" t="s">
         <v>701</v>
       </c>
       <c r="L1" s="11" t="str">
@@ -4403,23 +4518,23 @@
       <c r="AD1" s="11"/>
     </row>
     <row r="2" spans="1:30" s="35" customFormat="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="130" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="139" t="s">
         <v>523</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="133"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="138"/>
+      <c r="K2" s="136"/>
       <c r="L2" s="11" t="str">
         <f>"-- "&amp;C3</f>
         <v>-- 这个表相当于微信企业表 用它和管理员做关联</v>
@@ -4444,21 +4559,21 @@
       <c r="AD2" s="11"/>
     </row>
     <row r="3" spans="1:30" s="35" customFormat="1">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="134" t="s">
+      <c r="B3" s="138"/>
+      <c r="C3" s="141" t="s">
         <v>507</v>
       </c>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="136"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
       <c r="L3" s="49"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -5167,23 +5282,23 @@
       <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="132" t="s">
+      <c r="A25" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="130" t="s">
+      <c r="B25" s="138"/>
+      <c r="C25" s="139" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="131"/>
-      <c r="E25" s="132" t="s">
+      <c r="D25" s="140"/>
+      <c r="E25" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="133"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="61"/>
       <c r="H25" s="61"/>
       <c r="I25" s="61"/>
       <c r="J25" s="61"/>
-      <c r="K25" s="137" t="s">
+      <c r="K25" s="135" t="s">
         <v>272</v>
       </c>
       <c r="L25" s="11" t="str">
@@ -5192,42 +5307,42 @@
       </c>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="132" t="s">
+      <c r="A26" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="133"/>
-      <c r="C26" s="130" t="s">
+      <c r="B26" s="138"/>
+      <c r="C26" s="139" t="s">
         <v>211</v>
       </c>
-      <c r="D26" s="131"/>
-      <c r="E26" s="132" t="s">
+      <c r="D26" s="140"/>
+      <c r="E26" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="133"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="61"/>
       <c r="H26" s="61"/>
       <c r="I26" s="61"/>
       <c r="J26" s="61"/>
-      <c r="K26" s="138"/>
+      <c r="K26" s="136"/>
       <c r="L26" s="11" t="str">
         <f>"-- "&amp;C27</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="132" t="s">
+      <c r="A27" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="133"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="136"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="143"/>
       <c r="L27" s="49"/>
     </row>
     <row r="28" spans="1:30">
@@ -5568,23 +5683,23 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="132" t="s">
+      <c r="A42" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="133"/>
-      <c r="C42" s="130" t="s">
+      <c r="B42" s="138"/>
+      <c r="C42" s="139" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="131"/>
-      <c r="E42" s="132" t="s">
+      <c r="D42" s="140"/>
+      <c r="E42" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="133"/>
+      <c r="F42" s="138"/>
       <c r="G42" s="61"/>
       <c r="H42" s="61"/>
       <c r="I42" s="61"/>
       <c r="J42" s="61"/>
-      <c r="K42" s="137" t="s">
+      <c r="K42" s="135" t="s">
         <v>576</v>
       </c>
       <c r="L42" s="11" t="str">
@@ -5593,42 +5708,42 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="132" t="s">
+      <c r="A43" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="133"/>
-      <c r="C43" s="130" t="s">
+      <c r="B43" s="138"/>
+      <c r="C43" s="139" t="s">
         <v>217</v>
       </c>
-      <c r="D43" s="131"/>
-      <c r="E43" s="132" t="s">
+      <c r="D43" s="140"/>
+      <c r="E43" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="133"/>
+      <c r="F43" s="138"/>
       <c r="G43" s="61"/>
       <c r="H43" s="61"/>
       <c r="I43" s="61"/>
       <c r="J43" s="61"/>
-      <c r="K43" s="138"/>
+      <c r="K43" s="136"/>
       <c r="L43" s="11" t="str">
         <f>"-- "&amp;C44</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="132" t="s">
+      <c r="A44" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="133"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="135"/>
-      <c r="G44" s="135"/>
-      <c r="H44" s="135"/>
-      <c r="I44" s="135"/>
-      <c r="J44" s="135"/>
-      <c r="K44" s="136"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="142"/>
+      <c r="H44" s="142"/>
+      <c r="I44" s="142"/>
+      <c r="J44" s="142"/>
+      <c r="K44" s="143"/>
       <c r="L44" s="49"/>
     </row>
     <row r="45" spans="1:12">
@@ -5847,23 +5962,23 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="132" t="s">
+      <c r="A54" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="133"/>
-      <c r="C54" s="130" t="s">
+      <c r="B54" s="138"/>
+      <c r="C54" s="139" t="s">
         <v>220</v>
       </c>
-      <c r="D54" s="131"/>
-      <c r="E54" s="132" t="s">
+      <c r="D54" s="140"/>
+      <c r="E54" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="133"/>
+      <c r="F54" s="138"/>
       <c r="G54" s="61"/>
       <c r="H54" s="61"/>
       <c r="I54" s="61"/>
       <c r="J54" s="61"/>
-      <c r="K54" s="137" t="s">
+      <c r="K54" s="135" t="s">
         <v>263</v>
       </c>
       <c r="L54" s="11" t="str">
@@ -5872,42 +5987,42 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="132" t="s">
+      <c r="A55" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="133"/>
-      <c r="C55" s="130" t="s">
+      <c r="B55" s="138"/>
+      <c r="C55" s="139" t="s">
         <v>218</v>
       </c>
-      <c r="D55" s="131"/>
-      <c r="E55" s="132" t="s">
+      <c r="D55" s="140"/>
+      <c r="E55" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="133"/>
+      <c r="F55" s="138"/>
       <c r="G55" s="61"/>
       <c r="H55" s="61"/>
       <c r="I55" s="61"/>
       <c r="J55" s="61"/>
-      <c r="K55" s="138"/>
+      <c r="K55" s="136"/>
       <c r="L55" s="11" t="str">
         <f>"-- "&amp;C56</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="132" t="s">
+      <c r="A56" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="133"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
-      <c r="J56" s="135"/>
-      <c r="K56" s="136"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="142"/>
+      <c r="J56" s="142"/>
+      <c r="K56" s="143"/>
       <c r="L56" s="49"/>
     </row>
     <row r="57" spans="1:12">
@@ -6070,23 +6185,23 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="15" customHeight="1">
-      <c r="A64" s="132" t="s">
+      <c r="A64" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="133"/>
-      <c r="C64" s="130" t="s">
+      <c r="B64" s="138"/>
+      <c r="C64" s="139" t="s">
         <v>221</v>
       </c>
-      <c r="D64" s="131"/>
-      <c r="E64" s="132" t="s">
+      <c r="D64" s="140"/>
+      <c r="E64" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="133"/>
+      <c r="F64" s="138"/>
       <c r="G64" s="61"/>
       <c r="H64" s="61"/>
       <c r="I64" s="61"/>
       <c r="J64" s="61"/>
-      <c r="K64" s="137" t="s">
+      <c r="K64" s="135" t="s">
         <v>256</v>
       </c>
       <c r="L64" s="11" t="str">
@@ -6095,42 +6210,42 @@
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="132" t="s">
+      <c r="A65" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="133"/>
-      <c r="C65" s="130" t="s">
+      <c r="B65" s="138"/>
+      <c r="C65" s="139" t="s">
         <v>224</v>
       </c>
-      <c r="D65" s="131"/>
-      <c r="E65" s="132" t="s">
+      <c r="D65" s="140"/>
+      <c r="E65" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="133"/>
+      <c r="F65" s="138"/>
       <c r="G65" s="61"/>
       <c r="H65" s="61"/>
       <c r="I65" s="61"/>
       <c r="J65" s="61"/>
-      <c r="K65" s="138"/>
+      <c r="K65" s="136"/>
       <c r="L65" s="11" t="str">
         <f>"-- "&amp;C66</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="132" t="s">
+      <c r="A66" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="133"/>
-      <c r="C66" s="134"/>
-      <c r="D66" s="135"/>
-      <c r="E66" s="135"/>
-      <c r="F66" s="135"/>
-      <c r="G66" s="135"/>
-      <c r="H66" s="135"/>
-      <c r="I66" s="135"/>
-      <c r="J66" s="135"/>
-      <c r="K66" s="136"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="142"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="142"/>
+      <c r="H66" s="142"/>
+      <c r="I66" s="142"/>
+      <c r="J66" s="142"/>
+      <c r="K66" s="143"/>
       <c r="L66" s="49"/>
     </row>
     <row r="67" spans="1:12">
@@ -6293,23 +6408,23 @@
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="132" t="s">
+      <c r="A74" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="133"/>
-      <c r="C74" s="130" t="s">
+      <c r="B74" s="138"/>
+      <c r="C74" s="139" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="131"/>
-      <c r="E74" s="132" t="s">
+      <c r="D74" s="140"/>
+      <c r="E74" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="133"/>
+      <c r="F74" s="138"/>
       <c r="G74" s="61"/>
       <c r="H74" s="61"/>
       <c r="I74" s="61"/>
       <c r="J74" s="61"/>
-      <c r="K74" s="137" t="s">
+      <c r="K74" s="135" t="s">
         <v>265</v>
       </c>
       <c r="L74" s="11" t="str">
@@ -6318,42 +6433,42 @@
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="132" t="s">
+      <c r="A75" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="133"/>
-      <c r="C75" s="130" t="s">
+      <c r="B75" s="138"/>
+      <c r="C75" s="139" t="s">
         <v>222</v>
       </c>
-      <c r="D75" s="131"/>
-      <c r="E75" s="132" t="s">
+      <c r="D75" s="140"/>
+      <c r="E75" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="133"/>
+      <c r="F75" s="138"/>
       <c r="G75" s="61"/>
       <c r="H75" s="61"/>
       <c r="I75" s="61"/>
       <c r="J75" s="61"/>
-      <c r="K75" s="138"/>
+      <c r="K75" s="136"/>
       <c r="L75" s="11" t="str">
         <f>"-- "&amp;C76</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="132" t="s">
+      <c r="A76" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="133"/>
-      <c r="C76" s="134"/>
-      <c r="D76" s="135"/>
-      <c r="E76" s="135"/>
-      <c r="F76" s="135"/>
-      <c r="G76" s="135"/>
-      <c r="H76" s="135"/>
-      <c r="I76" s="135"/>
-      <c r="J76" s="135"/>
-      <c r="K76" s="136"/>
+      <c r="B76" s="138"/>
+      <c r="C76" s="141"/>
+      <c r="D76" s="142"/>
+      <c r="E76" s="142"/>
+      <c r="F76" s="142"/>
+      <c r="G76" s="142"/>
+      <c r="H76" s="142"/>
+      <c r="I76" s="142"/>
+      <c r="J76" s="142"/>
+      <c r="K76" s="143"/>
       <c r="L76" s="49"/>
     </row>
     <row r="77" spans="1:12">
@@ -6676,23 +6791,23 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="132" t="s">
+      <c r="A90" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="133"/>
-      <c r="C90" s="130" t="s">
+      <c r="B90" s="138"/>
+      <c r="C90" s="139" t="s">
         <v>221</v>
       </c>
-      <c r="D90" s="131"/>
-      <c r="E90" s="132" t="s">
+      <c r="D90" s="140"/>
+      <c r="E90" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="133"/>
+      <c r="F90" s="138"/>
       <c r="G90" s="61"/>
       <c r="H90" s="61"/>
       <c r="I90" s="61"/>
       <c r="J90" s="61"/>
-      <c r="K90" s="137" t="s">
+      <c r="K90" s="135" t="s">
         <v>257</v>
       </c>
       <c r="L90" s="11" t="str">
@@ -6701,42 +6816,42 @@
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="132" t="s">
+      <c r="A91" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="133"/>
-      <c r="C91" s="130" t="s">
+      <c r="B91" s="138"/>
+      <c r="C91" s="139" t="s">
         <v>223</v>
       </c>
-      <c r="D91" s="131"/>
-      <c r="E91" s="132" t="s">
+      <c r="D91" s="140"/>
+      <c r="E91" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="133"/>
+      <c r="F91" s="138"/>
       <c r="G91" s="61"/>
       <c r="H91" s="61"/>
       <c r="I91" s="61"/>
       <c r="J91" s="61"/>
-      <c r="K91" s="138"/>
+      <c r="K91" s="136"/>
       <c r="L91" s="11" t="str">
         <f>"-- "&amp;C92</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="132" t="s">
+      <c r="A92" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="133"/>
-      <c r="C92" s="134"/>
-      <c r="D92" s="135"/>
-      <c r="E92" s="135"/>
-      <c r="F92" s="135"/>
-      <c r="G92" s="135"/>
-      <c r="H92" s="135"/>
-      <c r="I92" s="135"/>
-      <c r="J92" s="135"/>
-      <c r="K92" s="136"/>
+      <c r="B92" s="138"/>
+      <c r="C92" s="141"/>
+      <c r="D92" s="142"/>
+      <c r="E92" s="142"/>
+      <c r="F92" s="142"/>
+      <c r="G92" s="142"/>
+      <c r="H92" s="142"/>
+      <c r="I92" s="142"/>
+      <c r="J92" s="142"/>
+      <c r="K92" s="143"/>
       <c r="L92" s="49"/>
     </row>
     <row r="93" spans="1:12">
@@ -6900,40 +7015,19 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:K76"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="C56:K56"/>
     <mergeCell ref="A74:B74"/>
@@ -6950,19 +7044,40 @@
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="K64:K65"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:K76"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="K90:K91"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -7003,22 +7118,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="141" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="141"/>
-      <c r="E1" s="142" t="s">
+      <c r="D1" s="148"/>
+      <c r="E1" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="142"/>
+      <c r="F1" s="149"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="143" t="s">
+      <c r="J1" s="150" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="12" t="str">
@@ -7045,22 +7160,22 @@
       <c r="AC1" s="12"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="140" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142" t="s">
+      <c r="D2" s="148"/>
+      <c r="E2" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="142"/>
+      <c r="F2" s="149"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="144"/>
+      <c r="J2" s="151"/>
       <c r="K2" s="12" t="str">
         <f>"/*"&amp;C3&amp;"*/"</f>
         <v>/*用于记录合同主体信息*/</v>
@@ -7085,10 +7200,10 @@
       <c r="AC2" s="12"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="133"/>
+      <c r="B3" s="138"/>
       <c r="C3" s="145" t="s">
         <v>23</v>
       </c>
@@ -8220,22 +8335,22 @@
       <c r="AC28" s="12"/>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="139"/>
-      <c r="C29" s="140" t="s">
+      <c r="B29" s="144"/>
+      <c r="C29" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="141"/>
-      <c r="E29" s="142" t="s">
+      <c r="D29" s="148"/>
+      <c r="E29" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="142"/>
+      <c r="F29" s="149"/>
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
-      <c r="J29" s="143" t="s">
+      <c r="J29" s="150" t="s">
         <v>39</v>
       </c>
       <c r="K29" s="12" t="str">
@@ -8262,22 +8377,22 @@
       <c r="AC29" s="12"/>
     </row>
     <row r="30" spans="1:29">
-      <c r="A30" s="132" t="s">
+      <c r="A30" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="139"/>
-      <c r="C30" s="140" t="s">
+      <c r="B30" s="144"/>
+      <c r="C30" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="141"/>
-      <c r="E30" s="142" t="s">
+      <c r="D30" s="148"/>
+      <c r="E30" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="142"/>
+      <c r="F30" s="149"/>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
-      <c r="J30" s="144"/>
+      <c r="J30" s="151"/>
       <c r="K30" s="12" t="str">
         <f>"/*"&amp;C31&amp;"*/"</f>
         <v>/*用于记录合同明细信息*/</v>
@@ -8302,10 +8417,10 @@
       <c r="AC30" s="12"/>
     </row>
     <row r="31" spans="1:29">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="139"/>
+      <c r="B31" s="144"/>
       <c r="C31" s="145" t="s">
         <v>40</v>
       </c>
@@ -9207,22 +9322,22 @@
       <c r="AC51" s="12"/>
     </row>
     <row r="52" spans="1:29">
-      <c r="A52" s="132" t="s">
+      <c r="A52" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="139"/>
-      <c r="C52" s="140" t="s">
+      <c r="B52" s="144"/>
+      <c r="C52" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="141"/>
-      <c r="E52" s="142" t="s">
+      <c r="D52" s="148"/>
+      <c r="E52" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="142"/>
+      <c r="F52" s="149"/>
       <c r="G52" s="31"/>
       <c r="H52" s="31"/>
       <c r="I52" s="31"/>
-      <c r="J52" s="143" t="s">
+      <c r="J52" s="150" t="s">
         <v>70</v>
       </c>
       <c r="K52" s="12" t="str">
@@ -9249,22 +9364,22 @@
       <c r="AC52" s="12"/>
     </row>
     <row r="53" spans="1:29">
-      <c r="A53" s="132" t="s">
+      <c r="A53" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="139"/>
-      <c r="C53" s="140" t="s">
+      <c r="B53" s="144"/>
+      <c r="C53" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="141"/>
-      <c r="E53" s="142" t="s">
+      <c r="D53" s="148"/>
+      <c r="E53" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="142"/>
+      <c r="F53" s="149"/>
       <c r="G53" s="31"/>
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
-      <c r="J53" s="144"/>
+      <c r="J53" s="151"/>
       <c r="K53" s="12" t="str">
         <f>"/*"&amp;C54&amp;"*/"</f>
         <v>/*用于记录产品套餐信息*/</v>
@@ -9289,10 +9404,10 @@
       <c r="AC53" s="12"/>
     </row>
     <row r="54" spans="1:29">
-      <c r="A54" s="132" t="s">
+      <c r="A54" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="139"/>
+      <c r="B54" s="144"/>
       <c r="C54" s="145" t="s">
         <v>78</v>
       </c>
@@ -10118,22 +10233,22 @@
       <c r="AC73" s="12"/>
     </row>
     <row r="74" spans="1:29">
-      <c r="A74" s="132" t="s">
+      <c r="A74" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="139"/>
-      <c r="C74" s="140" t="s">
+      <c r="B74" s="144"/>
+      <c r="C74" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="D74" s="141"/>
-      <c r="E74" s="142" t="s">
+      <c r="D74" s="148"/>
+      <c r="E74" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="142"/>
+      <c r="F74" s="149"/>
       <c r="G74" s="31"/>
       <c r="H74" s="31"/>
       <c r="I74" s="31"/>
-      <c r="J74" s="143" t="s">
+      <c r="J74" s="150" t="s">
         <v>101</v>
       </c>
       <c r="K74" s="12" t="str">
@@ -10160,22 +10275,22 @@
       <c r="AC74" s="12"/>
     </row>
     <row r="75" spans="1:29">
-      <c r="A75" s="132" t="s">
+      <c r="A75" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="139"/>
-      <c r="C75" s="140" t="s">
+      <c r="B75" s="144"/>
+      <c r="C75" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="D75" s="141"/>
-      <c r="E75" s="142" t="s">
+      <c r="D75" s="148"/>
+      <c r="E75" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="142"/>
+      <c r="F75" s="149"/>
       <c r="G75" s="31"/>
       <c r="H75" s="31"/>
       <c r="I75" s="31"/>
-      <c r="J75" s="144"/>
+      <c r="J75" s="151"/>
       <c r="K75" s="12" t="str">
         <f>"/*"&amp;C76&amp;"*/"</f>
         <v>/*字典表,记录所有的套餐类型*/</v>
@@ -10200,10 +10315,10 @@
       <c r="AC75" s="12"/>
     </row>
     <row r="76" spans="1:29">
-      <c r="A76" s="132" t="s">
+      <c r="A76" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="139"/>
+      <c r="B76" s="144"/>
       <c r="C76" s="145" t="s">
         <v>145</v>
       </c>
@@ -10734,22 +10849,22 @@
       <c r="AC88" s="12"/>
     </row>
     <row r="89" spans="1:29">
-      <c r="A89" s="132" t="s">
+      <c r="A89" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="133"/>
-      <c r="C89" s="140" t="s">
+      <c r="B89" s="138"/>
+      <c r="C89" s="147" t="s">
         <v>106</v>
       </c>
-      <c r="D89" s="141"/>
-      <c r="E89" s="142" t="s">
+      <c r="D89" s="148"/>
+      <c r="E89" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="142"/>
+      <c r="F89" s="149"/>
       <c r="G89" s="31"/>
       <c r="H89" s="31"/>
       <c r="I89" s="31"/>
-      <c r="J89" s="143" t="s">
+      <c r="J89" s="150" t="s">
         <v>120</v>
       </c>
       <c r="K89" s="12" t="str">
@@ -10776,22 +10891,22 @@
       <c r="AC89" s="12"/>
     </row>
     <row r="90" spans="1:29">
-      <c r="A90" s="132" t="s">
+      <c r="A90" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="133"/>
-      <c r="C90" s="140" t="s">
+      <c r="B90" s="138"/>
+      <c r="C90" s="147" t="s">
         <v>164</v>
       </c>
-      <c r="D90" s="141"/>
-      <c r="E90" s="142" t="s">
+      <c r="D90" s="148"/>
+      <c r="E90" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="142"/>
+      <c r="F90" s="149"/>
       <c r="G90" s="31"/>
       <c r="H90" s="31"/>
       <c r="I90" s="31"/>
-      <c r="J90" s="144"/>
+      <c r="J90" s="151"/>
       <c r="K90" s="12" t="str">
         <f>"/*"&amp;C91&amp;"*/"</f>
         <v>/**/</v>
@@ -10816,10 +10931,10 @@
       <c r="AC90" s="12"/>
     </row>
     <row r="91" spans="1:29">
-      <c r="A91" s="132" t="s">
+      <c r="A91" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="133"/>
+      <c r="B91" s="138"/>
       <c r="C91" s="145"/>
       <c r="D91" s="146"/>
       <c r="E91" s="146"/>
@@ -11663,22 +11778,22 @@
       <c r="AC110" s="12"/>
     </row>
     <row r="111" spans="1:29">
-      <c r="A111" s="132" t="s">
+      <c r="A111" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="133"/>
-      <c r="C111" s="140" t="s">
+      <c r="B111" s="138"/>
+      <c r="C111" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="D111" s="141"/>
-      <c r="E111" s="142" t="s">
+      <c r="D111" s="148"/>
+      <c r="E111" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="F111" s="142"/>
+      <c r="F111" s="149"/>
       <c r="G111" s="22"/>
       <c r="H111" s="22"/>
       <c r="I111" s="17"/>
-      <c r="J111" s="143" t="s">
+      <c r="J111" s="150" t="s">
         <v>198</v>
       </c>
       <c r="K111" s="12" t="str">
@@ -11705,22 +11820,22 @@
       <c r="AC111" s="12"/>
     </row>
     <row r="112" spans="1:29">
-      <c r="A112" s="132" t="s">
+      <c r="A112" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="133"/>
-      <c r="C112" s="140" t="s">
+      <c r="B112" s="138"/>
+      <c r="C112" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="D112" s="141"/>
-      <c r="E112" s="142" t="s">
+      <c r="D112" s="148"/>
+      <c r="E112" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="142"/>
+      <c r="F112" s="149"/>
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
       <c r="I112" s="17"/>
-      <c r="J112" s="144"/>
+      <c r="J112" s="151"/>
       <c r="K112" s="12" t="str">
         <f>"/*"&amp;C113&amp;"*/"</f>
         <v>/**/</v>
@@ -11745,10 +11860,10 @@
       <c r="AC112" s="12"/>
     </row>
     <row r="113" spans="1:29">
-      <c r="A113" s="132" t="s">
+      <c r="A113" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B113" s="133"/>
+      <c r="B113" s="138"/>
       <c r="C113" s="145"/>
       <c r="D113" s="146"/>
       <c r="E113" s="146"/>
@@ -12540,6 +12655,49 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:J91"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:J113"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:J31"/>
     <mergeCell ref="A3:B3"/>
@@ -12551,49 +12709,6 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:J113"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:J91"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12623,23 +12738,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="139" t="s">
         <v>387</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132" t="s">
+      <c r="D1" s="140"/>
+      <c r="E1" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="133"/>
+      <c r="F1" s="138"/>
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
       <c r="I1" s="94"/>
       <c r="J1" s="94"/>
-      <c r="K1" s="137" t="s">
+      <c r="K1" s="135" t="s">
         <v>698</v>
       </c>
       <c r="L1" s="11" t="str">
@@ -12648,42 +12763,42 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="147" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="152" t="s">
         <v>510</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="133"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="94"/>
       <c r="H2" s="94"/>
       <c r="I2" s="94"/>
       <c r="J2" s="94"/>
-      <c r="K2" s="138"/>
+      <c r="K2" s="136"/>
       <c r="L2" s="11" t="str">
         <f>"-- "&amp;C3</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="136"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12">
@@ -13151,23 +13266,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="137" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="139" t="s">
         <v>722</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132" t="s">
+      <c r="D1" s="140"/>
+      <c r="E1" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="133"/>
+      <c r="F1" s="138"/>
       <c r="G1" s="75"/>
       <c r="H1" s="75"/>
       <c r="I1" s="75"/>
       <c r="J1" s="75"/>
-      <c r="K1" s="137" t="s">
+      <c r="K1" s="135" t="s">
         <v>741</v>
       </c>
       <c r="L1" s="11" t="str">
@@ -13176,42 +13291,42 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="147" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="152" t="s">
         <v>465</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="133"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="75"/>
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
       <c r="J2" s="75"/>
-      <c r="K2" s="138"/>
+      <c r="K2" s="136"/>
       <c r="L2" s="11" t="str">
         <f>"-- "&amp;C3</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="136"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12">
@@ -13801,23 +13916,23 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="132" t="s">
+      <c r="A27" s="137" t="s">
         <v>291</v>
       </c>
-      <c r="B27" s="133"/>
-      <c r="C27" s="130" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="139" t="s">
         <v>333</v>
       </c>
-      <c r="D27" s="131"/>
-      <c r="E27" s="132" t="s">
+      <c r="D27" s="140"/>
+      <c r="E27" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="F27" s="133"/>
+      <c r="F27" s="138"/>
       <c r="G27" s="75"/>
       <c r="H27" s="75"/>
       <c r="I27" s="75"/>
       <c r="J27" s="75"/>
-      <c r="K27" s="137" t="s">
+      <c r="K27" s="135" t="s">
         <v>578</v>
       </c>
       <c r="L27" s="11" t="str">
@@ -13826,42 +13941,42 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="132" t="s">
+      <c r="A28" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="B28" s="133"/>
-      <c r="C28" s="147" t="s">
+      <c r="B28" s="138"/>
+      <c r="C28" s="152" t="s">
         <v>334</v>
       </c>
-      <c r="D28" s="131"/>
-      <c r="E28" s="132" t="s">
+      <c r="D28" s="140"/>
+      <c r="E28" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="F28" s="133"/>
+      <c r="F28" s="138"/>
       <c r="G28" s="75"/>
       <c r="H28" s="75"/>
       <c r="I28" s="75"/>
       <c r="J28" s="75"/>
-      <c r="K28" s="138"/>
+      <c r="K28" s="136"/>
       <c r="L28" s="11" t="str">
         <f>"-- "&amp;C29</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B29" s="133"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="136"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="143"/>
       <c r="L29" s="49"/>
     </row>
     <row r="30" spans="1:12">
@@ -14358,23 +14473,23 @@
       <c r="L49" s="76"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="132" t="s">
+      <c r="A50" s="137" t="s">
         <v>291</v>
       </c>
-      <c r="B50" s="133"/>
-      <c r="C50" s="130" t="s">
+      <c r="B50" s="138"/>
+      <c r="C50" s="139" t="s">
         <v>292</v>
       </c>
-      <c r="D50" s="131"/>
-      <c r="E50" s="132" t="s">
+      <c r="D50" s="140"/>
+      <c r="E50" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="F50" s="133"/>
+      <c r="F50" s="138"/>
       <c r="G50" s="75"/>
       <c r="H50" s="75"/>
       <c r="I50" s="75"/>
       <c r="J50" s="75"/>
-      <c r="K50" s="137" t="s">
+      <c r="K50" s="135" t="s">
         <v>294</v>
       </c>
       <c r="L50" s="11" t="str">
@@ -14383,42 +14498,42 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="132" t="s">
+      <c r="A51" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="B51" s="133"/>
-      <c r="C51" s="147" t="s">
+      <c r="B51" s="138"/>
+      <c r="C51" s="152" t="s">
         <v>296</v>
       </c>
-      <c r="D51" s="131"/>
-      <c r="E51" s="132" t="s">
+      <c r="D51" s="140"/>
+      <c r="E51" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="F51" s="133"/>
+      <c r="F51" s="138"/>
       <c r="G51" s="75"/>
       <c r="H51" s="75"/>
       <c r="I51" s="75"/>
       <c r="J51" s="75"/>
-      <c r="K51" s="138"/>
+      <c r="K51" s="136"/>
       <c r="L51" s="11" t="str">
         <f>"-- "&amp;C52</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="132" t="s">
+      <c r="A52" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B52" s="133"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="135"/>
-      <c r="G52" s="135"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="135"/>
-      <c r="J52" s="135"/>
-      <c r="K52" s="136"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="142"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="142"/>
+      <c r="H52" s="142"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="142"/>
+      <c r="K52" s="143"/>
       <c r="L52" s="49"/>
     </row>
     <row r="53" spans="1:12">
@@ -14691,23 +14806,23 @@
       <c r="L64" s="76"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="132" t="s">
+      <c r="A65" s="137" t="s">
         <v>291</v>
       </c>
-      <c r="B65" s="133"/>
-      <c r="C65" s="130" t="s">
+      <c r="B65" s="138"/>
+      <c r="C65" s="139" t="s">
         <v>324</v>
       </c>
-      <c r="D65" s="131"/>
-      <c r="E65" s="132" t="s">
+      <c r="D65" s="140"/>
+      <c r="E65" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="F65" s="133"/>
+      <c r="F65" s="138"/>
       <c r="G65" s="75"/>
       <c r="H65" s="75"/>
       <c r="I65" s="75"/>
       <c r="J65" s="75"/>
-      <c r="K65" s="137" t="s">
+      <c r="K65" s="135" t="s">
         <v>325</v>
       </c>
       <c r="L65" s="11" t="str">
@@ -14716,42 +14831,42 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="132" t="s">
+      <c r="A66" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="B66" s="133"/>
-      <c r="C66" s="147" t="s">
+      <c r="B66" s="138"/>
+      <c r="C66" s="152" t="s">
         <v>326</v>
       </c>
-      <c r="D66" s="131"/>
-      <c r="E66" s="132" t="s">
+      <c r="D66" s="140"/>
+      <c r="E66" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="F66" s="133"/>
+      <c r="F66" s="138"/>
       <c r="G66" s="75"/>
       <c r="H66" s="75"/>
       <c r="I66" s="75"/>
       <c r="J66" s="75"/>
-      <c r="K66" s="138"/>
+      <c r="K66" s="136"/>
       <c r="L66" s="11" t="str">
         <f>"-- "&amp;C67</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="132" t="s">
+      <c r="A67" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B67" s="133"/>
-      <c r="C67" s="134"/>
-      <c r="D67" s="135"/>
-      <c r="E67" s="135"/>
-      <c r="F67" s="135"/>
-      <c r="G67" s="135"/>
-      <c r="H67" s="135"/>
-      <c r="I67" s="135"/>
-      <c r="J67" s="135"/>
-      <c r="K67" s="136"/>
+      <c r="B67" s="138"/>
+      <c r="C67" s="141"/>
+      <c r="D67" s="142"/>
+      <c r="E67" s="142"/>
+      <c r="F67" s="142"/>
+      <c r="G67" s="142"/>
+      <c r="H67" s="142"/>
+      <c r="I67" s="142"/>
+      <c r="J67" s="142"/>
+      <c r="K67" s="143"/>
       <c r="L67" s="49"/>
     </row>
     <row r="68" spans="1:12">
@@ -14945,23 +15060,23 @@
       <c r="L76" s="76"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="132" t="s">
+      <c r="A77" s="137" t="s">
         <v>291</v>
       </c>
-      <c r="B77" s="133"/>
-      <c r="C77" s="130" t="s">
+      <c r="B77" s="138"/>
+      <c r="C77" s="139" t="s">
         <v>333</v>
       </c>
-      <c r="D77" s="131"/>
-      <c r="E77" s="132" t="s">
+      <c r="D77" s="140"/>
+      <c r="E77" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="F77" s="133"/>
+      <c r="F77" s="138"/>
       <c r="G77" s="75"/>
       <c r="H77" s="75"/>
       <c r="I77" s="75"/>
       <c r="J77" s="75"/>
-      <c r="K77" s="137" t="s">
+      <c r="K77" s="135" t="s">
         <v>585</v>
       </c>
       <c r="L77" s="11" t="str">
@@ -14970,42 +15085,42 @@
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="132" t="s">
+      <c r="A78" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="B78" s="133"/>
-      <c r="C78" s="147" t="s">
+      <c r="B78" s="138"/>
+      <c r="C78" s="152" t="s">
         <v>360</v>
       </c>
-      <c r="D78" s="131"/>
-      <c r="E78" s="132" t="s">
+      <c r="D78" s="140"/>
+      <c r="E78" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="F78" s="133"/>
+      <c r="F78" s="138"/>
       <c r="G78" s="75"/>
       <c r="H78" s="75"/>
       <c r="I78" s="75"/>
       <c r="J78" s="75"/>
-      <c r="K78" s="138"/>
+      <c r="K78" s="136"/>
       <c r="L78" s="11" t="str">
         <f>"-- "&amp;C79</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="132" t="s">
+      <c r="A79" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B79" s="133"/>
-      <c r="C79" s="134"/>
-      <c r="D79" s="135"/>
-      <c r="E79" s="135"/>
-      <c r="F79" s="135"/>
-      <c r="G79" s="135"/>
-      <c r="H79" s="135"/>
-      <c r="I79" s="135"/>
-      <c r="J79" s="135"/>
-      <c r="K79" s="136"/>
+      <c r="B79" s="138"/>
+      <c r="C79" s="141"/>
+      <c r="D79" s="142"/>
+      <c r="E79" s="142"/>
+      <c r="F79" s="142"/>
+      <c r="G79" s="142"/>
+      <c r="H79" s="142"/>
+      <c r="I79" s="142"/>
+      <c r="J79" s="142"/>
+      <c r="K79" s="143"/>
       <c r="L79" s="49"/>
     </row>
     <row r="80" spans="1:12">
@@ -15279,23 +15394,23 @@
       <c r="L91" s="76"/>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="132" t="s">
+      <c r="A92" s="137" t="s">
         <v>291</v>
       </c>
-      <c r="B92" s="133"/>
-      <c r="C92" s="130" t="s">
+      <c r="B92" s="138"/>
+      <c r="C92" s="139" t="s">
         <v>367</v>
       </c>
-      <c r="D92" s="131"/>
-      <c r="E92" s="132" t="s">
+      <c r="D92" s="140"/>
+      <c r="E92" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="F92" s="133"/>
+      <c r="F92" s="138"/>
       <c r="G92" s="75"/>
       <c r="H92" s="75"/>
       <c r="I92" s="75"/>
       <c r="J92" s="75"/>
-      <c r="K92" s="137" t="s">
+      <c r="K92" s="135" t="s">
         <v>591</v>
       </c>
       <c r="L92" s="11" t="str">
@@ -15304,42 +15419,42 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="132" t="s">
+      <c r="A93" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="B93" s="133"/>
-      <c r="C93" s="147" t="s">
+      <c r="B93" s="138"/>
+      <c r="C93" s="152" t="s">
         <v>368</v>
       </c>
-      <c r="D93" s="131"/>
-      <c r="E93" s="132" t="s">
+      <c r="D93" s="140"/>
+      <c r="E93" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="F93" s="133"/>
+      <c r="F93" s="138"/>
       <c r="G93" s="75"/>
       <c r="H93" s="75"/>
       <c r="I93" s="75"/>
       <c r="J93" s="75"/>
-      <c r="K93" s="138"/>
+      <c r="K93" s="136"/>
       <c r="L93" s="11" t="str">
         <f>"-- "&amp;C94</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="132" t="s">
+      <c r="A94" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B94" s="133"/>
-      <c r="C94" s="134"/>
-      <c r="D94" s="135"/>
-      <c r="E94" s="135"/>
-      <c r="F94" s="135"/>
-      <c r="G94" s="135"/>
-      <c r="H94" s="135"/>
-      <c r="I94" s="135"/>
-      <c r="J94" s="135"/>
-      <c r="K94" s="136"/>
+      <c r="B94" s="138"/>
+      <c r="C94" s="141"/>
+      <c r="D94" s="142"/>
+      <c r="E94" s="142"/>
+      <c r="F94" s="142"/>
+      <c r="G94" s="142"/>
+      <c r="H94" s="142"/>
+      <c r="I94" s="142"/>
+      <c r="J94" s="142"/>
+      <c r="K94" s="143"/>
       <c r="L94" s="49"/>
     </row>
     <row r="95" spans="1:12">
@@ -15662,23 +15777,23 @@
       <c r="L108" s="76"/>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="132" t="s">
+      <c r="A109" s="137" t="s">
         <v>291</v>
       </c>
-      <c r="B109" s="133"/>
-      <c r="C109" s="130" t="s">
+      <c r="B109" s="138"/>
+      <c r="C109" s="139" t="s">
         <v>367</v>
       </c>
-      <c r="D109" s="131"/>
-      <c r="E109" s="132" t="s">
+      <c r="D109" s="140"/>
+      <c r="E109" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="F109" s="133"/>
+      <c r="F109" s="138"/>
       <c r="G109" s="75"/>
       <c r="H109" s="75"/>
       <c r="I109" s="75"/>
       <c r="J109" s="75"/>
-      <c r="K109" s="137" t="s">
+      <c r="K109" s="135" t="s">
         <v>594</v>
       </c>
       <c r="L109" s="11" t="str">
@@ -15687,42 +15802,42 @@
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="132" t="s">
+      <c r="A110" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="B110" s="133"/>
-      <c r="C110" s="147" t="s">
+      <c r="B110" s="138"/>
+      <c r="C110" s="152" t="s">
         <v>382</v>
       </c>
-      <c r="D110" s="131"/>
-      <c r="E110" s="132" t="s">
+      <c r="D110" s="140"/>
+      <c r="E110" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="F110" s="133"/>
+      <c r="F110" s="138"/>
       <c r="G110" s="75"/>
       <c r="H110" s="75"/>
       <c r="I110" s="75"/>
       <c r="J110" s="75"/>
-      <c r="K110" s="138"/>
+      <c r="K110" s="136"/>
       <c r="L110" s="11" t="str">
         <f>"-- "&amp;C111</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="132" t="s">
+      <c r="A111" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B111" s="133"/>
-      <c r="C111" s="134"/>
-      <c r="D111" s="135"/>
-      <c r="E111" s="135"/>
-      <c r="F111" s="135"/>
-      <c r="G111" s="135"/>
-      <c r="H111" s="135"/>
-      <c r="I111" s="135"/>
-      <c r="J111" s="135"/>
-      <c r="K111" s="136"/>
+      <c r="B111" s="138"/>
+      <c r="C111" s="141"/>
+      <c r="D111" s="142"/>
+      <c r="E111" s="142"/>
+      <c r="F111" s="142"/>
+      <c r="G111" s="142"/>
+      <c r="H111" s="142"/>
+      <c r="I111" s="142"/>
+      <c r="J111" s="142"/>
+      <c r="K111" s="143"/>
       <c r="L111" s="49"/>
     </row>
     <row r="112" spans="1:12">
@@ -15919,23 +16034,23 @@
       <c r="L120" s="76"/>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="132" t="s">
+      <c r="A121" s="137" t="s">
         <v>291</v>
       </c>
-      <c r="B121" s="133"/>
-      <c r="C121" s="130" t="s">
+      <c r="B121" s="138"/>
+      <c r="C121" s="139" t="s">
         <v>387</v>
       </c>
-      <c r="D121" s="131"/>
-      <c r="E121" s="132" t="s">
+      <c r="D121" s="140"/>
+      <c r="E121" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="F121" s="133"/>
+      <c r="F121" s="138"/>
       <c r="G121" s="75"/>
       <c r="H121" s="75"/>
       <c r="I121" s="75"/>
       <c r="J121" s="75"/>
-      <c r="K121" s="137" t="s">
+      <c r="K121" s="135" t="s">
         <v>597</v>
       </c>
       <c r="L121" s="11" t="str">
@@ -15944,42 +16059,42 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="132" t="s">
+      <c r="A122" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="B122" s="133"/>
-      <c r="C122" s="147" t="s">
+      <c r="B122" s="138"/>
+      <c r="C122" s="152" t="s">
         <v>404</v>
       </c>
-      <c r="D122" s="131"/>
-      <c r="E122" s="132" t="s">
+      <c r="D122" s="140"/>
+      <c r="E122" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="F122" s="133"/>
+      <c r="F122" s="138"/>
       <c r="G122" s="75"/>
       <c r="H122" s="75"/>
       <c r="I122" s="75"/>
       <c r="J122" s="75"/>
-      <c r="K122" s="138"/>
+      <c r="K122" s="136"/>
       <c r="L122" s="11" t="str">
         <f>"-- "&amp;C123</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="132" t="s">
+      <c r="A123" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B123" s="133"/>
-      <c r="C123" s="134"/>
-      <c r="D123" s="135"/>
-      <c r="E123" s="135"/>
-      <c r="F123" s="135"/>
-      <c r="G123" s="135"/>
-      <c r="H123" s="135"/>
-      <c r="I123" s="135"/>
-      <c r="J123" s="135"/>
-      <c r="K123" s="136"/>
+      <c r="B123" s="138"/>
+      <c r="C123" s="141"/>
+      <c r="D123" s="142"/>
+      <c r="E123" s="142"/>
+      <c r="F123" s="142"/>
+      <c r="G123" s="142"/>
+      <c r="H123" s="142"/>
+      <c r="I123" s="142"/>
+      <c r="J123" s="142"/>
+      <c r="K123" s="143"/>
       <c r="L123" s="49"/>
     </row>
     <row r="124" spans="1:12">
@@ -16384,23 +16499,23 @@
       <c r="L140" s="76"/>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="132" t="s">
+      <c r="A141" s="137" t="s">
         <v>291</v>
       </c>
-      <c r="B141" s="133"/>
-      <c r="C141" s="130" t="s">
+      <c r="B141" s="138"/>
+      <c r="C141" s="139" t="s">
         <v>387</v>
       </c>
-      <c r="D141" s="131"/>
-      <c r="E141" s="132" t="s">
+      <c r="D141" s="140"/>
+      <c r="E141" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="F141" s="133"/>
+      <c r="F141" s="138"/>
       <c r="G141" s="75"/>
       <c r="H141" s="75"/>
       <c r="I141" s="75"/>
       <c r="J141" s="75"/>
-      <c r="K141" s="137" t="s">
+      <c r="K141" s="135" t="s">
         <v>417</v>
       </c>
       <c r="L141" s="11" t="str">
@@ -16409,42 +16524,42 @@
       </c>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="132" t="s">
+      <c r="A142" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="B142" s="133"/>
-      <c r="C142" s="147" t="s">
+      <c r="B142" s="138"/>
+      <c r="C142" s="152" t="s">
         <v>418</v>
       </c>
-      <c r="D142" s="131"/>
-      <c r="E142" s="132" t="s">
+      <c r="D142" s="140"/>
+      <c r="E142" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="F142" s="133"/>
+      <c r="F142" s="138"/>
       <c r="G142" s="75"/>
       <c r="H142" s="75"/>
       <c r="I142" s="75"/>
       <c r="J142" s="75"/>
-      <c r="K142" s="138"/>
+      <c r="K142" s="136"/>
       <c r="L142" s="11" t="str">
         <f>"-- "&amp;C143</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="132" t="s">
+      <c r="A143" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B143" s="133"/>
-      <c r="C143" s="134"/>
-      <c r="D143" s="135"/>
-      <c r="E143" s="135"/>
-      <c r="F143" s="135"/>
-      <c r="G143" s="135"/>
-      <c r="H143" s="135"/>
-      <c r="I143" s="135"/>
-      <c r="J143" s="135"/>
-      <c r="K143" s="136"/>
+      <c r="B143" s="138"/>
+      <c r="C143" s="141"/>
+      <c r="D143" s="142"/>
+      <c r="E143" s="142"/>
+      <c r="F143" s="142"/>
+      <c r="G143" s="142"/>
+      <c r="H143" s="142"/>
+      <c r="I143" s="142"/>
+      <c r="J143" s="142"/>
+      <c r="K143" s="143"/>
       <c r="L143" s="49"/>
     </row>
     <row r="144" spans="1:12">
@@ -16718,23 +16833,23 @@
       <c r="L155" s="76"/>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="132" t="s">
+      <c r="A156" s="137" t="s">
         <v>291</v>
       </c>
-      <c r="B156" s="133"/>
-      <c r="C156" s="130" t="s">
+      <c r="B156" s="138"/>
+      <c r="C156" s="139" t="s">
         <v>431</v>
       </c>
-      <c r="D156" s="131"/>
-      <c r="E156" s="132" t="s">
+      <c r="D156" s="140"/>
+      <c r="E156" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="F156" s="133"/>
+      <c r="F156" s="138"/>
       <c r="G156" s="75"/>
       <c r="H156" s="75"/>
       <c r="I156" s="75"/>
       <c r="J156" s="75"/>
-      <c r="K156" s="137" t="s">
+      <c r="K156" s="135" t="s">
         <v>607</v>
       </c>
       <c r="L156" s="11" t="str">
@@ -16743,42 +16858,42 @@
       </c>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="132" t="s">
+      <c r="A157" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="B157" s="133"/>
-      <c r="C157" s="147" t="s">
+      <c r="B157" s="138"/>
+      <c r="C157" s="152" t="s">
         <v>432</v>
       </c>
-      <c r="D157" s="131"/>
-      <c r="E157" s="132" t="s">
+      <c r="D157" s="140"/>
+      <c r="E157" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="F157" s="133"/>
+      <c r="F157" s="138"/>
       <c r="G157" s="75"/>
       <c r="H157" s="75"/>
       <c r="I157" s="75"/>
       <c r="J157" s="75"/>
-      <c r="K157" s="138"/>
+      <c r="K157" s="136"/>
       <c r="L157" s="11" t="str">
         <f>"-- "&amp;C158</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="132" t="s">
+      <c r="A158" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B158" s="133"/>
-      <c r="C158" s="134"/>
-      <c r="D158" s="135"/>
-      <c r="E158" s="135"/>
-      <c r="F158" s="135"/>
-      <c r="G158" s="135"/>
-      <c r="H158" s="135"/>
-      <c r="I158" s="135"/>
-      <c r="J158" s="135"/>
-      <c r="K158" s="136"/>
+      <c r="B158" s="138"/>
+      <c r="C158" s="141"/>
+      <c r="D158" s="142"/>
+      <c r="E158" s="142"/>
+      <c r="F158" s="142"/>
+      <c r="G158" s="142"/>
+      <c r="H158" s="142"/>
+      <c r="I158" s="142"/>
+      <c r="J158" s="142"/>
+      <c r="K158" s="143"/>
       <c r="L158" s="49"/>
     </row>
     <row r="159" spans="1:12">
@@ -17172,23 +17287,23 @@
       <c r="L174" s="76"/>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="132" t="s">
+      <c r="A175" s="137" t="s">
         <v>291</v>
       </c>
-      <c r="B175" s="133"/>
-      <c r="C175" s="130" t="s">
+      <c r="B175" s="138"/>
+      <c r="C175" s="139" t="s">
         <v>431</v>
       </c>
-      <c r="D175" s="131"/>
-      <c r="E175" s="132" t="s">
+      <c r="D175" s="140"/>
+      <c r="E175" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="F175" s="133"/>
+      <c r="F175" s="138"/>
       <c r="G175" s="75"/>
       <c r="H175" s="75"/>
       <c r="I175" s="75"/>
       <c r="J175" s="75"/>
-      <c r="K175" s="137" t="s">
+      <c r="K175" s="135" t="s">
         <v>608</v>
       </c>
       <c r="L175" s="11" t="str">
@@ -17197,42 +17312,42 @@
       </c>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="132" t="s">
+      <c r="A176" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="B176" s="133"/>
-      <c r="C176" s="147" t="s">
+      <c r="B176" s="138"/>
+      <c r="C176" s="152" t="s">
         <v>450</v>
       </c>
-      <c r="D176" s="131"/>
-      <c r="E176" s="132" t="s">
+      <c r="D176" s="140"/>
+      <c r="E176" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="F176" s="133"/>
+      <c r="F176" s="138"/>
       <c r="G176" s="75"/>
       <c r="H176" s="75"/>
       <c r="I176" s="75"/>
       <c r="J176" s="75"/>
-      <c r="K176" s="138"/>
+      <c r="K176" s="136"/>
       <c r="L176" s="11" t="str">
         <f>"-- "&amp;C177</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="132" t="s">
+      <c r="A177" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B177" s="133"/>
-      <c r="C177" s="134"/>
-      <c r="D177" s="135"/>
-      <c r="E177" s="135"/>
-      <c r="F177" s="135"/>
-      <c r="G177" s="135"/>
-      <c r="H177" s="135"/>
-      <c r="I177" s="135"/>
-      <c r="J177" s="135"/>
-      <c r="K177" s="136"/>
+      <c r="B177" s="138"/>
+      <c r="C177" s="141"/>
+      <c r="D177" s="142"/>
+      <c r="E177" s="142"/>
+      <c r="F177" s="142"/>
+      <c r="G177" s="142"/>
+      <c r="H177" s="142"/>
+      <c r="I177" s="142"/>
+      <c r="J177" s="142"/>
+      <c r="K177" s="143"/>
       <c r="L177" s="49"/>
     </row>
     <row r="178" spans="1:12">
@@ -17564,23 +17679,23 @@
       <c r="L191" s="76"/>
     </row>
     <row r="192" spans="1:12">
-      <c r="A192" s="132" t="s">
+      <c r="A192" s="137" t="s">
         <v>291</v>
       </c>
-      <c r="B192" s="133"/>
-      <c r="C192" s="130" t="s">
+      <c r="B192" s="138"/>
+      <c r="C192" s="139" t="s">
         <v>292</v>
       </c>
-      <c r="D192" s="131"/>
-      <c r="E192" s="132" t="s">
+      <c r="D192" s="140"/>
+      <c r="E192" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="F192" s="133"/>
+      <c r="F192" s="138"/>
       <c r="G192" s="75"/>
       <c r="H192" s="75"/>
       <c r="I192" s="75"/>
       <c r="J192" s="75"/>
-      <c r="K192" s="137" t="s">
+      <c r="K192" s="135" t="s">
         <v>616</v>
       </c>
       <c r="L192" s="11" t="str">
@@ -17589,42 +17704,42 @@
       </c>
     </row>
     <row r="193" spans="1:12">
-      <c r="A193" s="132" t="s">
+      <c r="A193" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="B193" s="133"/>
-      <c r="C193" s="147" t="s">
+      <c r="B193" s="138"/>
+      <c r="C193" s="152" t="s">
         <v>615</v>
       </c>
-      <c r="D193" s="131"/>
-      <c r="E193" s="132" t="s">
+      <c r="D193" s="140"/>
+      <c r="E193" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="F193" s="133"/>
+      <c r="F193" s="138"/>
       <c r="G193" s="75"/>
       <c r="H193" s="75"/>
       <c r="I193" s="75"/>
       <c r="J193" s="75"/>
-      <c r="K193" s="138"/>
+      <c r="K193" s="136"/>
       <c r="L193" s="11" t="str">
         <f>"-- "&amp;C194</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="194" spans="1:12">
-      <c r="A194" s="132" t="s">
+      <c r="A194" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B194" s="133"/>
-      <c r="C194" s="134"/>
-      <c r="D194" s="135"/>
-      <c r="E194" s="135"/>
-      <c r="F194" s="135"/>
-      <c r="G194" s="135"/>
-      <c r="H194" s="135"/>
-      <c r="I194" s="135"/>
-      <c r="J194" s="135"/>
-      <c r="K194" s="136"/>
+      <c r="B194" s="138"/>
+      <c r="C194" s="141"/>
+      <c r="D194" s="142"/>
+      <c r="E194" s="142"/>
+      <c r="F194" s="142"/>
+      <c r="G194" s="142"/>
+      <c r="H194" s="142"/>
+      <c r="I194" s="142"/>
+      <c r="J194" s="142"/>
+      <c r="K194" s="143"/>
       <c r="L194" s="49"/>
     </row>
     <row r="195" spans="1:12">
@@ -17897,23 +18012,23 @@
       <c r="L206" s="76"/>
     </row>
     <row r="207" spans="1:12">
-      <c r="A207" s="132" t="s">
+      <c r="A207" s="137" t="s">
         <v>467</v>
       </c>
-      <c r="B207" s="133"/>
-      <c r="C207" s="148" t="s">
+      <c r="B207" s="138"/>
+      <c r="C207" s="153" t="s">
         <v>468</v>
       </c>
-      <c r="D207" s="148"/>
-      <c r="E207" s="149" t="s">
+      <c r="D207" s="153"/>
+      <c r="E207" s="154" t="s">
         <v>469</v>
       </c>
-      <c r="F207" s="149"/>
+      <c r="F207" s="154"/>
       <c r="G207" s="75"/>
       <c r="H207" s="75"/>
       <c r="I207" s="75"/>
       <c r="J207" s="75"/>
-      <c r="K207" s="150" t="s">
+      <c r="K207" s="155" t="s">
         <v>617</v>
       </c>
       <c r="L207" s="11" t="str">
@@ -17922,33 +18037,33 @@
       </c>
     </row>
     <row r="208" spans="1:12">
-      <c r="A208" s="132" t="s">
+      <c r="A208" s="137" t="s">
         <v>470</v>
       </c>
-      <c r="B208" s="133"/>
-      <c r="C208" s="148" t="s">
+      <c r="B208" s="138"/>
+      <c r="C208" s="153" t="s">
         <v>471</v>
       </c>
-      <c r="D208" s="148"/>
-      <c r="E208" s="149" t="s">
+      <c r="D208" s="153"/>
+      <c r="E208" s="154" t="s">
         <v>472</v>
       </c>
-      <c r="F208" s="149"/>
+      <c r="F208" s="154"/>
       <c r="G208" s="75"/>
       <c r="H208" s="75"/>
       <c r="I208" s="75"/>
       <c r="J208" s="75"/>
-      <c r="K208" s="150"/>
+      <c r="K208" s="155"/>
       <c r="L208" s="11" t="str">
         <f>"-- "&amp;C209</f>
         <v>-- 用于记录业务员信息</v>
       </c>
     </row>
     <row r="209" spans="1:12">
-      <c r="A209" s="132" t="s">
+      <c r="A209" s="137" t="s">
         <v>473</v>
       </c>
-      <c r="B209" s="133"/>
+      <c r="B209" s="138"/>
       <c r="C209" s="77" t="s">
         <v>474</v>
       </c>
@@ -18240,28 +18355,76 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:K194"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="K207:K208"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="C177:K177"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="K192:K193"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:K158"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="K175:K176"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:K143"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="K156:K157"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:K123"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:K111"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:K67"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -18286,76 +18449,28 @@
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="K77:K78"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:K111"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:K67"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:K123"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:K143"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="K156:K157"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:K158"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="K175:K176"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="C177:K177"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="K192:K193"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="C194:K194"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="K207:K208"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -18392,23 +18507,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="35" customFormat="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="139" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132" t="s">
+      <c r="D1" s="140"/>
+      <c r="E1" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="133"/>
+      <c r="F1" s="138"/>
       <c r="G1" s="99"/>
       <c r="H1" s="99"/>
       <c r="I1" s="99"/>
       <c r="J1" s="99"/>
-      <c r="K1" s="137" t="s">
+      <c r="K1" s="135" t="s">
         <v>626</v>
       </c>
       <c r="L1" s="11" t="str">
@@ -18435,23 +18550,23 @@
       <c r="AD1" s="11"/>
     </row>
     <row r="2" spans="1:30" s="35" customFormat="1">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="130" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="139" t="s">
         <v>531</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="133"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="99"/>
       <c r="H2" s="99"/>
       <c r="I2" s="99"/>
       <c r="J2" s="99"/>
-      <c r="K2" s="138"/>
+      <c r="K2" s="136"/>
       <c r="L2" s="11" t="str">
         <f>"-- "&amp;C3</f>
         <v xml:space="preserve">-- </v>
@@ -18476,19 +18591,19 @@
       <c r="AD2" s="11"/>
     </row>
     <row r="3" spans="1:30" s="35" customFormat="1">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="136"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
       <c r="L3" s="49"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -18914,23 +19029,23 @@
       </c>
     </row>
     <row r="15" spans="1:30" s="35" customFormat="1">
-      <c r="A15" s="132" t="s">
+      <c r="A15" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="130" t="s">
+      <c r="B15" s="138"/>
+      <c r="C15" s="139" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="131"/>
-      <c r="E15" s="132" t="s">
+      <c r="D15" s="140"/>
+      <c r="E15" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="133"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="99"/>
       <c r="H15" s="99"/>
       <c r="I15" s="99"/>
       <c r="J15" s="99"/>
-      <c r="K15" s="137" t="s">
+      <c r="K15" s="135" t="s">
         <v>657</v>
       </c>
       <c r="L15" s="11" t="str">
@@ -18957,23 +19072,23 @@
       <c r="AD15" s="11"/>
     </row>
     <row r="16" spans="1:30" s="35" customFormat="1">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="130" t="s">
+      <c r="B16" s="138"/>
+      <c r="C16" s="139" t="s">
         <v>532</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132" t="s">
+      <c r="D16" s="140"/>
+      <c r="E16" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="133"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="99"/>
       <c r="H16" s="99"/>
       <c r="I16" s="99"/>
       <c r="J16" s="99"/>
-      <c r="K16" s="138"/>
+      <c r="K16" s="136"/>
       <c r="L16" s="11" t="str">
         <f>"-- "&amp;C17</f>
         <v xml:space="preserve">-- </v>
@@ -18998,19 +19113,19 @@
       <c r="AD16" s="11"/>
     </row>
     <row r="17" spans="1:30" s="35" customFormat="1">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="136"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="143"/>
       <c r="L17" s="49"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -19616,23 +19731,23 @@
       </c>
     </row>
     <row r="32" spans="1:30" s="35" customFormat="1">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="133"/>
-      <c r="C32" s="130" t="s">
+      <c r="B32" s="138"/>
+      <c r="C32" s="139" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="131"/>
-      <c r="E32" s="132" t="s">
+      <c r="D32" s="140"/>
+      <c r="E32" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="133"/>
+      <c r="F32" s="138"/>
       <c r="G32" s="106"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
-      <c r="K32" s="137" t="s">
+      <c r="K32" s="135" t="s">
         <v>694</v>
       </c>
       <c r="L32" s="11" t="str">
@@ -19659,23 +19774,23 @@
       <c r="AD32" s="11"/>
     </row>
     <row r="33" spans="1:30" s="35" customFormat="1">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="133"/>
-      <c r="C33" s="130" t="s">
+      <c r="B33" s="138"/>
+      <c r="C33" s="139" t="s">
         <v>547</v>
       </c>
-      <c r="D33" s="131"/>
-      <c r="E33" s="132" t="s">
+      <c r="D33" s="140"/>
+      <c r="E33" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="133"/>
+      <c r="F33" s="138"/>
       <c r="G33" s="106"/>
       <c r="H33" s="106"/>
       <c r="I33" s="106"/>
       <c r="J33" s="106"/>
-      <c r="K33" s="138"/>
+      <c r="K33" s="136"/>
       <c r="L33" s="11" t="str">
         <f>"-- "&amp;C34</f>
         <v xml:space="preserve">-- </v>
@@ -19700,19 +19815,19 @@
       <c r="AD33" s="11"/>
     </row>
     <row r="34" spans="1:30" s="35" customFormat="1">
-      <c r="A34" s="132" t="s">
+      <c r="A34" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="133"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="135"/>
-      <c r="K34" s="136"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="143"/>
       <c r="L34" s="49"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -20447,23 +20562,23 @@
       </c>
     </row>
     <row r="54" spans="1:30" s="35" customFormat="1">
-      <c r="A54" s="132" t="s">
+      <c r="A54" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="133"/>
-      <c r="C54" s="130" t="s">
+      <c r="B54" s="138"/>
+      <c r="C54" s="139" t="s">
         <v>206</v>
       </c>
-      <c r="D54" s="131"/>
-      <c r="E54" s="132" t="s">
+      <c r="D54" s="140"/>
+      <c r="E54" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="133"/>
+      <c r="F54" s="138"/>
       <c r="G54" s="106"/>
       <c r="H54" s="106"/>
       <c r="I54" s="106"/>
       <c r="J54" s="106"/>
-      <c r="K54" s="137" t="s">
+      <c r="K54" s="135" t="s">
         <v>647</v>
       </c>
       <c r="L54" s="11" t="str">
@@ -20490,23 +20605,23 @@
       <c r="AD54" s="11"/>
     </row>
     <row r="55" spans="1:30" s="35" customFormat="1">
-      <c r="A55" s="132" t="s">
+      <c r="A55" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="133"/>
-      <c r="C55" s="130" t="s">
+      <c r="B55" s="138"/>
+      <c r="C55" s="139" t="s">
         <v>554</v>
       </c>
-      <c r="D55" s="131"/>
-      <c r="E55" s="132" t="s">
+      <c r="D55" s="140"/>
+      <c r="E55" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="133"/>
+      <c r="F55" s="138"/>
       <c r="G55" s="106"/>
       <c r="H55" s="106"/>
       <c r="I55" s="106"/>
       <c r="J55" s="106"/>
-      <c r="K55" s="138"/>
+      <c r="K55" s="136"/>
       <c r="L55" s="11" t="str">
         <f>"-- "&amp;C56</f>
         <v xml:space="preserve">-- </v>
@@ -20531,19 +20646,19 @@
       <c r="AD55" s="11"/>
     </row>
     <row r="56" spans="1:30" s="35" customFormat="1">
-      <c r="A56" s="132" t="s">
+      <c r="A56" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="133"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
-      <c r="J56" s="135"/>
-      <c r="K56" s="136"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="142"/>
+      <c r="J56" s="142"/>
+      <c r="K56" s="143"/>
       <c r="L56" s="49"/>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
@@ -21278,23 +21393,23 @@
       </c>
     </row>
     <row r="75" spans="1:30" s="35" customFormat="1">
-      <c r="A75" s="132" t="s">
+      <c r="A75" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="133"/>
-      <c r="C75" s="130" t="s">
+      <c r="B75" s="138"/>
+      <c r="C75" s="139" t="s">
         <v>206</v>
       </c>
-      <c r="D75" s="131"/>
-      <c r="E75" s="132" t="s">
+      <c r="D75" s="140"/>
+      <c r="E75" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="133"/>
+      <c r="F75" s="138"/>
       <c r="G75" s="126"/>
       <c r="H75" s="126"/>
       <c r="I75" s="126"/>
       <c r="J75" s="126"/>
-      <c r="K75" s="137" t="s">
+      <c r="K75" s="135" t="s">
         <v>708</v>
       </c>
       <c r="L75" s="11" t="str">
@@ -21321,23 +21436,23 @@
       <c r="AD75" s="11"/>
     </row>
     <row r="76" spans="1:30" s="35" customFormat="1">
-      <c r="A76" s="132" t="s">
+      <c r="A76" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="133"/>
-      <c r="C76" s="130" t="s">
+      <c r="B76" s="138"/>
+      <c r="C76" s="139" t="s">
         <v>707</v>
       </c>
-      <c r="D76" s="131"/>
-      <c r="E76" s="132" t="s">
+      <c r="D76" s="140"/>
+      <c r="E76" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="133"/>
+      <c r="F76" s="138"/>
       <c r="G76" s="126"/>
       <c r="H76" s="126"/>
       <c r="I76" s="126"/>
       <c r="J76" s="126"/>
-      <c r="K76" s="138"/>
+      <c r="K76" s="136"/>
       <c r="L76" s="11" t="str">
         <f>"-- "&amp;C77</f>
         <v xml:space="preserve">-- </v>
@@ -21362,19 +21477,19 @@
       <c r="AD76" s="11"/>
     </row>
     <row r="77" spans="1:30" s="35" customFormat="1">
-      <c r="A77" s="132" t="s">
+      <c r="A77" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="133"/>
-      <c r="C77" s="134"/>
-      <c r="D77" s="135"/>
-      <c r="E77" s="135"/>
-      <c r="F77" s="135"/>
-      <c r="G77" s="135"/>
-      <c r="H77" s="135"/>
-      <c r="I77" s="135"/>
-      <c r="J77" s="135"/>
-      <c r="K77" s="136"/>
+      <c r="B77" s="138"/>
+      <c r="C77" s="141"/>
+      <c r="D77" s="142"/>
+      <c r="E77" s="142"/>
+      <c r="F77" s="142"/>
+      <c r="G77" s="142"/>
+      <c r="H77" s="142"/>
+      <c r="I77" s="142"/>
+      <c r="J77" s="142"/>
+      <c r="K77" s="143"/>
       <c r="L77" s="49"/>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
@@ -21801,15 +21916,31 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:K77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="C56:K56"/>
     <mergeCell ref="A34:B34"/>
@@ -21821,31 +21952,15 @@
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="E55:F55"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:K77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -21860,16 +21975,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
@@ -21883,23 +21998,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="139" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132" t="s">
+      <c r="D1" s="140"/>
+      <c r="E1" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="133"/>
+      <c r="F1" s="138"/>
       <c r="G1" s="111"/>
       <c r="H1" s="111"/>
       <c r="I1" s="111"/>
       <c r="J1" s="111"/>
-      <c r="K1" s="137" t="s">
+      <c r="K1" s="135" t="s">
         <v>761</v>
       </c>
       <c r="L1" s="11" t="str">
@@ -21908,42 +22023,42 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="130" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="139" t="s">
         <v>660</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="133"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="111"/>
       <c r="H2" s="111"/>
       <c r="I2" s="111"/>
       <c r="J2" s="111"/>
-      <c r="K2" s="138"/>
+      <c r="K2" s="136"/>
       <c r="L2" s="11" t="str">
         <f>"-- "&amp;C3</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="136"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12">
@@ -22074,7 +22189,7 @@
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="11" t="str">
-        <f t="shared" ref="L8:L15" ca="1" si="0">C8&amp;" "&amp;D8&amp;IF(OR(D8="DATETIME",D8="INT",D8="DATE",D8="TEXT"),E8,"("&amp;E8&amp;")")&amp;" "&amp;" "&amp;H8&amp;" "&amp;J8&amp;IF(G8&lt;&gt;""," default "&amp;G8&amp;" ","")&amp;IF(I8&lt;&gt;""," identity("&amp;I8&amp;") ","")&amp;IF(OFFSET(C8,1,0,1,1)="","",",")</f>
+        <f t="shared" ref="L8:L16" ca="1" si="0">C8&amp;" "&amp;D8&amp;IF(OR(D8="DATETIME",D8="INT",D8="DATE",D8="TEXT"),E8,"("&amp;E8&amp;")")&amp;" "&amp;" "&amp;H8&amp;" "&amp;J8&amp;IF(G8&lt;&gt;""," default "&amp;G8&amp;" ","")&amp;IF(I8&lt;&gt;""," identity("&amp;I8&amp;") ","")&amp;IF(OFFSET(C8,1,0,1,1)="","",",")</f>
         <v>WSA_USERNAME VARCHAR(20)   NOT NULL,</v>
       </c>
     </row>
@@ -22258,253 +22373,251 @@
       <c r="K15" s="70"/>
       <c r="L15" s="71" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">WSA_STATUS VARCHAR(20)   </v>
+        <v>WSA_STATUS VARCHAR(20)   ,</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="L16" s="50" t="str">
+      <c r="A16" s="4">
+        <v>10</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>798</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>797</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="71" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v xml:space="preserve">WSA_DEPT INT   </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="L17" s="50" t="str">
         <f>") default charset = utf8;"</f>
         <v>) default charset = utf8;</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="132" t="s">
+    <row r="18" spans="1:12">
+      <c r="A18" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="130" t="s">
+      <c r="B18" s="138"/>
+      <c r="C18" s="139" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132" t="s">
+      <c r="D18" s="140"/>
+      <c r="E18" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="133"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="137" t="s">
-        <v>764</v>
-      </c>
-      <c r="L17" s="11" t="str">
-        <f>"-- "&amp;C18</f>
-        <v>-- 商家菜单表</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="133"/>
-      <c r="C18" s="130" t="s">
-        <v>692</v>
-      </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="133"/>
+      <c r="F18" s="138"/>
       <c r="G18" s="111"/>
       <c r="H18" s="111"/>
       <c r="I18" s="111"/>
       <c r="J18" s="111"/>
-      <c r="K18" s="138"/>
+      <c r="K18" s="135" t="s">
+        <v>764</v>
+      </c>
       <c r="L18" s="11" t="str">
         <f>"-- "&amp;C19</f>
+        <v>-- 商家菜单表</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="138"/>
+      <c r="C19" s="139" t="s">
+        <v>692</v>
+      </c>
+      <c r="D19" s="140"/>
+      <c r="E19" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="138"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="11" t="str">
+        <f>"-- "&amp;C20</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="132" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="49"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="49" t="str">
-        <f>"DROP TABLE IF EXISTS "&amp;K17&amp;";"</f>
+      <c r="B20" s="138"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="49"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="107"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K18&amp;";"</f>
         <v>DROP TABLE IF EXISTS WC_SHOP_MENU;</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="49"/>
-    </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="49"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J23" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="11" t="str">
-        <f>"CREATE TABLE IF NOT EXISTS  "&amp;K17&amp;"("</f>
+      <c r="L23" s="11" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  "&amp;K18&amp;"("</f>
         <v>CREATE TABLE IF NOT EXISTS  WC_SHOP_MENU(</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="11" t="str">
-        <f t="shared" ref="L23:L31" ca="1" si="1">C23&amp;" "&amp;D23&amp;IF(OR(D23="DATETIME",D23="INT",D23="DATE",D23="TEXT"),E23,"("&amp;E23&amp;")")&amp;" "&amp;" "&amp;IF(F23&lt;&gt;""," "&amp;F23&amp;" ","")&amp;H23&amp;" "&amp;J23&amp;IF(G23&lt;&gt;""," default "&amp;G23&amp;" ","")&amp;IF(I23&lt;&gt;""," "&amp;I23&amp;" ","")&amp;IF(OFFSET(C23,1,0,1,1)="","",",")</f>
-        <v>WSM_ID INT   PRIMARY KEY UNIQUE NOT NULL AUTO_INCREMENT ,</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" s="5">
-        <v>50</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+        <v>669</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="51"/>
+      <c r="H24" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>208</v>
+      </c>
       <c r="J24" s="5" t="s">
         <v>205</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="11" t="str">
+        <f t="shared" ref="L24:L32" ca="1" si="1">C24&amp;" "&amp;D24&amp;IF(OR(D24="DATETIME",D24="INT",D24="DATE",D24="TEXT"),E24,"("&amp;E24&amp;")")&amp;" "&amp;" "&amp;IF(F24&lt;&gt;""," "&amp;F24&amp;" ","")&amp;H24&amp;" "&amp;J24&amp;IF(G24&lt;&gt;""," default "&amp;G24&amp;" ","")&amp;IF(I24&lt;&gt;""," "&amp;I24&amp;" ","")&amp;IF(OFFSET(C24,1,0,1,1)="","",",")</f>
+        <v>WSM_ID INT   PRIMARY KEY UNIQUE NOT NULL AUTO_INCREMENT ,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4">
+        <v>2</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="5">
+        <v>50</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>WSM_NAME VARCHAR(50)   NOT NULL,</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="4">
-        <v>3</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="E25" s="52">
-        <v>200</v>
-      </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>WSM_URL VARCHAR(200)   ,</v>
-      </c>
-    </row>
     <row r="26" spans="1:12">
       <c r="A26" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E26" s="52">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
@@ -22514,23 +22627,25 @@
       <c r="K26" s="55"/>
       <c r="L26" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WSM_LEVEL CHAR(1)   ,</v>
+        <v>WSM_URL VARCHAR(200)   ,</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="E27" s="52"/>
+        <v>203</v>
+      </c>
+      <c r="E27" s="52">
+        <v>1</v>
+      </c>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
       <c r="H27" s="54"/>
@@ -22539,25 +22654,23 @@
       <c r="K27" s="55"/>
       <c r="L27" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WSM_ORDER INT   ,</v>
+        <v>WSM_LEVEL CHAR(1)   ,</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="E28" s="52">
-        <v>400</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E28" s="52"/>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
@@ -22566,23 +22679,25 @@
       <c r="K28" s="55"/>
       <c r="L28" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WSM_DESC VARCHAR(400)   ,</v>
+        <v>WSM_ORDER INT   ,</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D29" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="E29" s="52"/>
+        <v>202</v>
+      </c>
+      <c r="E29" s="52">
+        <v>400</v>
+      </c>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
       <c r="H29" s="54"/>
@@ -22591,21 +22706,21 @@
       <c r="K29" s="55"/>
       <c r="L29" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WSM_PARENT_ID INT   ,</v>
+        <v>WSM_DESC VARCHAR(400)   ,</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>676</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>20</v>
+        <v>234</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>201</v>
       </c>
       <c r="E30" s="52"/>
       <c r="F30" s="54"/>
@@ -22616,21 +22731,21 @@
       <c r="K30" s="55"/>
       <c r="L30" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WSM_REGISTOR INT   ,</v>
+        <v>WSM_PARENT_ID INT   ,</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="D31" s="53" t="s">
-        <v>200</v>
+        <v>57</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>676</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>20</v>
       </c>
       <c r="E31" s="52"/>
       <c r="F31" s="54"/>
@@ -22641,252 +22756,252 @@
       <c r="K31" s="55"/>
       <c r="L31" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
+        <v>WSM_REGISTOR INT   ,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="4">
+        <v>9</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="52"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v xml:space="preserve">WSM_REGIST_DATE DATETIME   </v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="L32" s="50" t="str">
+    <row r="33" spans="1:12">
+      <c r="L33" s="50" t="str">
         <f>") default charset = utf8;"</f>
         <v>) default charset = utf8;</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="132" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="133"/>
-      <c r="C33" s="130" t="s">
+      <c r="B34" s="138"/>
+      <c r="C34" s="139" t="s">
         <v>219</v>
       </c>
-      <c r="D33" s="131"/>
-      <c r="E33" s="132" t="s">
+      <c r="D34" s="140"/>
+      <c r="E34" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="133"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="137" t="s">
-        <v>773</v>
-      </c>
-      <c r="L33" s="11" t="str">
-        <f>"-- "&amp;C34</f>
-        <v>-- 商家角色表</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="133"/>
-      <c r="C34" s="130" t="s">
-        <v>678</v>
-      </c>
-      <c r="D34" s="131"/>
-      <c r="E34" s="132" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="133"/>
+      <c r="F34" s="138"/>
       <c r="G34" s="115"/>
       <c r="H34" s="115"/>
       <c r="I34" s="115"/>
       <c r="J34" s="115"/>
-      <c r="K34" s="138"/>
+      <c r="K34" s="135" t="s">
+        <v>773</v>
+      </c>
       <c r="L34" s="11" t="str">
         <f>"-- "&amp;C35</f>
+        <v>-- 商家角色表</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="138"/>
+      <c r="C35" s="139" t="s">
+        <v>678</v>
+      </c>
+      <c r="D35" s="140"/>
+      <c r="E35" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="138"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="11" t="str">
+        <f>"-- "&amp;C36</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="132" t="s">
+    <row r="36" spans="1:12">
+      <c r="A36" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="133"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="49"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="112"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="49" t="str">
-        <f>"DROP TABLE IF EXISTS "&amp;K33&amp;";"</f>
+      <c r="B36" s="138"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="142"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="143"/>
+      <c r="L36" s="49"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="112"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K34&amp;";"</f>
         <v>DROP TABLE IF EXISTS WC_SHOP_ROLE;</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="49"/>
-    </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="49"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J38" s="33" t="s">
+      <c r="J39" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="11" t="str">
-        <f>"CREATE TABLE IF NOT EXISTS  "&amp;K33&amp;"("</f>
+      <c r="L39" s="11" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  "&amp;K34&amp;"("</f>
         <v>CREATE TABLE IF NOT EXISTS  WC_SHOP_ROLE(</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="4">
-        <v>1</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="G39" s="51"/>
-      <c r="H39" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="K39" s="27"/>
-      <c r="L39" s="11" t="str">
-        <f ca="1">C39&amp;" "&amp;D39&amp;IF(OR(D39="DATETIME",D39="INT",D39="DATE",D39="TEXT"),E39,"("&amp;E39&amp;")")&amp;" "&amp;" "&amp;IF(F39&lt;&gt;""," "&amp;F39&amp;" ","")&amp;H39&amp;" "&amp;J39&amp;IF(G39&lt;&gt;""," default "&amp;G39&amp;" ","")&amp;IF(I39&lt;&gt;""," "&amp;I39&amp;" ","")&amp;IF(OFFSET(C39,1,0,1,1)="","",",")</f>
-        <v>WSR_ROLE_ID INT   PRIMARY KEY UNIQUE NOT NULL AUTO_INCREMENT ,</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E40" s="5">
-        <v>100</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+        <v>679</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" s="51"/>
+      <c r="H40" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>208</v>
+      </c>
       <c r="J40" s="5" t="s">
         <v>205</v>
       </c>
       <c r="K40" s="27"/>
       <c r="L40" s="11" t="str">
-        <f ca="1">C40&amp;" "&amp;D40&amp;IF(OR(D40="DATETIME",D40="INT",D40="DATE",D40="TEXT"),E40,"("&amp;E40&amp;")")&amp;" "&amp;" "&amp;H40&amp;" "&amp;J40&amp;IF(G40&lt;&gt;""," default "&amp;G40&amp;" ","")&amp;IF(I40&lt;&gt;""," identity("&amp;I40&amp;") ","")&amp;IF(OFFSET(C40,1,0,1,1)="","",",")</f>
-        <v>WSR_ROLE_NAME VARCHAR(100)   NOT NULL,</v>
+        <f ca="1">C40&amp;" "&amp;D40&amp;IF(OR(D40="DATETIME",D40="INT",D40="DATE",D40="TEXT"),E40,"("&amp;E40&amp;")")&amp;" "&amp;" "&amp;IF(F40&lt;&gt;""," "&amp;F40&amp;" ","")&amp;H40&amp;" "&amp;J40&amp;IF(G40&lt;&gt;""," default "&amp;G40&amp;" ","")&amp;IF(I40&lt;&gt;""," "&amp;I40&amp;" ","")&amp;IF(OFFSET(C40,1,0,1,1)="","",",")</f>
+        <v>WSR_ROLE_ID INT   PRIMARY KEY UNIQUE NOT NULL AUTO_INCREMENT ,</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="4">
-        <v>3</v>
-      </c>
-      <c r="B41" s="56" t="s">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>242</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="D41" s="53" t="s">
+        <v>680</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E41" s="52">
-        <v>200</v>
-      </c>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="55"/>
+      <c r="E41" s="5">
+        <v>100</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K41" s="27"/>
       <c r="L41" s="11" t="str">
         <f ca="1">C41&amp;" "&amp;D41&amp;IF(OR(D41="DATETIME",D41="INT",D41="DATE",D41="TEXT"),E41,"("&amp;E41&amp;")")&amp;" "&amp;" "&amp;H41&amp;" "&amp;J41&amp;IF(G41&lt;&gt;""," default "&amp;G41&amp;" ","")&amp;IF(I41&lt;&gt;""," identity("&amp;I41&amp;") ","")&amp;IF(OFFSET(C41,1,0,1,1)="","",",")</f>
-        <v>WSR_ROLE_DESC VARCHAR(200)   ,</v>
+        <v>WSR_ROLE_NAME VARCHAR(100)   NOT NULL,</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>772</v>
+        <v>681</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" s="52"/>
+        <v>202</v>
+      </c>
+      <c r="E42" s="52">
+        <v>200</v>
+      </c>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
       <c r="H42" s="54"/>
@@ -22895,21 +23010,21 @@
       <c r="K42" s="55"/>
       <c r="L42" s="11" t="str">
         <f ca="1">C42&amp;" "&amp;D42&amp;IF(OR(D42="DATETIME",D42="INT",D42="DATE",D42="TEXT"),E42,"("&amp;E42&amp;")")&amp;" "&amp;" "&amp;H42&amp;" "&amp;J42&amp;IF(G42&lt;&gt;""," default "&amp;G42&amp;" ","")&amp;IF(I42&lt;&gt;""," identity("&amp;I42&amp;") ","")&amp;IF(OFFSET(C42,1,0,1,1)="","",",")</f>
-        <v>WSR_REGISTOR INT   ,</v>
+        <v>WSR_ROLE_DESC VARCHAR(200)   ,</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>682</v>
+        <v>772</v>
       </c>
       <c r="D43" s="53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E43" s="52"/>
       <c r="F43" s="54"/>
@@ -22920,764 +23035,1233 @@
       <c r="K43" s="55"/>
       <c r="L43" s="11" t="str">
         <f ca="1">C43&amp;" "&amp;D43&amp;IF(OR(D43="DATETIME",D43="INT",D43="DATE",D43="TEXT"),E43,"("&amp;E43&amp;")")&amp;" "&amp;" "&amp;H43&amp;" "&amp;J43&amp;IF(G43&lt;&gt;""," default "&amp;G43&amp;" ","")&amp;IF(I43&lt;&gt;""," identity("&amp;I43&amp;") ","")&amp;IF(OFFSET(C43,1,0,1,1)="","",",")</f>
+        <v>WSR_REGISTOR INT   ,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="4">
+        <v>5</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="52"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="11" t="str">
+        <f ca="1">C44&amp;" "&amp;D44&amp;IF(OR(D44="DATETIME",D44="INT",D44="DATE",D44="TEXT"),E44,"("&amp;E44&amp;")")&amp;" "&amp;" "&amp;H44&amp;" "&amp;J44&amp;IF(G44&lt;&gt;""," default "&amp;G44&amp;" ","")&amp;IF(I44&lt;&gt;""," identity("&amp;I44&amp;") ","")&amp;IF(OFFSET(C44,1,0,1,1)="","",",")</f>
         <v xml:space="preserve">WSR_REGIST_DATE DATETIME   </v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="L44" s="50" t="str">
+    <row r="45" spans="1:12">
+      <c r="L45" s="50" t="str">
         <f>") default charset = utf8;"</f>
         <v>) default charset = utf8;</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="132" t="s">
+    <row r="46" spans="1:12">
+      <c r="A46" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="133"/>
-      <c r="C45" s="130" t="s">
+      <c r="B46" s="138"/>
+      <c r="C46" s="139" t="s">
         <v>220</v>
       </c>
-      <c r="D45" s="131"/>
-      <c r="E45" s="132" t="s">
+      <c r="D46" s="140"/>
+      <c r="E46" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="133"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="137" t="s">
-        <v>685</v>
-      </c>
-      <c r="L45" s="11" t="str">
-        <f>"-- "&amp;C46</f>
-        <v>-- 商家-管理员-角色表</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="130" t="s">
-        <v>683</v>
-      </c>
-      <c r="D46" s="131"/>
-      <c r="E46" s="132" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="133"/>
+      <c r="F46" s="138"/>
       <c r="G46" s="115"/>
       <c r="H46" s="115"/>
       <c r="I46" s="115"/>
       <c r="J46" s="115"/>
-      <c r="K46" s="138"/>
+      <c r="K46" s="135" t="s">
+        <v>685</v>
+      </c>
       <c r="L46" s="11" t="str">
         <f>"-- "&amp;C47</f>
+        <v>-- 商家-管理员-角色表</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="138"/>
+      <c r="C47" s="139" t="s">
+        <v>683</v>
+      </c>
+      <c r="D47" s="140"/>
+      <c r="E47" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="138"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="136"/>
+      <c r="L47" s="11" t="str">
+        <f>"-- "&amp;C48</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="132" t="s">
+    <row r="48" spans="1:12">
+      <c r="A48" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="133"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="135"/>
-      <c r="J47" s="135"/>
-      <c r="K47" s="136"/>
-      <c r="L47" s="49"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="112"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="116"/>
-      <c r="J48" s="114"/>
-      <c r="K48" s="116"/>
-      <c r="L48" s="49" t="str">
-        <f>"DROP TABLE IF EXISTS "&amp;K45&amp;";"</f>
+      <c r="B48" s="138"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="142"/>
+      <c r="J48" s="142"/>
+      <c r="K48" s="143"/>
+      <c r="L48" s="49"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="112"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="116"/>
+      <c r="L49" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K46&amp;";"</f>
         <v>DROP TABLE IF EXISTS WC_SHOP_ADMIN_ROLE;</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="49"/>
-    </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="49"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J50" s="33" t="s">
+      <c r="J51" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L50" s="11" t="str">
-        <f>"CREATE TABLE IF NOT EXISTS  "&amp;K45&amp;"("</f>
+      <c r="L51" s="11" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  "&amp;K46&amp;"("</f>
         <v>CREATE TABLE IF NOT EXISTS  WC_SHOP_ADMIN_ROLE(</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="4">
-        <v>1</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="51"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="K51" s="27"/>
-      <c r="L51" s="76" t="str">
-        <f ca="1">C51&amp;" "&amp;D51&amp;IF(OR(D51="DATETIME",D51="INT",D51="DATE",D51="TEXT"),E51,"("&amp;E51&amp;")")&amp;" "&amp;" "&amp;H51&amp;" "&amp;J51&amp;IF(G51&lt;&gt;""," default "&amp;G51&amp;" ","")&amp;IF(I51&lt;&gt;""," "&amp;I51&amp;" ","")&amp;IF(OFFSET(C51,1,0,1,1)="",",",",")</f>
-        <v>WSAR_ADMIN_ID INT   NOT NULL,</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="D52" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G52" s="13"/>
+      <c r="G52" s="51"/>
       <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
+      <c r="I52" s="9"/>
       <c r="J52" s="5" t="s">
         <v>205</v>
       </c>
       <c r="K52" s="27"/>
       <c r="L52" s="76" t="str">
         <f ca="1">C52&amp;" "&amp;D52&amp;IF(OR(D52="DATETIME",D52="INT",D52="DATE",D52="TEXT"),E52,"("&amp;E52&amp;")")&amp;" "&amp;" "&amp;H52&amp;" "&amp;J52&amp;IF(G52&lt;&gt;""," default "&amp;G52&amp;" ","")&amp;IF(I52&lt;&gt;""," "&amp;I52&amp;" ","")&amp;IF(OFFSET(C52,1,0,1,1)="",",",",")</f>
-        <v>WSAR_ROLE_ID INT   NOT NULL,</v>
+        <v>WSAR_ADMIN_ID INT   NOT NULL,</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="4">
-        <v>7</v>
-      </c>
-      <c r="B53" s="56" t="s">
-        <v>248</v>
+        <v>2</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>247</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="D53" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="55"/>
+        <v>687</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K53" s="27"/>
       <c r="L53" s="76" t="str">
         <f ca="1">C53&amp;" "&amp;D53&amp;IF(OR(D53="DATETIME",D53="INT",D53="DATE",D53="TEXT"),E53,"("&amp;E53&amp;")")&amp;" "&amp;" "&amp;H53&amp;" "&amp;J53&amp;IF(G53&lt;&gt;""," default "&amp;G53&amp;" ","")&amp;IF(I53&lt;&gt;""," "&amp;I53&amp;" ","")&amp;IF(OFFSET(C53,1,0,1,1)="",",",",")</f>
+        <v>WSAR_ROLE_ID INT   NOT NULL,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="4">
+        <v>7</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="D54" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" s="52"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="76" t="str">
+        <f ca="1">C54&amp;" "&amp;D54&amp;IF(OR(D54="DATETIME",D54="INT",D54="DATE",D54="TEXT"),E54,"("&amp;E54&amp;")")&amp;" "&amp;" "&amp;H54&amp;" "&amp;J54&amp;IF(G54&lt;&gt;""," default "&amp;G54&amp;" ","")&amp;IF(I54&lt;&gt;""," "&amp;I54&amp;" ","")&amp;IF(OFFSET(C54,1,0,1,1)="",",",",")</f>
         <v>WSAR_REGIST_DATE DATETIME   ,</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="L54" s="76" t="str">
-        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C51,0,3,1,1)="PK",C51&amp;IF(OFFSET(C51,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C51,1,3,1,1)="PK",OFFSET(C51,1,0,1,1)&amp;IF(OFFSET(C51,1,0,1,1)="",",",""),"")&amp;"));"</f>
+    <row r="55" spans="1:12">
+      <c r="L55" s="76" t="str">
+        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C52,0,3,1,1)="PK",C52&amp;IF(OFFSET(C52,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C52,1,3,1,1)="PK",OFFSET(C52,1,0,1,1)&amp;IF(OFFSET(C52,1,0,1,1)="",",",""),"")&amp;"));"</f>
         <v>PRIMARY KEY(WSAR_ADMIN_ID,WSAR_ROLE_ID));</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="L55" s="50"/>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
-      <c r="A56" s="132" t="s">
+    <row r="56" spans="1:12">
+      <c r="L56" s="50"/>
+    </row>
+    <row r="57" spans="1:12" ht="15" customHeight="1">
+      <c r="A57" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="133"/>
-      <c r="C56" s="130" t="s">
+      <c r="B57" s="138"/>
+      <c r="C57" s="139" t="s">
         <v>221</v>
       </c>
-      <c r="D56" s="131"/>
-      <c r="E56" s="132" t="s">
+      <c r="D57" s="140"/>
+      <c r="E57" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="133"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="137" t="s">
-        <v>766</v>
-      </c>
-      <c r="L56" s="11" t="str">
-        <f>"-- "&amp;C57</f>
-        <v>-- 商家-管理员-菜单表</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="133"/>
-      <c r="C57" s="130" t="s">
-        <v>684</v>
-      </c>
-      <c r="D57" s="131"/>
-      <c r="E57" s="132" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="133"/>
+      <c r="F57" s="138"/>
       <c r="G57" s="115"/>
       <c r="H57" s="115"/>
       <c r="I57" s="115"/>
       <c r="J57" s="115"/>
-      <c r="K57" s="138"/>
+      <c r="K57" s="135" t="s">
+        <v>766</v>
+      </c>
       <c r="L57" s="11" t="str">
         <f>"-- "&amp;C58</f>
+        <v>-- 商家-管理员-菜单表</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="138"/>
+      <c r="C58" s="139" t="s">
+        <v>684</v>
+      </c>
+      <c r="D58" s="140"/>
+      <c r="E58" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="138"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="115"/>
+      <c r="K58" s="136"/>
+      <c r="L58" s="11" t="str">
+        <f>"-- "&amp;C59</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="132" t="s">
+    <row r="59" spans="1:12">
+      <c r="A59" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="133"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="135"/>
-      <c r="G58" s="135"/>
-      <c r="H58" s="135"/>
-      <c r="I58" s="135"/>
-      <c r="J58" s="135"/>
-      <c r="K58" s="136"/>
-      <c r="L58" s="49"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="112"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="116"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="116"/>
-      <c r="I59" s="116"/>
-      <c r="J59" s="114"/>
-      <c r="K59" s="116"/>
-      <c r="L59" s="49" t="str">
-        <f>"DROP TABLE IF EXISTS "&amp;K56&amp;";"</f>
+      <c r="B59" s="138"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="142"/>
+      <c r="F59" s="142"/>
+      <c r="G59" s="142"/>
+      <c r="H59" s="142"/>
+      <c r="I59" s="142"/>
+      <c r="J59" s="142"/>
+      <c r="K59" s="143"/>
+      <c r="L59" s="49"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="112"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="114"/>
+      <c r="K60" s="116"/>
+      <c r="L60" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K57&amp;";"</f>
         <v>DROP TABLE IF EXISTS WC_SHOP_ADMIN_MENU;</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="49"/>
-    </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="49"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J61" s="33" t="s">
+      <c r="J62" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L61" s="11" t="str">
-        <f>"CREATE TABLE IF NOT EXISTS  "&amp;K56&amp;"("</f>
+      <c r="L62" s="11" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  "&amp;K57&amp;"("</f>
         <v>CREATE TABLE IF NOT EXISTS  WC_SHOP_ADMIN_MENU(</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="4">
-        <v>1</v>
-      </c>
-      <c r="B62" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="51"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="K62" s="27"/>
-      <c r="L62" s="76" t="str">
-        <f ca="1">C62&amp;" "&amp;D62&amp;IF(OR(D62="DATETIME",D62="INT",D62="DATE",D62="TEXT"),E62,"("&amp;E62&amp;")")&amp;" "&amp;" "&amp;H62&amp;" "&amp;J62&amp;IF(G62&lt;&gt;""," default "&amp;G62&amp;" ","")&amp;IF(I62&lt;&gt;""," "&amp;I62&amp;" ","")&amp;IF(OFFSET(C62,1,0,1,1)="",",",",")</f>
-        <v>WSAM_ADMIN_ID INT   NOT NULL,</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="D63" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G63" s="13"/>
+      <c r="G63" s="51"/>
       <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
+      <c r="I63" s="9"/>
       <c r="J63" s="5" t="s">
         <v>205</v>
       </c>
       <c r="K63" s="27"/>
       <c r="L63" s="76" t="str">
         <f ca="1">C63&amp;" "&amp;D63&amp;IF(OR(D63="DATETIME",D63="INT",D63="DATE",D63="TEXT"),E63,"("&amp;E63&amp;")")&amp;" "&amp;" "&amp;H63&amp;" "&amp;J63&amp;IF(G63&lt;&gt;""," default "&amp;G63&amp;" ","")&amp;IF(I63&lt;&gt;""," "&amp;I63&amp;" ","")&amp;IF(OFFSET(C63,1,0,1,1)="",",",",")</f>
-        <v>WSAM_MENU_ID INT   NOT NULL,</v>
+        <v>WSAM_ADMIN_ID INT   NOT NULL,</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="4">
-        <v>3</v>
-      </c>
-      <c r="B64" s="56" t="s">
-        <v>248</v>
+        <v>2</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>249</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="D64" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="E64" s="52"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="55"/>
+        <v>767</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K64" s="27"/>
       <c r="L64" s="76" t="str">
         <f ca="1">C64&amp;" "&amp;D64&amp;IF(OR(D64="DATETIME",D64="INT",D64="DATE",D64="TEXT"),E64,"("&amp;E64&amp;")")&amp;" "&amp;" "&amp;H64&amp;" "&amp;J64&amp;IF(G64&lt;&gt;""," default "&amp;G64&amp;" ","")&amp;IF(I64&lt;&gt;""," "&amp;I64&amp;" ","")&amp;IF(OFFSET(C64,1,0,1,1)="",",",",")</f>
+        <v>WSAM_MENU_ID INT   NOT NULL,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="4">
+        <v>3</v>
+      </c>
+      <c r="B65" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="D65" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" s="52"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="76" t="str">
+        <f ca="1">C65&amp;" "&amp;D65&amp;IF(OR(D65="DATETIME",D65="INT",D65="DATE",D65="TEXT"),E65,"("&amp;E65&amp;")")&amp;" "&amp;" "&amp;H65&amp;" "&amp;J65&amp;IF(G65&lt;&gt;""," default "&amp;G65&amp;" ","")&amp;IF(I65&lt;&gt;""," "&amp;I65&amp;" ","")&amp;IF(OFFSET(C65,1,0,1,1)="",",",",")</f>
         <v>WSAM_REGIST_DATE DATETIME   ,</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="118"/>
-      <c r="B65" s="119"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="120"/>
-      <c r="G65" s="120"/>
-      <c r="H65" s="120"/>
-      <c r="I65" s="120"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="121"/>
-      <c r="L65" s="76" t="str">
-        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C62,0,3,1,1)="PK",C62&amp;IF(OFFSET(C62,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C62,1,3,1,1)="PK",OFFSET(C62,1,0,1,1)&amp;IF(OFFSET(C62,1,0,1,1)="",",",""),"")&amp;"));"</f>
+    <row r="66" spans="1:12">
+      <c r="A66" s="118"/>
+      <c r="B66" s="119"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="120"/>
+      <c r="G66" s="120"/>
+      <c r="H66" s="120"/>
+      <c r="I66" s="120"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="121"/>
+      <c r="L66" s="76" t="str">
+        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C63,0,3,1,1)="PK",C63&amp;IF(OFFSET(C63,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C63,1,3,1,1)="PK",OFFSET(C63,1,0,1,1)&amp;IF(OFFSET(C63,1,0,1,1)="",",",""),"")&amp;"));"</f>
         <v>PRIMARY KEY(WSAM_ADMIN_ID,WSAM_MENU_ID));</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
-      <c r="L66" s="50"/>
-    </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="132" t="s">
+      <c r="L67" s="50"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="133"/>
-      <c r="C67" s="130" t="s">
+      <c r="B68" s="138"/>
+      <c r="C68" s="139" t="s">
         <v>221</v>
       </c>
-      <c r="D67" s="131"/>
-      <c r="E67" s="132" t="s">
+      <c r="D68" s="140"/>
+      <c r="E68" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="133"/>
-      <c r="G67" s="115"/>
-      <c r="H67" s="115"/>
-      <c r="I67" s="115"/>
-      <c r="J67" s="115"/>
-      <c r="K67" s="137" t="s">
-        <v>765</v>
-      </c>
-      <c r="L67" s="11" t="str">
-        <f>"-- "&amp;C68</f>
-        <v>-- 商家角色-菜单表</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="133"/>
-      <c r="C68" s="130" t="s">
-        <v>691</v>
-      </c>
-      <c r="D68" s="131"/>
-      <c r="E68" s="132" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="133"/>
+      <c r="F68" s="138"/>
       <c r="G68" s="115"/>
       <c r="H68" s="115"/>
       <c r="I68" s="115"/>
       <c r="J68" s="115"/>
-      <c r="K68" s="138"/>
+      <c r="K68" s="135" t="s">
+        <v>765</v>
+      </c>
       <c r="L68" s="11" t="str">
         <f>"-- "&amp;C69</f>
+        <v>-- 商家角色-菜单表</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="138"/>
+      <c r="C69" s="139" t="s">
+        <v>691</v>
+      </c>
+      <c r="D69" s="140"/>
+      <c r="E69" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="138"/>
+      <c r="G69" s="115"/>
+      <c r="H69" s="115"/>
+      <c r="I69" s="115"/>
+      <c r="J69" s="115"/>
+      <c r="K69" s="136"/>
+      <c r="L69" s="11" t="str">
+        <f>"-- "&amp;C70</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="132" t="s">
+    <row r="70" spans="1:12">
+      <c r="A70" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="133"/>
-      <c r="C69" s="134"/>
-      <c r="D69" s="135"/>
-      <c r="E69" s="135"/>
-      <c r="F69" s="135"/>
-      <c r="G69" s="135"/>
-      <c r="H69" s="135"/>
-      <c r="I69" s="135"/>
-      <c r="J69" s="135"/>
-      <c r="K69" s="136"/>
-      <c r="L69" s="49"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="112"/>
-      <c r="B70" s="113"/>
-      <c r="C70" s="116"/>
-      <c r="D70" s="116"/>
-      <c r="E70" s="116"/>
-      <c r="F70" s="116"/>
-      <c r="G70" s="116"/>
-      <c r="H70" s="116"/>
-      <c r="I70" s="116"/>
-      <c r="J70" s="114"/>
-      <c r="K70" s="116"/>
-      <c r="L70" s="49" t="str">
-        <f>"DROP TABLE IF EXISTS "&amp;K67&amp;";"</f>
+      <c r="B70" s="138"/>
+      <c r="C70" s="141"/>
+      <c r="D70" s="142"/>
+      <c r="E70" s="142"/>
+      <c r="F70" s="142"/>
+      <c r="G70" s="142"/>
+      <c r="H70" s="142"/>
+      <c r="I70" s="142"/>
+      <c r="J70" s="142"/>
+      <c r="K70" s="143"/>
+      <c r="L70" s="49"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="112"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="116"/>
+      <c r="E71" s="116"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="116"/>
+      <c r="H71" s="116"/>
+      <c r="I71" s="116"/>
+      <c r="J71" s="114"/>
+      <c r="K71" s="116"/>
+      <c r="L71" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K68&amp;";"</f>
         <v>DROP TABLE IF EXISTS WC_SHOP_ROLE_MENU;</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="49"/>
-    </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="49"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H73" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="I73" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J72" s="33" t="s">
+      <c r="J73" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K73" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L72" s="11" t="str">
-        <f>"CREATE TABLE IF NOT EXISTS  "&amp;K67&amp;"("</f>
+      <c r="L73" s="11" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  "&amp;K68&amp;"("</f>
         <v>CREATE TABLE IF NOT EXISTS  WC_SHOP_ROLE_MENU(</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="4">
-        <v>1</v>
-      </c>
-      <c r="B73" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="117" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="51"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="K73" s="27"/>
-      <c r="L73" s="76" t="str">
-        <f ca="1">C73&amp;" "&amp;D73&amp;IF(OR(D73="DATETIME",D73="INT",D73="DATE",D73="TEXT"),E73,"("&amp;E73&amp;")")&amp;" "&amp;" "&amp;H73&amp;" "&amp;J73&amp;IF(G73&lt;&gt;""," default "&amp;G73&amp;" ","")&amp;IF(I73&lt;&gt;""," "&amp;I73&amp;" ","")&amp;IF(OFFSET(C73,1,0,1,1)="",",",",")</f>
-        <v>WSRM_ROLE_ID INT   NOT NULL,</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="D74" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="14"/>
       <c r="F74" s="117" t="s">
-        <v>693</v>
-      </c>
-      <c r="G74" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="G74" s="51"/>
       <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
+      <c r="I74" s="9"/>
       <c r="J74" s="5" t="s">
         <v>205</v>
       </c>
       <c r="K74" s="27"/>
       <c r="L74" s="76" t="str">
         <f ca="1">C74&amp;" "&amp;D74&amp;IF(OR(D74="DATETIME",D74="INT",D74="DATE",D74="TEXT"),E74,"("&amp;E74&amp;")")&amp;" "&amp;" "&amp;H74&amp;" "&amp;J74&amp;IF(G74&lt;&gt;""," default "&amp;G74&amp;" ","")&amp;IF(I74&lt;&gt;""," "&amp;I74&amp;" ","")&amp;IF(OFFSET(C74,1,0,1,1)="",",",",")</f>
-        <v>WSRM_MENU_ID INT   NOT NULL,</v>
+        <v>WSRM_ROLE_ID INT   NOT NULL,</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="4">
-        <v>3</v>
-      </c>
-      <c r="B75" s="56" t="s">
-        <v>253</v>
+        <v>2</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>252</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="D75" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="E75" s="52"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="55"/>
+        <v>770</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="117" t="s">
+        <v>693</v>
+      </c>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K75" s="27"/>
       <c r="L75" s="76" t="str">
         <f ca="1">C75&amp;" "&amp;D75&amp;IF(OR(D75="DATETIME",D75="INT",D75="DATE",D75="TEXT"),E75,"("&amp;E75&amp;")")&amp;" "&amp;" "&amp;H75&amp;" "&amp;J75&amp;IF(G75&lt;&gt;""," default "&amp;G75&amp;" ","")&amp;IF(I75&lt;&gt;""," "&amp;I75&amp;" ","")&amp;IF(OFFSET(C75,1,0,1,1)="",",",",")</f>
+        <v>WSRM_MENU_ID INT   NOT NULL,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="4">
+        <v>3</v>
+      </c>
+      <c r="B76" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="D76" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" s="52"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="76" t="str">
+        <f ca="1">C76&amp;" "&amp;D76&amp;IF(OR(D76="DATETIME",D76="INT",D76="DATE",D76="TEXT"),E76,"("&amp;E76&amp;")")&amp;" "&amp;" "&amp;H76&amp;" "&amp;J76&amp;IF(G76&lt;&gt;""," default "&amp;G76&amp;" ","")&amp;IF(I76&lt;&gt;""," "&amp;I76&amp;" ","")&amp;IF(OFFSET(C76,1,0,1,1)="",",",",")</f>
         <v>WSRM_CREATE_TIME DATETIME   ,</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
-      <c r="L76" s="76" t="str">
-        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C73,0,3,1,1)="PK",C73&amp;IF(OFFSET(C73,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C73,1,3,1,1)="PK",OFFSET(C73,1,0,1,1)&amp;IF(OFFSET(C73,1,0,1,1)="",",",""),"")&amp;"));"</f>
+    <row r="77" spans="1:12">
+      <c r="L77" s="76" t="str">
+        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C74,0,3,1,1)="PK",C74&amp;IF(OFFSET(C74,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C74,1,3,1,1)="PK",OFFSET(C74,1,0,1,1)&amp;IF(OFFSET(C74,1,0,1,1)="",",",""),"")&amp;"));"</f>
         <v>PRIMARY KEY(WSRM_ROLE_ID,WSRM_MENU_ID));</v>
       </c>
     </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="138"/>
+      <c r="C78" s="139" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78" s="140"/>
+      <c r="E78" s="137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="138"/>
+      <c r="G78" s="133"/>
+      <c r="H78" s="133"/>
+      <c r="I78" s="133"/>
+      <c r="J78" s="133"/>
+      <c r="K78" s="135" t="s">
+        <v>774</v>
+      </c>
+      <c r="L78" s="11" t="str">
+        <f>"-- "&amp;C79</f>
+        <v>-- 组织机构表</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="138"/>
+      <c r="C79" s="139" t="s">
+        <v>775</v>
+      </c>
+      <c r="D79" s="140"/>
+      <c r="E79" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="138"/>
+      <c r="G79" s="133"/>
+      <c r="H79" s="133"/>
+      <c r="I79" s="133"/>
+      <c r="J79" s="133"/>
+      <c r="K79" s="136"/>
+      <c r="L79" s="11" t="str">
+        <f>"-- "&amp;C80</f>
+        <v xml:space="preserve">-- </v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="138"/>
+      <c r="C80" s="141"/>
+      <c r="D80" s="142"/>
+      <c r="E80" s="142"/>
+      <c r="F80" s="142"/>
+      <c r="G80" s="142"/>
+      <c r="H80" s="142"/>
+      <c r="I80" s="142"/>
+      <c r="J80" s="142"/>
+      <c r="K80" s="143"/>
+      <c r="L80" s="49"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="130"/>
+      <c r="B81" s="131"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="134"/>
+      <c r="E81" s="134"/>
+      <c r="F81" s="134"/>
+      <c r="G81" s="134"/>
+      <c r="H81" s="134"/>
+      <c r="I81" s="134"/>
+      <c r="J81" s="132"/>
+      <c r="K81" s="134"/>
+      <c r="L81" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K78&amp;";"</f>
+        <v>DROP TABLE IF EXISTS WC_SHOP_DEPT;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="49"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J83" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="11" t="str">
+        <f>"CREATE TABLE IF NOT EXISTS  "&amp;K78&amp;"("</f>
+        <v>CREATE TABLE IF NOT EXISTS  WC_SHOP_DEPT(</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="4">
+        <v>1</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" s="14"/>
+      <c r="F84" s="117" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" s="51"/>
+      <c r="H84" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K84" s="27"/>
+      <c r="L84" s="76" t="str">
+        <f ca="1">C84&amp;" "&amp;D84&amp;IF(OR(D84="DATETIME",D84="INT",D84="DATE",D84="TEXT"),E84,"("&amp;E84&amp;")")&amp;" "&amp;" "&amp;H84&amp;" "&amp;J84&amp;IF(G84&lt;&gt;""," default "&amp;G84&amp;" ","")&amp;IF(I84&lt;&gt;""," "&amp;I84&amp;" ","")&amp;IF(OFFSET(C84,1,0,1,1)="",",",",")</f>
+        <v>WDP_ID INT  UNIQUE NOT NULL AUTO_INCREMENT ,</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="4">
+        <v>2</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>777</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" s="5">
+        <v>200</v>
+      </c>
+      <c r="F85" s="117"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K85" s="27"/>
+      <c r="L85" s="76" t="str">
+        <f ca="1">C85&amp;" "&amp;D85&amp;IF(OR(D85="DATETIME",D85="INT",D85="DATE",D85="TEXT"),E85,"("&amp;E85&amp;")")&amp;" "&amp;" "&amp;H85&amp;" "&amp;J85&amp;IF(G85&lt;&gt;""," default "&amp;G85&amp;" ","")&amp;IF(I85&lt;&gt;""," "&amp;I85&amp;" ","")&amp;IF(OFFSET(C85,1,0,1,1)="",",",",")</f>
+        <v>WDP_NAME VARCHAR(200)   NOT NULL,</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="4">
+        <v>3</v>
+      </c>
+      <c r="B86" s="56" t="s">
+        <v>776</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D86" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="E86" s="52"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="52"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="76" t="str">
+        <f ca="1">C86&amp;" "&amp;D86&amp;IF(OR(D86="DATETIME",D86="INT",D86="DATE",D86="TEXT"),E86,"("&amp;E86&amp;")")&amp;" "&amp;" "&amp;H86&amp;" "&amp;J86&amp;IF(G86&lt;&gt;""," default "&amp;G86&amp;" ","")&amp;IF(I86&lt;&gt;""," "&amp;I86&amp;" ","")&amp;IF(OFFSET(C86,1,0,1,1)="",",",",")</f>
+        <v>WDP_LEVEL INT   ,</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="4">
+        <v>4</v>
+      </c>
+      <c r="B87" s="56" t="s">
+        <v>778</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="D87" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="E87" s="52"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="52"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="76" t="str">
+        <f t="shared" ref="L87:L94" ca="1" si="2">C87&amp;" "&amp;D87&amp;IF(OR(D87="DATETIME",D87="INT",D87="DATE",D87="TEXT"),E87,"("&amp;E87&amp;")")&amp;" "&amp;" "&amp;H87&amp;" "&amp;J87&amp;IF(G87&lt;&gt;""," default "&amp;G87&amp;" ","")&amp;IF(I87&lt;&gt;""," "&amp;I87&amp;" ","")&amp;IF(OFFSET(C87,1,0,1,1)="",",",",")</f>
+        <v>WDP_ORDER INT   ,</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="4">
+        <v>5</v>
+      </c>
+      <c r="B88" s="56" t="s">
+        <v>779</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="D88" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="E88" s="52"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="52"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="76" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>WDP_PARENT_ID INT   ,</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="4">
+        <v>6</v>
+      </c>
+      <c r="B89" s="56" t="s">
+        <v>780</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="D89" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="E89" s="52"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="52"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="76" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>WDP_ADMIN_ID INT   ,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="4">
+        <v>8</v>
+      </c>
+      <c r="B90" s="82" t="s">
+        <v>781</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="D90" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="E90" s="52"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="76" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>WDP_TXL_ID INT   ,</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="4">
+        <v>9</v>
+      </c>
+      <c r="B91" s="82" t="s">
+        <v>785</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="D91" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E91" s="52">
+        <v>20</v>
+      </c>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="52"/>
+      <c r="K91" s="55"/>
+      <c r="L91" s="76" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>WDP_STATUS VARCHAR(20)   ,</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="4">
+        <v>10</v>
+      </c>
+      <c r="B92" s="82" t="s">
+        <v>782</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="D92" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E92" s="52">
+        <v>200</v>
+      </c>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="52"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="76" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>WDP_DESC VARCHAR(200)   ,</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="4">
+        <v>11</v>
+      </c>
+      <c r="B93" s="82" t="s">
+        <v>783</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D93" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="E93" s="52"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="54"/>
+      <c r="J93" s="52"/>
+      <c r="K93" s="55"/>
+      <c r="L93" s="76" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>WDP_REGISTOR INT   ,</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="4">
+        <v>12</v>
+      </c>
+      <c r="B94" s="82" t="s">
+        <v>784</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="D94" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="E94" s="52"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="54"/>
+      <c r="J94" s="52"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="76" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>WDP_REGISTDATE DATETIME   ,</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="L95" s="76" t="str">
+        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C84,0,3,1,1)="PK",C84&amp;IF(OFFSET(C84,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C84,1,3,1,1)="PK",OFFSET(C84,1,0,1,1)&amp;IF(OFFSET(C84,1,0,1,1)="",",",""),"")&amp;"));"</f>
+        <v>PRIMARY KEY(WDP_ID));</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="L96" s="76"/>
+    </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:K69"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:K58"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="K33:K34"/>
+  <mergeCells count="63">
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:K80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:K70"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D15 D23:D31 D39:D43 D51:D53 D62:D65 D73:D75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D16 D84:D94 D74:D76 D63:D66 D52:D54 D40:D44 D24:D32">
       <formula1>"INT,CHAR,VARCHAR,TEXT,DOUBLE,DECIMAL,FLOAT,DATETIME,DATE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/crm数据结构.xlsx
+++ b/document/crm数据结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="19485" windowHeight="5415" tabRatio="835" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="19485" windowHeight="5415" tabRatio="835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="商家管理" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="798">
   <si>
     <t>表格名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1857,10 +1857,6 @@
   </si>
   <si>
     <t>WMG_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1000:可用 2000:不可用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2577,14 +2573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LZ_WEI_MESSAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LZ_WEI_KEYWORD_MESSAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WKG_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3172,10 +3160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商家ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认回复消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3353,6 +3337,18 @@
   </si>
   <si>
     <t>所属组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000:可用 2000:不可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC_WEI_MESSAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC_WEI_KEYWORD_MESSAGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4492,7 +4488,7 @@
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="135" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L1" s="11" t="str">
         <f>"-- "&amp;C2</f>
@@ -4523,7 +4519,7 @@
       </c>
       <c r="B2" s="138"/>
       <c r="C2" s="139" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D2" s="140"/>
       <c r="E2" s="137" t="s">
@@ -4564,7 +4560,7 @@
       </c>
       <c r="B3" s="138"/>
       <c r="C3" s="141" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D3" s="142"/>
       <c r="E3" s="142"/>
@@ -4726,7 +4722,7 @@
         <v>204</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>201</v>
@@ -4774,10 +4770,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>202</v>
@@ -4824,7 +4820,7 @@
         <v>277</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>202</v>
@@ -5049,7 +5045,7 @@
         <v>286</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>201</v>
@@ -5089,13 +5085,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="66" t="s">
+        <v>533</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="D15" s="100" t="s">
         <v>534</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>571</v>
-      </c>
-      <c r="D15" s="100" t="s">
-        <v>535</v>
       </c>
       <c r="E15" s="100">
         <v>10</v>
@@ -5134,10 +5130,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D16" s="100" t="s">
         <v>203</v>
@@ -5453,7 +5449,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>262</v>
@@ -5485,7 +5481,7 @@
         <v>212</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D33" s="53" t="s">
         <v>202</v>
@@ -5512,7 +5508,7 @@
         <v>213</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D34" s="53" t="s">
         <v>202</v>
@@ -5539,7 +5535,7 @@
         <v>214</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D35" s="53" t="s">
         <v>203</v>
@@ -5566,7 +5562,7 @@
         <v>216</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D36" s="53" t="s">
         <v>201</v>
@@ -5638,10 +5634,10 @@
         <v>9</v>
       </c>
       <c r="B39" s="66" t="s">
+        <v>507</v>
+      </c>
+      <c r="C39" s="67" t="s">
         <v>508</v>
-      </c>
-      <c r="C39" s="67" t="s">
-        <v>509</v>
       </c>
       <c r="D39" s="68" t="s">
         <v>202</v>
@@ -5700,7 +5696,7 @@
       <c r="I42" s="61"/>
       <c r="J42" s="61"/>
       <c r="K42" s="135" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L42" s="11" t="str">
         <f>"-- "&amp;C43</f>
@@ -6161,7 +6157,7 @@
         <v>248</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D62" s="53" t="s">
         <v>200</v>
@@ -12755,7 +12751,7 @@
       <c r="I1" s="94"/>
       <c r="J1" s="94"/>
       <c r="K1" s="135" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="L1" s="11" t="str">
         <f>"-- "&amp;C2</f>
@@ -12768,7 +12764,7 @@
       </c>
       <c r="B2" s="138"/>
       <c r="C2" s="152" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D2" s="140"/>
       <c r="E2" s="137" t="s">
@@ -12876,10 +12872,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D7" s="82" t="s">
         <v>44</v>
@@ -12891,7 +12887,7 @@
       <c r="G7" s="83"/>
       <c r="H7" s="82"/>
       <c r="I7" s="82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J7" s="82"/>
       <c r="K7" s="55" t="s">
@@ -12907,10 +12903,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D8" s="82" t="s">
         <v>201</v>
@@ -12924,7 +12920,7 @@
         <v>68</v>
       </c>
       <c r="K8" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L8" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -12936,13 +12932,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E9" s="82"/>
       <c r="F9" s="82"/>
@@ -12950,10 +12946,10 @@
       <c r="H9" s="82"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82" t="s">
+        <v>524</v>
+      </c>
+      <c r="K9" s="55" t="s">
         <v>525</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>526</v>
       </c>
       <c r="L9" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -12965,10 +12961,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D10" s="82" t="s">
         <v>202</v>
@@ -12980,11 +12976,11 @@
       <c r="G10" s="83"/>
       <c r="H10" s="82"/>
       <c r="I10" s="82" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J10" s="82"/>
       <c r="K10" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L10" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -12996,10 +12992,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D11" s="82" t="s">
         <v>202</v>
@@ -13027,10 +13023,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D12" s="82" t="s">
         <v>401</v>
@@ -13044,7 +13040,7 @@
       <c r="I12" s="82"/>
       <c r="J12" s="82"/>
       <c r="K12" s="55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L12" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -13059,7 +13055,7 @@
         <v>213</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D13" s="82" t="s">
         <v>202</v>
@@ -13083,10 +13079,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D14" s="82" t="s">
         <v>202</v>
@@ -13113,7 +13109,7 @@
         <v>321</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D15" s="82" t="s">
         <v>401</v>
@@ -13142,7 +13138,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D16" s="82" t="s">
         <v>401</v>
@@ -13171,7 +13167,7 @@
         <v>57</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D17" s="82" t="s">
         <v>44</v>
@@ -13196,7 +13192,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D18" s="82" t="s">
         <v>36</v>
@@ -13245,8 +13241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L221"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13271,7 +13267,7 @@
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="139" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D1" s="140"/>
       <c r="E1" s="137" t="s">
@@ -13283,7 +13279,7 @@
       <c r="I1" s="75"/>
       <c r="J1" s="75"/>
       <c r="K1" s="135" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="L1" s="11" t="str">
         <f>"-- "&amp;C2</f>
@@ -13296,7 +13292,7 @@
       </c>
       <c r="B2" s="138"/>
       <c r="C2" s="152" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D2" s="140"/>
       <c r="E2" s="137" t="s">
@@ -13404,10 +13400,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="128" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D7" s="82" t="s">
         <v>308</v>
@@ -13419,7 +13415,7 @@
       <c r="G7" s="83"/>
       <c r="H7" s="82"/>
       <c r="I7" s="82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J7" s="82"/>
       <c r="K7" s="55" t="s">
@@ -13435,10 +13431,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="129" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D8" s="82" t="s">
         <v>202</v>
@@ -13464,10 +13460,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="129" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D9" s="82" t="s">
         <v>202</v>
@@ -13495,10 +13491,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="129" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D10" s="82" t="s">
         <v>202</v>
@@ -13526,10 +13522,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="129" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D11" s="82" t="s">
         <v>202</v>
@@ -13555,10 +13551,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="129" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D12" s="82" t="s">
         <v>202</v>
@@ -13584,10 +13580,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="129" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D13" s="82" t="s">
         <v>202</v>
@@ -13613,10 +13609,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="129" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D14" s="82" t="s">
         <v>203</v>
@@ -13642,10 +13638,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="129" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D15" s="82" t="s">
         <v>203</v>
@@ -13671,10 +13667,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="129" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D16" s="82" t="s">
         <v>398</v>
@@ -13700,10 +13696,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="129" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D17" s="82" t="s">
         <v>398</v>
@@ -13729,10 +13725,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="129" t="s">
-        <v>753</v>
+        <v>526</v>
       </c>
       <c r="C18" s="87" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D18" s="87" t="s">
         <v>308</v>
@@ -13744,7 +13740,7 @@
       <c r="I18" s="87"/>
       <c r="J18" s="87"/>
       <c r="K18" s="89" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L18" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -13756,10 +13752,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="129" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D19" s="67" t="s">
         <v>308</v>
@@ -13781,10 +13777,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="129" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D20" s="67" t="s">
         <v>201</v>
@@ -13806,10 +13802,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="129" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D21" s="82" t="s">
         <v>401</v>
@@ -13835,10 +13831,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="129" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D22" s="82" t="s">
         <v>401</v>
@@ -13864,10 +13860,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="129" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D23" s="82" t="s">
         <v>308</v>
@@ -13889,10 +13885,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="129" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D24" s="82" t="s">
         <v>403</v>
@@ -13915,320 +13911,360 @@
         <v>PRIMARY KEY(FWH_ID));</v>
       </c>
     </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="137" t="s">
+        <v>291</v>
+      </c>
+      <c r="B26" s="138"/>
+      <c r="C26" s="139" t="s">
+        <v>431</v>
+      </c>
+      <c r="D26" s="140"/>
+      <c r="E26" s="137" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" s="138"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="135" t="s">
+        <v>796</v>
+      </c>
+      <c r="L26" s="11" t="str">
+        <f>"-- "&amp;C27</f>
+        <v>-- 微信回复消息表</v>
+      </c>
+    </row>
     <row r="27" spans="1:12">
       <c r="A27" s="137" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B27" s="138"/>
-      <c r="C27" s="139" t="s">
-        <v>333</v>
+      <c r="C27" s="152" t="s">
+        <v>432</v>
       </c>
       <c r="D27" s="140"/>
       <c r="E27" s="137" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F27" s="138"/>
       <c r="G27" s="75"/>
       <c r="H27" s="75"/>
       <c r="I27" s="75"/>
       <c r="J27" s="75"/>
-      <c r="K27" s="135" t="s">
-        <v>578</v>
-      </c>
+      <c r="K27" s="136"/>
       <c r="L27" s="11" t="str">
         <f>"-- "&amp;C28</f>
-        <v>-- 微信平台关注用户本地表</v>
+        <v xml:space="preserve">-- </v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="137" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B28" s="138"/>
-      <c r="C28" s="152" t="s">
-        <v>334</v>
-      </c>
-      <c r="D28" s="140"/>
-      <c r="E28" s="137" t="s">
-        <v>297</v>
-      </c>
-      <c r="F28" s="138"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="11" t="str">
-        <f>"-- "&amp;C29</f>
-        <v xml:space="preserve">-- </v>
-      </c>
+      <c r="C28" s="141"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="49"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="137" t="s">
-        <v>298</v>
-      </c>
-      <c r="B29" s="138"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="49"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K26&amp;";"</f>
+        <v>DROP TABLE IF EXISTS WC_WEI_MESSAGE;</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="72"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="49" t="str">
-        <f>"DROP TABLE IF EXISTS "&amp;K27&amp;";"</f>
-        <v>DROP TABLE IF EXISTS LZ_WEI_WATCHER;</v>
-      </c>
+      <c r="A30" s="78"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="76"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="76"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="80" t="s">
+      <c r="A31" s="80" t="s">
         <v>299</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B31" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C31" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="D32" s="80" t="s">
+      <c r="D31" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="E32" s="80" t="s">
+      <c r="E31" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="F32" s="80" t="s">
+      <c r="F31" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="G32" s="80" t="s">
+      <c r="G31" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="80" t="s">
+      <c r="H31" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="I32" s="80" t="s">
+      <c r="I31" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="J32" s="33" t="s">
+      <c r="J31" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="K32" s="80" t="s">
+      <c r="K31" s="80" t="s">
         <v>306</v>
       </c>
+      <c r="L31" s="76" t="str">
+        <f>"CREATE TABLE "&amp;K26&amp;"("</f>
+        <v>CREATE TABLE WC_WEI_MESSAGE(</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A32" s="81">
+        <v>1</v>
+      </c>
+      <c r="B32" s="128" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="82" t="s">
+        <v>717</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="G32" s="83"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82" t="s">
+        <v>465</v>
+      </c>
+      <c r="J32" s="82"/>
+      <c r="K32" s="55" t="s">
+        <v>310</v>
+      </c>
       <c r="L32" s="76" t="str">
-        <f>"CREATE TABLE "&amp;K27&amp;"("</f>
-        <v>CREATE TABLE LZ_WEI_WATCHER(</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <f t="shared" ref="L32:L42" ca="1" si="1">C32&amp;" "&amp;D32&amp;IF(OR(D32="DATETIME",D32="INT",D32="DATE",D32="TEXT"),E32,"("&amp;E32&amp;")")&amp;" "&amp;" "&amp;H32&amp;" "&amp;J32&amp;IF(G32&lt;&gt;""," default "&amp;G32&amp;" ","")&amp;IF(I32&lt;&gt;""," "&amp;I32&amp;" ","")&amp;IF(OFFSET(C32,1,0,1,1)="",",",",")</f>
+        <v>WMG_ID INT    AUTO_INCREMENT ,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" customHeight="1">
       <c r="A33" s="81">
-        <v>1</v>
-      </c>
-      <c r="B33" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="C33" s="82" t="s">
-        <v>579</v>
-      </c>
-      <c r="D33" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="G33" s="83"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82" t="s">
-        <v>466</v>
-      </c>
-      <c r="J33" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33" s="55" t="s">
-        <v>310</v>
-      </c>
-      <c r="L33" s="76" t="str">
-        <f t="shared" ref="L33:L47" ca="1" si="1">C33&amp;" "&amp;D33&amp;IF(OR(D33="DATETIME",D33="INT",D33="DATE",D33="TEXT"),E33,"("&amp;E33&amp;")")&amp;" "&amp;" "&amp;H33&amp;" "&amp;J33&amp;IF(G33&lt;&gt;""," default "&amp;G33&amp;" ","")&amp;IF(I33&lt;&gt;""," "&amp;I33&amp;" ","")&amp;IF(OFFSET(C33,1,0,1,1)="",",",",")</f>
-        <v>WAC_ID INT   not null AUTO_INCREMENT ,</v>
+        <v>2</v>
+      </c>
+      <c r="B33" s="129" t="s">
+        <v>716</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>718</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="67">
+        <v>200</v>
+      </c>
+      <c r="F33" s="67"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="70" t="s">
+        <v>716</v>
+      </c>
+      <c r="L33" s="127" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>WMG_APP_ID VARCHAR(200)   ,</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="81">
-        <v>2</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="C34" s="67" t="s">
-        <v>580</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="70"/>
+        <v>3</v>
+      </c>
+      <c r="B34" s="129" t="s">
+        <v>433</v>
+      </c>
+      <c r="C34" s="82" t="s">
+        <v>603</v>
+      </c>
+      <c r="D34" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="82">
+        <v>800</v>
+      </c>
+      <c r="F34" s="82"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="55" t="s">
+        <v>434</v>
+      </c>
       <c r="L34" s="76" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WAC_WEC_ID INT   ,</v>
+        <v>WMG_CONTENT VARCHAR(800)   ,</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="81">
-        <v>3</v>
-      </c>
-      <c r="B35" s="67" t="s">
-        <v>335</v>
+        <v>4</v>
+      </c>
+      <c r="B35" s="129" t="s">
+        <v>435</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="D35" s="67" t="s">
-        <v>202</v>
+        <v>401</v>
       </c>
       <c r="E35" s="67">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="F35" s="67"/>
       <c r="G35" s="84"/>
       <c r="H35" s="67"/>
       <c r="I35" s="67"/>
       <c r="J35" s="67"/>
-      <c r="K35" s="70"/>
+      <c r="K35" s="70" t="s">
+        <v>436</v>
+      </c>
       <c r="L35" s="76" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WAC_APPID VARCHAR(200)   ,</v>
+        <v>WMG_CONTENT_XML VARCHAR(2000)   ,</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="81">
-        <v>4</v>
-      </c>
-      <c r="B36" s="82" t="s">
-        <v>336</v>
-      </c>
-      <c r="C36" s="85" t="s">
-        <v>582</v>
+        <v>5</v>
+      </c>
+      <c r="B36" s="129" t="s">
+        <v>437</v>
+      </c>
+      <c r="C36" s="82" t="s">
+        <v>605</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E36" s="82">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F36" s="82"/>
       <c r="G36" s="83"/>
       <c r="H36" s="82"/>
       <c r="I36" s="82"/>
       <c r="J36" s="82"/>
-      <c r="K36" s="55"/>
+      <c r="K36" s="55" t="s">
+        <v>438</v>
+      </c>
       <c r="L36" s="76" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WAC_OPENID VARCHAR(200)   ,</v>
+        <v>WMG_REPLY_TYPE CHAR(1)   ,</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="81">
-        <v>5</v>
-      </c>
-      <c r="B37" s="82" t="s">
-        <v>337</v>
+        <v>6</v>
+      </c>
+      <c r="B37" s="129" t="s">
+        <v>439</v>
       </c>
       <c r="C37" s="82" t="s">
-        <v>583</v>
+        <v>440</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="E37" s="82"/>
+        <v>203</v>
+      </c>
+      <c r="E37" s="82">
+        <v>1</v>
+      </c>
       <c r="F37" s="82"/>
       <c r="G37" s="83"/>
       <c r="H37" s="82"/>
       <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
       <c r="K37" s="55" t="s">
-        <v>338</v>
+        <v>441</v>
       </c>
       <c r="L37" s="76" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WAC_SUBSCRIBE INT   ,</v>
+        <v>WMG_MSG_TYPE CHAR(1)   ,</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="81">
-        <v>6</v>
-      </c>
-      <c r="B38" s="82" t="s">
-        <v>339</v>
+        <v>7</v>
+      </c>
+      <c r="B38" s="129" t="s">
+        <v>442</v>
       </c>
       <c r="C38" s="82" t="s">
-        <v>340</v>
+        <v>443</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E38" s="82">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="F38" s="82"/>
       <c r="G38" s="83"/>
       <c r="H38" s="82"/>
       <c r="I38" s="82"/>
       <c r="J38" s="82"/>
-      <c r="K38" s="55"/>
+      <c r="K38" s="55" t="s">
+        <v>444</v>
+      </c>
       <c r="L38" s="76" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WAC_NICK_NAME VARCHAR(400)   ,</v>
+        <v>WMG_AES_TYPE CHAR(1)   ,</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="81">
-        <v>7</v>
-      </c>
-      <c r="B39" s="82" t="s">
-        <v>214</v>
+        <v>8</v>
+      </c>
+      <c r="B39" s="129" t="s">
+        <v>321</v>
       </c>
       <c r="C39" s="82" t="s">
-        <v>341</v>
+        <v>445</v>
       </c>
       <c r="D39" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E39" s="82">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F39" s="82"/>
       <c r="G39" s="83"/>
@@ -14236,58 +14272,54 @@
       <c r="I39" s="82"/>
       <c r="J39" s="82"/>
       <c r="K39" s="55" t="s">
-        <v>342</v>
+        <v>795</v>
       </c>
       <c r="L39" s="76" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WAC_SEX CHAR(1)   ,</v>
+        <v>WMG_STATUS VARCHAR(20)   ,</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="81">
-        <v>8</v>
-      </c>
-      <c r="B40" s="82" t="s">
-        <v>343</v>
+        <v>9</v>
+      </c>
+      <c r="B40" s="129" t="s">
+        <v>49</v>
       </c>
       <c r="C40" s="82" t="s">
-        <v>344</v>
+        <v>446</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>202</v>
+        <v>401</v>
       </c>
       <c r="E40" s="82">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="F40" s="82"/>
       <c r="G40" s="83"/>
       <c r="H40" s="82"/>
       <c r="I40" s="82"/>
       <c r="J40" s="82"/>
-      <c r="K40" s="55" t="s">
-        <v>345</v>
-      </c>
+      <c r="K40" s="55"/>
       <c r="L40" s="76" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WAC_LANGUAGE VARCHAR(20)   ,</v>
+        <v>WMG_DESC VARCHAR(800)   ,</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="81">
-        <v>9</v>
-      </c>
-      <c r="B41" s="82" t="s">
-        <v>346</v>
+        <v>10</v>
+      </c>
+      <c r="B41" s="129" t="s">
+        <v>57</v>
       </c>
       <c r="C41" s="82" t="s">
-        <v>347</v>
+        <v>447</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E41" s="82">
-        <v>100</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E41" s="82"/>
       <c r="F41" s="82"/>
       <c r="G41" s="83"/>
       <c r="H41" s="82"/>
@@ -14296,25 +14328,23 @@
       <c r="K41" s="55"/>
       <c r="L41" s="76" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WAC_CITY VARCHAR(100)   ,</v>
+        <v>WMG_REGISTOR INT   ,</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="81">
-        <v>10</v>
-      </c>
-      <c r="B42" s="82" t="s">
-        <v>348</v>
+        <v>11</v>
+      </c>
+      <c r="B42" s="129" t="s">
+        <v>58</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>349</v>
+        <v>448</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42" s="82">
-        <v>100</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E42" s="82"/>
       <c r="F42" s="82"/>
       <c r="G42" s="83"/>
       <c r="H42" s="82"/>
@@ -14323,390 +14353,390 @@
       <c r="K42" s="55"/>
       <c r="L42" s="76" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WAC_PROVINCE VARCHAR(100)   ,</v>
+        <v>WMG_REGISTDATE DATETIME   ,</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="81">
-        <v>11</v>
-      </c>
-      <c r="B43" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="C43" s="82" t="s">
-        <v>351</v>
-      </c>
-      <c r="D43" s="82" t="s">
+      <c r="L43" s="76" t="str">
+        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C32,0,3,1,1)="PK",C32&amp;IF(OFFSET(C32,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C32,1,3,1,1)="PK",OFFSET(C32,1,0,1,1)&amp;IF(OFFSET(C32,1,0,1,1)="",",",""),"")&amp;"));"</f>
+        <v>PRIMARY KEY(WMG_ID));</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="L44" s="76"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="137" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" s="138"/>
+      <c r="C45" s="139" t="s">
+        <v>431</v>
+      </c>
+      <c r="D45" s="140"/>
+      <c r="E45" s="137" t="s">
+        <v>293</v>
+      </c>
+      <c r="F45" s="138"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="135" t="s">
+        <v>797</v>
+      </c>
+      <c r="L45" s="11" t="str">
+        <f>"-- "&amp;C46</f>
+        <v>-- 微信关键字-回复消息表</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="137" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" s="138"/>
+      <c r="C46" s="152" t="s">
+        <v>449</v>
+      </c>
+      <c r="D46" s="140"/>
+      <c r="E46" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="F46" s="138"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="136"/>
+      <c r="L46" s="11" t="str">
+        <f>"-- "&amp;C47</f>
+        <v xml:space="preserve">-- </v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="137" t="s">
+        <v>298</v>
+      </c>
+      <c r="B47" s="138"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="142"/>
+      <c r="J47" s="142"/>
+      <c r="K47" s="143"/>
+      <c r="L47" s="49"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="72"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K45&amp;";"</f>
+        <v>DROP TABLE IF EXISTS WC_WEI_KEYWORD_MESSAGE;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="78"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="76"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="B50" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D50" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="E50" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="G50" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="H50" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="I50" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="J50" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="K50" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="L50" s="76" t="str">
+        <f>"CREATE TABLE "&amp;K45&amp;"("</f>
+        <v>CREATE TABLE WC_WEI_KEYWORD_MESSAGE(</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="81">
+        <v>1</v>
+      </c>
+      <c r="B51" s="128" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="82" t="s">
+        <v>606</v>
+      </c>
+      <c r="D51" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="G51" s="83"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82" t="s">
+        <v>465</v>
+      </c>
+      <c r="J51" s="82"/>
+      <c r="K51" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="L51" s="76" t="str">
+        <f t="shared" ref="L51:L59" ca="1" si="2">C51&amp;" "&amp;D51&amp;IF(OR(D51="DATETIME",D51="INT",D51="DATE",D51="TEXT"),E51,"("&amp;E51&amp;")")&amp;" "&amp;" "&amp;H51&amp;" "&amp;J51&amp;IF(G51&lt;&gt;""," default "&amp;G51&amp;" ","")&amp;IF(I51&lt;&gt;""," "&amp;I51&amp;" ","")&amp;IF(OFFSET(C51,1,0,1,1)="",",",",")</f>
+        <v>WKG_ID INT    AUTO_INCREMENT ,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="81">
+        <v>2</v>
+      </c>
+      <c r="B52" s="129" t="s">
+        <v>361</v>
+      </c>
+      <c r="C52" s="82" t="s">
+        <v>607</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="55" t="s">
+        <v>388</v>
+      </c>
+      <c r="L52" s="76" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>WKG_WEC_ID INT   ,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="81">
+        <v>3</v>
+      </c>
+      <c r="B53" s="129" t="s">
+        <v>390</v>
+      </c>
+      <c r="C53" s="82" t="s">
+        <v>608</v>
+      </c>
+      <c r="D53" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="E43" s="82">
-        <v>100</v>
-      </c>
-      <c r="F43" s="82"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="76" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>WAC_COUNTRY VARCHAR(100)   ,</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="81">
-        <v>12</v>
-      </c>
-      <c r="B44" s="82" t="s">
-        <v>352</v>
-      </c>
-      <c r="C44" s="82" t="s">
-        <v>353</v>
-      </c>
-      <c r="D44" s="82" t="s">
+      <c r="E53" s="82">
+        <v>200</v>
+      </c>
+      <c r="F53" s="82"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="55" t="s">
+        <v>390</v>
+      </c>
+      <c r="L53" s="76" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>WKG_APP_ID VARCHAR(200)   ,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="A54" s="81">
+        <v>4</v>
+      </c>
+      <c r="B54" s="129" t="s">
+        <v>450</v>
+      </c>
+      <c r="C54" s="82" t="s">
+        <v>609</v>
+      </c>
+      <c r="D54" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="E44" s="82">
-        <v>400</v>
-      </c>
-      <c r="F44" s="82"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="55" t="s">
-        <v>354</v>
-      </c>
-      <c r="L44" s="76" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>WAC_HEAD_IMG_URL VARCHAR(400)   ,</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="81">
-        <v>13</v>
-      </c>
-      <c r="B45" s="82" t="s">
-        <v>355</v>
-      </c>
-      <c r="C45" s="82" t="s">
-        <v>356</v>
-      </c>
-      <c r="D45" s="82" t="s">
+      <c r="E54" s="82">
         <v>200</v>
       </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="55" t="s">
-        <v>357</v>
-      </c>
-      <c r="L45" s="76" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>WAC_SUBSCRIBE_TIME DATETIME   ,</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="81">
-        <v>14</v>
-      </c>
-      <c r="B46" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="C46" s="82" t="s">
-        <v>358</v>
-      </c>
-      <c r="D46" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="E46" s="82">
-        <v>1</v>
-      </c>
-      <c r="F46" s="82"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="55" t="s">
-        <v>323</v>
-      </c>
-      <c r="L46" s="76" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>WAC_STATUS  CHAR(1)   ,</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="81">
-        <v>15</v>
-      </c>
-      <c r="B47" s="82" t="s">
-        <v>331</v>
-      </c>
-      <c r="C47" s="82" t="s">
-        <v>359</v>
-      </c>
-      <c r="D47" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="76" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>WAC_REGISTOR_DATE DATETIME   ,</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="L48" s="76" t="str">
-        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C33,0,3,1,1)="PK",C33&amp;IF(OFFSET(C33,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C33,1,3,1,1)="PK",OFFSET(C33,1,0,1,1)&amp;IF(OFFSET(C33,1,0,1,1)="",",",""),"")&amp;"));"</f>
-        <v>PRIMARY KEY(WAC_ID));</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="L49" s="76"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="137" t="s">
-        <v>291</v>
-      </c>
-      <c r="B50" s="138"/>
-      <c r="C50" s="139" t="s">
-        <v>292</v>
-      </c>
-      <c r="D50" s="140"/>
-      <c r="E50" s="137" t="s">
-        <v>293</v>
-      </c>
-      <c r="F50" s="138"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="135" t="s">
-        <v>294</v>
-      </c>
-      <c r="L50" s="11" t="str">
-        <f>"-- "&amp;C51</f>
-        <v>-- 获取AccessToken记录表</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="137" t="s">
-        <v>295</v>
-      </c>
-      <c r="B51" s="138"/>
-      <c r="C51" s="152" t="s">
-        <v>296</v>
-      </c>
-      <c r="D51" s="140"/>
-      <c r="E51" s="137" t="s">
-        <v>297</v>
-      </c>
-      <c r="F51" s="138"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="136"/>
-      <c r="L51" s="11" t="str">
-        <f>"-- "&amp;C52</f>
-        <v xml:space="preserve">-- </v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="137" t="s">
-        <v>298</v>
-      </c>
-      <c r="B52" s="138"/>
-      <c r="C52" s="141"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="142"/>
-      <c r="K52" s="143"/>
-      <c r="L52" s="49"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="72"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="49" t="str">
-        <f>"DROP TABLE IF EXISTS "&amp;K50&amp;";"</f>
-        <v>DROP TABLE IF EXISTS LZ_WEI_ACCESSTOKEN;</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="78"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="76"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="55" t="s">
+        <v>450</v>
+      </c>
+      <c r="L54" s="76" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>WKG_KEYWORDS VARCHAR(200)   ,</v>
+      </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="80" t="s">
-        <v>299</v>
-      </c>
-      <c r="B55" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="C55" s="80" t="s">
-        <v>301</v>
-      </c>
-      <c r="D55" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="E55" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="F55" s="80" t="s">
-        <v>304</v>
-      </c>
-      <c r="G55" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="H55" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="I55" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="J55" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="K55" s="80" t="s">
-        <v>306</v>
+      <c r="A55" s="81">
+        <v>5</v>
+      </c>
+      <c r="B55" s="129" t="s">
+        <v>451</v>
+      </c>
+      <c r="C55" s="82" t="s">
+        <v>610</v>
+      </c>
+      <c r="D55" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="55" t="s">
+        <v>452</v>
       </c>
       <c r="L55" s="76" t="str">
-        <f>"CREATE TABLE "&amp;K50&amp;"("</f>
-        <v>CREATE TABLE LZ_WEI_ACCESSTOKEN(</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>WKG_WMG_ID INT   ,</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="81">
-        <v>1</v>
-      </c>
-      <c r="B56" s="82" t="s">
-        <v>204</v>
+        <v>6</v>
+      </c>
+      <c r="B56" s="129" t="s">
+        <v>321</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>307</v>
+        <v>611</v>
       </c>
       <c r="D56" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82" t="s">
-        <v>309</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E56" s="82">
+        <v>20</v>
+      </c>
+      <c r="F56" s="82"/>
       <c r="G56" s="83"/>
       <c r="H56" s="82"/>
-      <c r="I56" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="J56" s="82" t="s">
-        <v>68</v>
-      </c>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
       <c r="K56" s="55" t="s">
-        <v>310</v>
+        <v>402</v>
       </c>
       <c r="L56" s="76" t="str">
-        <f t="shared" ref="L56:L62" ca="1" si="2">C56&amp;" "&amp;D56&amp;IF(OR(D56="DATETIME",D56="INT",D56="DATE",D56="TEXT"),E56,"("&amp;E56&amp;")")&amp;" "&amp;" "&amp;H56&amp;" "&amp;J56&amp;IF(G56&lt;&gt;""," default "&amp;G56&amp;" ","")&amp;IF(I56&lt;&gt;""," "&amp;I56&amp;" ","")&amp;IF(OFFSET(C56,1,0,1,1)="",",",",")</f>
-        <v>WAT_ID INT   not null AUTO_INCREMENT ,</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>WKG_STATUS VARCHAR(20)   ,</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="81">
-        <v>2</v>
-      </c>
-      <c r="B57" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="C57" s="67" t="s">
-        <v>312</v>
-      </c>
-      <c r="D57" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="70"/>
+        <v>7</v>
+      </c>
+      <c r="B57" s="129" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="82" t="s">
+        <v>453</v>
+      </c>
+      <c r="D57" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" s="82">
+        <v>200</v>
+      </c>
+      <c r="F57" s="82"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="55"/>
       <c r="L57" s="76" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WAT_WEC_ID INT   ,</v>
+        <v>WKG_DESC VARCHAR(200)   ,</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="81">
-        <v>3</v>
-      </c>
-      <c r="B58" s="67" t="s">
-        <v>313</v>
-      </c>
-      <c r="C58" s="67" t="s">
-        <v>314</v>
-      </c>
-      <c r="D58" s="67" t="s">
-        <v>202</v>
-      </c>
-      <c r="E58" s="67">
-        <v>80</v>
-      </c>
-      <c r="F58" s="67"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="70"/>
+        <v>8</v>
+      </c>
+      <c r="B58" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="82" t="s">
+        <v>454</v>
+      </c>
+      <c r="D58" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="55"/>
       <c r="L58" s="76" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WAT_APPID VARCHAR(80)   ,</v>
+        <v>WKG_REGISTOR INT   ,</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="81">
-        <v>4</v>
-      </c>
-      <c r="B59" s="82" t="s">
-        <v>315</v>
-      </c>
-      <c r="C59" s="85" t="s">
-        <v>316</v>
+        <v>9</v>
+      </c>
+      <c r="B59" s="129" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="82" t="s">
+        <v>455</v>
       </c>
       <c r="D59" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E59" s="82">
         <v>200</v>
       </c>
+      <c r="E59" s="82"/>
       <c r="F59" s="82"/>
       <c r="G59" s="83"/>
       <c r="H59" s="82"/>
@@ -14715,278 +14745,252 @@
       <c r="K59" s="55"/>
       <c r="L59" s="76" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WAT_TOKEN VARCHAR(200)   ,</v>
+        <v>WKG_REGISTDATE DATETIME   ,</v>
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="81">
-        <v>5</v>
-      </c>
-      <c r="B60" s="82" t="s">
-        <v>317</v>
-      </c>
-      <c r="C60" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="D60" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="K60" s="55"/>
       <c r="L60" s="76" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>WAT_EXPIRES_IN DATETIME   ,</v>
+        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C51,0,3,1,1)="PK",C51&amp;IF(OFFSET(C51,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C51,1,3,1,1)="PK",OFFSET(C51,1,0,1,1)&amp;IF(OFFSET(C51,1,0,1,1)="",",",""),"")&amp;"));"</f>
+        <v>PRIMARY KEY(WKG_ID));</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="81">
-        <v>6</v>
-      </c>
-      <c r="B61" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="C61" s="82" t="s">
-        <v>320</v>
-      </c>
-      <c r="D61" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="76" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>WAT_CREAT_TIME DATETIME   ,</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="81">
-        <v>7</v>
-      </c>
-      <c r="B62" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="C62" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="D62" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="E62" s="82">
-        <v>1</v>
-      </c>
-      <c r="F62" s="82"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="82"/>
-      <c r="I62" s="82"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="55" t="s">
-        <v>323</v>
-      </c>
-      <c r="L62" s="76" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>WAT_STATUS  CHAR(1)   ,</v>
-      </c>
+      <c r="L61" s="76"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="L63" s="76" t="str">
-        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C56,0,3,1,1)="PK",C56&amp;IF(OFFSET(C56,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C56,1,3,1,1)="PK",OFFSET(C56,1,0,1,1)&amp;IF(OFFSET(C56,1,0,1,1)="",",",""),"")&amp;"));"</f>
-        <v>PRIMARY KEY(WAT_ID));</v>
+      <c r="A63" s="137" t="s">
+        <v>291</v>
+      </c>
+      <c r="B63" s="138"/>
+      <c r="C63" s="139" t="s">
+        <v>333</v>
+      </c>
+      <c r="D63" s="140"/>
+      <c r="E63" s="137" t="s">
+        <v>293</v>
+      </c>
+      <c r="F63" s="138"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="135" t="s">
+        <v>577</v>
+      </c>
+      <c r="L63" s="11" t="str">
+        <f>"-- "&amp;C64</f>
+        <v>-- 微信平台关注用户本地表</v>
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="L64" s="76"/>
+      <c r="A64" s="137" t="s">
+        <v>295</v>
+      </c>
+      <c r="B64" s="138"/>
+      <c r="C64" s="152" t="s">
+        <v>334</v>
+      </c>
+      <c r="D64" s="140"/>
+      <c r="E64" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="F64" s="138"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="136"/>
+      <c r="L64" s="11" t="str">
+        <f>"-- "&amp;C65</f>
+        <v xml:space="preserve">-- </v>
+      </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="137" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B65" s="138"/>
-      <c r="C65" s="139" t="s">
-        <v>324</v>
-      </c>
-      <c r="D65" s="140"/>
-      <c r="E65" s="137" t="s">
-        <v>293</v>
-      </c>
-      <c r="F65" s="138"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="75"/>
-      <c r="J65" s="75"/>
-      <c r="K65" s="135" t="s">
-        <v>325</v>
-      </c>
-      <c r="L65" s="11" t="str">
-        <f>"-- "&amp;C66</f>
-        <v>-- 错误代码返回表</v>
-      </c>
+      <c r="C65" s="141"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="142"/>
+      <c r="I65" s="142"/>
+      <c r="J65" s="142"/>
+      <c r="K65" s="143"/>
+      <c r="L65" s="49"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="137" t="s">
-        <v>295</v>
-      </c>
-      <c r="B66" s="138"/>
-      <c r="C66" s="152" t="s">
-        <v>326</v>
-      </c>
-      <c r="D66" s="140"/>
-      <c r="E66" s="137" t="s">
-        <v>297</v>
-      </c>
-      <c r="F66" s="138"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="75"/>
-      <c r="I66" s="75"/>
-      <c r="J66" s="75"/>
-      <c r="K66" s="136"/>
-      <c r="L66" s="11" t="str">
-        <f>"-- "&amp;C67</f>
-        <v xml:space="preserve">-- </v>
+      <c r="A66" s="72"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K63&amp;";"</f>
+        <v>DROP TABLE IF EXISTS LZ_WEI_WATCHER;</v>
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="137" t="s">
-        <v>298</v>
-      </c>
-      <c r="B67" s="138"/>
-      <c r="C67" s="141"/>
-      <c r="D67" s="142"/>
-      <c r="E67" s="142"/>
-      <c r="F67" s="142"/>
-      <c r="G67" s="142"/>
-      <c r="H67" s="142"/>
-      <c r="I67" s="142"/>
-      <c r="J67" s="142"/>
-      <c r="K67" s="143"/>
-      <c r="L67" s="49"/>
+      <c r="A67" s="78"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="76"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="72"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="77"/>
-      <c r="L68" s="49" t="str">
-        <f>"DROP TABLE IF EXISTS "&amp;K65&amp;";"</f>
-        <v>DROP TABLE IF EXISTS LZ_WEI_ERRORCODE;</v>
+      <c r="A68" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="B68" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="C68" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D68" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="E68" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="F68" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="G68" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="H68" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="I68" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="J68" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="K68" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="L68" s="76" t="str">
+        <f>"CREATE TABLE "&amp;K63&amp;"("</f>
+        <v>CREATE TABLE LZ_WEI_WATCHER(</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="78"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="78"/>
-      <c r="I69" s="78"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="78"/>
-      <c r="L69" s="76"/>
+      <c r="A69" s="81">
+        <v>1</v>
+      </c>
+      <c r="B69" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="82" t="s">
+        <v>578</v>
+      </c>
+      <c r="D69" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="G69" s="83"/>
+      <c r="H69" s="82"/>
+      <c r="I69" s="82" t="s">
+        <v>465</v>
+      </c>
+      <c r="J69" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="K69" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="L69" s="76" t="str">
+        <f t="shared" ref="L69:L83" ca="1" si="3">C69&amp;" "&amp;D69&amp;IF(OR(D69="DATETIME",D69="INT",D69="DATE",D69="TEXT"),E69,"("&amp;E69&amp;")")&amp;" "&amp;" "&amp;H69&amp;" "&amp;J69&amp;IF(G69&lt;&gt;""," default "&amp;G69&amp;" ","")&amp;IF(I69&lt;&gt;""," "&amp;I69&amp;" ","")&amp;IF(OFFSET(C69,1,0,1,1)="",",",",")</f>
+        <v>WAC_ID INT   not null AUTO_INCREMENT ,</v>
+      </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="80" t="s">
-        <v>299</v>
-      </c>
-      <c r="B70" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="C70" s="80" t="s">
-        <v>301</v>
-      </c>
-      <c r="D70" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="E70" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="F70" s="80" t="s">
-        <v>304</v>
-      </c>
-      <c r="G70" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="H70" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="I70" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="J70" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="K70" s="80" t="s">
-        <v>306</v>
-      </c>
+      <c r="A70" s="81">
+        <v>2</v>
+      </c>
+      <c r="B70" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="C70" s="67" t="s">
+        <v>579</v>
+      </c>
+      <c r="D70" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="70"/>
       <c r="L70" s="76" t="str">
-        <f>"CREATE TABLE "&amp;K65&amp;"("</f>
-        <v>CREATE TABLE LZ_WEI_ERRORCODE(</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>WAC_WEC_ID INT   ,</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="81">
-        <v>1</v>
-      </c>
-      <c r="B71" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="C71" s="82" t="s">
-        <v>327</v>
-      </c>
-      <c r="D71" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="G71" s="83"/>
-      <c r="H71" s="82"/>
-      <c r="I71" s="82" t="s">
-        <v>466</v>
-      </c>
-      <c r="J71" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="K71" s="55" t="s">
-        <v>310</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B71" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="C71" s="67" t="s">
+        <v>580</v>
+      </c>
+      <c r="D71" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" s="67">
+        <v>200</v>
+      </c>
+      <c r="F71" s="67"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="70"/>
       <c r="L71" s="76" t="str">
-        <f t="shared" ref="L71:L74" ca="1" si="3">C71&amp;" "&amp;D71&amp;IF(OR(D71="DATETIME",D71="INT",D71="DATE",D71="TEXT"),E71,"("&amp;E71&amp;")")&amp;" "&amp;" "&amp;H71&amp;" "&amp;J71&amp;IF(G71&lt;&gt;""," default "&amp;G71&amp;" ","")&amp;IF(I71&lt;&gt;""," "&amp;I71&amp;" ","")&amp;IF(OFFSET(C71,1,0,1,1)="",",",",")</f>
-        <v>WAE_ID INT   not null AUTO_INCREMENT ,</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>WAC_APPID VARCHAR(200)   ,</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B72" s="82" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C72" s="85" t="s">
-        <v>329</v>
+        <v>581</v>
       </c>
       <c r="D72" s="82" t="s">
         <v>202</v>
       </c>
       <c r="E72" s="82">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F72" s="82"/>
       <c r="G72" s="83"/>
@@ -14996,49 +15000,51 @@
       <c r="K72" s="55"/>
       <c r="L72" s="76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WAE_CODE VARCHAR(20)   ,</v>
+        <v>WAC_OPENID VARCHAR(200)   ,</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B73" s="82" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C73" s="82" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D73" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E73" s="82">
-        <v>400</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E73" s="82"/>
       <c r="F73" s="82"/>
       <c r="G73" s="83"/>
       <c r="H73" s="82"/>
       <c r="I73" s="82"/>
-      <c r="K73" s="55"/>
+      <c r="K73" s="55" t="s">
+        <v>338</v>
+      </c>
       <c r="L73" s="76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WAE_DESC VARCHAR(400)   ,</v>
+        <v>WAC_SUBSCRIBE INT   ,</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B74" s="82" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C74" s="82" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D74" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="E74" s="82"/>
+        <v>202</v>
+      </c>
+      <c r="E74" s="82">
+        <v>400</v>
+      </c>
       <c r="F74" s="82"/>
       <c r="G74" s="83"/>
       <c r="H74" s="82"/>
@@ -15047,1359 +15053,1370 @@
       <c r="K74" s="55"/>
       <c r="L74" s="76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WAE_CREAT_TIME DATETIME   ,</v>
+        <v>WAC_NICK_NAME VARCHAR(400)   ,</v>
       </c>
     </row>
     <row r="75" spans="1:12">
+      <c r="A75" s="81">
+        <v>7</v>
+      </c>
+      <c r="B75" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="82" t="s">
+        <v>341</v>
+      </c>
+      <c r="D75" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="E75" s="82">
+        <v>1</v>
+      </c>
+      <c r="F75" s="82"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="82"/>
+      <c r="I75" s="82"/>
+      <c r="J75" s="82"/>
+      <c r="K75" s="55" t="s">
+        <v>342</v>
+      </c>
       <c r="L75" s="76" t="str">
-        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C71,0,3,1,1)="PK",C71&amp;IF(OFFSET(C71,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C71,1,3,1,1)="PK",OFFSET(C71,1,0,1,1)&amp;IF(OFFSET(C71,1,0,1,1)="",",",""),"")&amp;"));"</f>
-        <v>PRIMARY KEY(WAE_ID));</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>WAC_SEX CHAR(1)   ,</v>
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="L76" s="76"/>
+      <c r="A76" s="81">
+        <v>8</v>
+      </c>
+      <c r="B76" s="82" t="s">
+        <v>343</v>
+      </c>
+      <c r="C76" s="82" t="s">
+        <v>344</v>
+      </c>
+      <c r="D76" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E76" s="82">
+        <v>20</v>
+      </c>
+      <c r="F76" s="82"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="82"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="L76" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>WAC_LANGUAGE VARCHAR(20)   ,</v>
+      </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="137" t="s">
-        <v>291</v>
-      </c>
-      <c r="B77" s="138"/>
-      <c r="C77" s="139" t="s">
-        <v>333</v>
-      </c>
-      <c r="D77" s="140"/>
-      <c r="E77" s="137" t="s">
-        <v>293</v>
-      </c>
-      <c r="F77" s="138"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="75"/>
-      <c r="I77" s="75"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="135" t="s">
-        <v>585</v>
-      </c>
-      <c r="L77" s="11" t="str">
-        <f>"-- "&amp;C78</f>
-        <v>-- 微信自定义菜单表</v>
+      <c r="A77" s="81">
+        <v>9</v>
+      </c>
+      <c r="B77" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="C77" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D77" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" s="82">
+        <v>100</v>
+      </c>
+      <c r="F77" s="82"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="82"/>
+      <c r="I77" s="82"/>
+      <c r="J77" s="82"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>WAC_CITY VARCHAR(100)   ,</v>
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="137" t="s">
-        <v>295</v>
-      </c>
-      <c r="B78" s="138"/>
-      <c r="C78" s="152" t="s">
-        <v>360</v>
-      </c>
-      <c r="D78" s="140"/>
-      <c r="E78" s="137" t="s">
-        <v>297</v>
-      </c>
-      <c r="F78" s="138"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="75"/>
-      <c r="I78" s="75"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="136"/>
-      <c r="L78" s="11" t="str">
-        <f>"-- "&amp;C79</f>
-        <v xml:space="preserve">-- </v>
+      <c r="A78" s="81">
+        <v>10</v>
+      </c>
+      <c r="B78" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="C78" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="D78" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" s="82">
+        <v>100</v>
+      </c>
+      <c r="F78" s="82"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="82"/>
+      <c r="I78" s="82"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>WAC_PROVINCE VARCHAR(100)   ,</v>
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="137" t="s">
-        <v>298</v>
-      </c>
-      <c r="B79" s="138"/>
-      <c r="C79" s="141"/>
-      <c r="D79" s="142"/>
-      <c r="E79" s="142"/>
-      <c r="F79" s="142"/>
-      <c r="G79" s="142"/>
-      <c r="H79" s="142"/>
-      <c r="I79" s="142"/>
-      <c r="J79" s="142"/>
-      <c r="K79" s="143"/>
-      <c r="L79" s="49"/>
+      <c r="A79" s="81">
+        <v>11</v>
+      </c>
+      <c r="B79" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="C79" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="D79" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" s="82">
+        <v>100</v>
+      </c>
+      <c r="F79" s="82"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="82"/>
+      <c r="I79" s="82"/>
+      <c r="J79" s="82"/>
+      <c r="K79" s="55"/>
+      <c r="L79" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>WAC_COUNTRY VARCHAR(100)   ,</v>
+      </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="72"/>
-      <c r="B80" s="73"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="77"/>
-      <c r="G80" s="77"/>
-      <c r="H80" s="77"/>
-      <c r="I80" s="77"/>
-      <c r="J80" s="74"/>
-      <c r="K80" s="77"/>
-      <c r="L80" s="49" t="str">
-        <f>"DROP TABLE IF EXISTS "&amp;K77&amp;";"</f>
-        <v>DROP TABLE IF EXISTS LZ_WEI_MENU;</v>
+      <c r="A80" s="81">
+        <v>12</v>
+      </c>
+      <c r="B80" s="82" t="s">
+        <v>352</v>
+      </c>
+      <c r="C80" s="82" t="s">
+        <v>353</v>
+      </c>
+      <c r="D80" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E80" s="82">
+        <v>400</v>
+      </c>
+      <c r="F80" s="82"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="82"/>
+      <c r="I80" s="82"/>
+      <c r="J80" s="82"/>
+      <c r="K80" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="L80" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>WAC_HEAD_IMG_URL VARCHAR(400)   ,</v>
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="78"/>
-      <c r="B81" s="78"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="79"/>
-      <c r="E81" s="78"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="78"/>
-      <c r="H81" s="78"/>
-      <c r="I81" s="78"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="78"/>
-      <c r="L81" s="76"/>
+      <c r="A81" s="81">
+        <v>13</v>
+      </c>
+      <c r="B81" s="82" t="s">
+        <v>355</v>
+      </c>
+      <c r="C81" s="82" t="s">
+        <v>356</v>
+      </c>
+      <c r="D81" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="E81" s="82"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="82"/>
+      <c r="I81" s="82"/>
+      <c r="J81" s="82"/>
+      <c r="K81" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="L81" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>WAC_SUBSCRIBE_TIME DATETIME   ,</v>
+      </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="80" t="s">
-        <v>299</v>
-      </c>
-      <c r="B82" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="C82" s="80" t="s">
-        <v>301</v>
-      </c>
-      <c r="D82" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="E82" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="F82" s="80" t="s">
-        <v>304</v>
-      </c>
-      <c r="G82" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="H82" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="I82" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="J82" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="K82" s="80" t="s">
-        <v>306</v>
+      <c r="A82" s="81">
+        <v>14</v>
+      </c>
+      <c r="B82" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="C82" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="D82" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" s="82">
+        <v>1</v>
+      </c>
+      <c r="F82" s="82"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="82"/>
+      <c r="I82" s="82"/>
+      <c r="J82" s="82"/>
+      <c r="K82" s="55" t="s">
+        <v>323</v>
       </c>
       <c r="L82" s="76" t="str">
-        <f>"CREATE TABLE "&amp;K77&amp;"("</f>
-        <v>CREATE TABLE LZ_WEI_MENU(</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>WAC_STATUS  CHAR(1)   ,</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="81">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B83" s="82" t="s">
-        <v>204</v>
+        <v>331</v>
       </c>
       <c r="C83" s="82" t="s">
-        <v>586</v>
+        <v>359</v>
       </c>
       <c r="D83" s="82" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="E83" s="82"/>
-      <c r="F83" s="82" t="s">
-        <v>309</v>
-      </c>
+      <c r="F83" s="82"/>
       <c r="G83" s="83"/>
       <c r="H83" s="82"/>
-      <c r="I83" s="82" t="s">
-        <v>466</v>
-      </c>
-      <c r="J83" s="82" t="s">
+      <c r="I83" s="82"/>
+      <c r="J83" s="82"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>WAC_REGISTOR_DATE DATETIME   ,</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="L84" s="76" t="str">
+        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C69,0,3,1,1)="PK",C69&amp;IF(OFFSET(C69,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C69,1,3,1,1)="PK",OFFSET(C69,1,0,1,1)&amp;IF(OFFSET(C69,1,0,1,1)="",",",""),"")&amp;"));"</f>
+        <v>PRIMARY KEY(WAC_ID));</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="L85" s="76"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="137" t="s">
+        <v>291</v>
+      </c>
+      <c r="B86" s="138"/>
+      <c r="C86" s="139" t="s">
+        <v>292</v>
+      </c>
+      <c r="D86" s="140"/>
+      <c r="E86" s="137" t="s">
+        <v>293</v>
+      </c>
+      <c r="F86" s="138"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="75"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="135" t="s">
+        <v>294</v>
+      </c>
+      <c r="L86" s="11" t="str">
+        <f>"-- "&amp;C87</f>
+        <v>-- 获取AccessToken记录表</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="137" t="s">
+        <v>295</v>
+      </c>
+      <c r="B87" s="138"/>
+      <c r="C87" s="152" t="s">
+        <v>296</v>
+      </c>
+      <c r="D87" s="140"/>
+      <c r="E87" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="F87" s="138"/>
+      <c r="G87" s="75"/>
+      <c r="H87" s="75"/>
+      <c r="I87" s="75"/>
+      <c r="J87" s="75"/>
+      <c r="K87" s="136"/>
+      <c r="L87" s="11" t="str">
+        <f>"-- "&amp;C88</f>
+        <v xml:space="preserve">-- </v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="137" t="s">
+        <v>298</v>
+      </c>
+      <c r="B88" s="138"/>
+      <c r="C88" s="141"/>
+      <c r="D88" s="142"/>
+      <c r="E88" s="142"/>
+      <c r="F88" s="142"/>
+      <c r="G88" s="142"/>
+      <c r="H88" s="142"/>
+      <c r="I88" s="142"/>
+      <c r="J88" s="142"/>
+      <c r="K88" s="143"/>
+      <c r="L88" s="49"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="72"/>
+      <c r="B89" s="73"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="77"/>
+      <c r="J89" s="74"/>
+      <c r="K89" s="77"/>
+      <c r="L89" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K86&amp;";"</f>
+        <v>DROP TABLE IF EXISTS LZ_WEI_ACCESSTOKEN;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="78"/>
+      <c r="B90" s="78"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="78"/>
+      <c r="H90" s="78"/>
+      <c r="I90" s="78"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="78"/>
+      <c r="L90" s="76"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="B91" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="C91" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D91" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="E91" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="F91" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="G91" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="H91" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="I91" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="J91" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="K91" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="L91" s="76" t="str">
+        <f>"CREATE TABLE "&amp;K86&amp;"("</f>
+        <v>CREATE TABLE LZ_WEI_ACCESSTOKEN(</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="81">
+        <v>1</v>
+      </c>
+      <c r="B92" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="D92" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="E92" s="82"/>
+      <c r="F92" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="G92" s="83"/>
+      <c r="H92" s="82"/>
+      <c r="I92" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J92" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="K83" s="55" t="s">
+      <c r="K92" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="L83" s="76" t="str">
-        <f t="shared" ref="L83:L89" ca="1" si="4">C83&amp;" "&amp;D83&amp;IF(OR(D83="DATETIME",D83="INT",D83="DATE",D83="TEXT"),E83,"("&amp;E83&amp;")")&amp;" "&amp;" "&amp;H83&amp;" "&amp;J83&amp;IF(G83&lt;&gt;""," default "&amp;G83&amp;" ","")&amp;IF(I83&lt;&gt;""," "&amp;I83&amp;" ","")&amp;IF(OFFSET(C83,1,0,1,1)="",",",",")</f>
-        <v>WMU_ID INT   not null AUTO_INCREMENT ,</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="81">
+      <c r="L92" s="76" t="str">
+        <f t="shared" ref="L92:L98" ca="1" si="4">C92&amp;" "&amp;D92&amp;IF(OR(D92="DATETIME",D92="INT",D92="DATE",D92="TEXT"),E92,"("&amp;E92&amp;")")&amp;" "&amp;" "&amp;H92&amp;" "&amp;J92&amp;IF(G92&lt;&gt;""," default "&amp;G92&amp;" ","")&amp;IF(I92&lt;&gt;""," "&amp;I92&amp;" ","")&amp;IF(OFFSET(C92,1,0,1,1)="",",",",")</f>
+        <v>WAT_ID INT   not null AUTO_INCREMENT ,</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="81">
         <v>2</v>
       </c>
-      <c r="B84" s="82" t="s">
-        <v>361</v>
-      </c>
-      <c r="C84" s="82" t="s">
-        <v>587</v>
-      </c>
-      <c r="D84" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="E84" s="82"/>
-      <c r="F84" s="82"/>
-      <c r="G84" s="83"/>
-      <c r="H84" s="82"/>
-      <c r="I84" s="82"/>
-      <c r="J84" s="82"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="76" t="str">
+      <c r="B93" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="C93" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="D93" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="84"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="67"/>
+      <c r="J93" s="67"/>
+      <c r="K93" s="70"/>
+      <c r="L93" s="76" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>WMU_WEC_ID INT   ,</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="81">
+        <v>WAT_WEC_ID INT   ,</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="81">
         <v>3</v>
       </c>
-      <c r="B85" s="82" t="s">
-        <v>362</v>
-      </c>
-      <c r="C85" s="85" t="s">
-        <v>588</v>
-      </c>
-      <c r="D85" s="82" t="s">
+      <c r="B94" s="67" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="D94" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="E85" s="82">
+      <c r="E94" s="67">
+        <v>80</v>
+      </c>
+      <c r="F94" s="67"/>
+      <c r="G94" s="84"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="67"/>
+      <c r="J94" s="67"/>
+      <c r="K94" s="70"/>
+      <c r="L94" s="76" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>WAT_APPID VARCHAR(80)   ,</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="81">
+        <v>4</v>
+      </c>
+      <c r="B95" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="C95" s="85" t="s">
+        <v>316</v>
+      </c>
+      <c r="D95" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E95" s="82">
         <v>200</v>
       </c>
-      <c r="F85" s="82"/>
-      <c r="G85" s="83"/>
-      <c r="H85" s="82"/>
-      <c r="I85" s="82"/>
-      <c r="J85" s="82"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="76" t="str">
+      <c r="F95" s="82"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="82"/>
+      <c r="I95" s="82"/>
+      <c r="J95" s="82"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="76" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>WMU_APP_ID VARCHAR(200)   ,</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="81">
-        <v>4</v>
-      </c>
-      <c r="B86" s="82" t="s">
-        <v>363</v>
-      </c>
-      <c r="C86" s="85" t="s">
-        <v>589</v>
-      </c>
-      <c r="D86" s="82" t="s">
-        <v>364</v>
-      </c>
-      <c r="E86" s="82"/>
-      <c r="F86" s="82"/>
-      <c r="G86" s="83"/>
-      <c r="H86" s="82"/>
-      <c r="I86" s="82"/>
-      <c r="J86" s="82"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="76" t="str">
+        <v>WAT_TOKEN VARCHAR(200)   ,</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="81">
+        <v>5</v>
+      </c>
+      <c r="B96" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="C96" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="D96" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="83"/>
+      <c r="H96" s="82"/>
+      <c r="I96" s="82"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="76" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>WMU_JSON TEXT   ,</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="81">
-        <v>5</v>
-      </c>
-      <c r="B87" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="C87" s="85" t="s">
-        <v>590</v>
-      </c>
-      <c r="D87" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E87" s="82">
+        <v>WAT_EXPIRES_IN DATETIME   ,</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="81">
+        <v>6</v>
+      </c>
+      <c r="B97" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="C97" s="82" t="s">
+        <v>320</v>
+      </c>
+      <c r="D97" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="F87" s="82"/>
-      <c r="G87" s="83"/>
-      <c r="H87" s="82"/>
-      <c r="I87" s="82"/>
-      <c r="J87" s="82"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="76" t="str">
+      <c r="E97" s="82"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="83"/>
+      <c r="H97" s="82"/>
+      <c r="I97" s="82"/>
+      <c r="J97" s="82"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="76" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>WMU_DESC VARCHAR(200)   ,</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="81">
-        <v>6</v>
-      </c>
-      <c r="B88" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="C88" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="D88" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="E88" s="82">
-        <v>1</v>
-      </c>
-      <c r="F88" s="82"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="82"/>
-      <c r="I88" s="82"/>
-      <c r="J88" s="82"/>
-      <c r="K88" s="55" t="s">
-        <v>323</v>
-      </c>
-      <c r="L88" s="76" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>WMU_STATUS  CHAR(1)   ,</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="81">
-        <v>7</v>
-      </c>
-      <c r="B89" s="82" t="s">
-        <v>331</v>
-      </c>
-      <c r="C89" s="82" t="s">
-        <v>366</v>
-      </c>
-      <c r="D89" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="E89" s="82"/>
-      <c r="F89" s="82"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="82"/>
-      <c r="I89" s="82"/>
-      <c r="J89" s="82"/>
-      <c r="K89" s="55"/>
-      <c r="L89" s="76" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>WMU_REGISTOR_DATE DATETIME   ,</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="L90" s="76" t="str">
-        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C83,0,3,1,1)="PK",C83&amp;IF(OFFSET(C83,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C83,1,3,1,1)="PK",OFFSET(C83,1,0,1,1)&amp;IF(OFFSET(C83,1,0,1,1)="",",",""),"")&amp;"));"</f>
-        <v>PRIMARY KEY(WMU_ID));</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="L91" s="76"/>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="137" t="s">
-        <v>291</v>
-      </c>
-      <c r="B92" s="138"/>
-      <c r="C92" s="139" t="s">
-        <v>367</v>
-      </c>
-      <c r="D92" s="140"/>
-      <c r="E92" s="137" t="s">
-        <v>293</v>
-      </c>
-      <c r="F92" s="138"/>
-      <c r="G92" s="75"/>
-      <c r="H92" s="75"/>
-      <c r="I92" s="75"/>
-      <c r="J92" s="75"/>
-      <c r="K92" s="135" t="s">
-        <v>591</v>
-      </c>
-      <c r="L92" s="11" t="str">
-        <f>"-- "&amp;C93</f>
-        <v>-- 微信按钮</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="137" t="s">
-        <v>295</v>
-      </c>
-      <c r="B93" s="138"/>
-      <c r="C93" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="D93" s="140"/>
-      <c r="E93" s="137" t="s">
-        <v>297</v>
-      </c>
-      <c r="F93" s="138"/>
-      <c r="G93" s="75"/>
-      <c r="H93" s="75"/>
-      <c r="I93" s="75"/>
-      <c r="J93" s="75"/>
-      <c r="K93" s="136"/>
-      <c r="L93" s="11" t="str">
-        <f>"-- "&amp;C94</f>
-        <v xml:space="preserve">-- </v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="137" t="s">
-        <v>298</v>
-      </c>
-      <c r="B94" s="138"/>
-      <c r="C94" s="141"/>
-      <c r="D94" s="142"/>
-      <c r="E94" s="142"/>
-      <c r="F94" s="142"/>
-      <c r="G94" s="142"/>
-      <c r="H94" s="142"/>
-      <c r="I94" s="142"/>
-      <c r="J94" s="142"/>
-      <c r="K94" s="143"/>
-      <c r="L94" s="49"/>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="72"/>
-      <c r="B95" s="73"/>
-      <c r="C95" s="77"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="77"/>
-      <c r="G95" s="77"/>
-      <c r="H95" s="77"/>
-      <c r="I95" s="77"/>
-      <c r="J95" s="74"/>
-      <c r="K95" s="77"/>
-      <c r="L95" s="49" t="str">
-        <f>"DROP TABLE IF EXISTS "&amp;K92&amp;";"</f>
-        <v>DROP TABLE IF EXISTS LZ_WEI_BUTTON;</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="78"/>
-      <c r="B96" s="78"/>
-      <c r="C96" s="78"/>
-      <c r="D96" s="79"/>
-      <c r="E96" s="78"/>
-      <c r="F96" s="78"/>
-      <c r="G96" s="78"/>
-      <c r="H96" s="78"/>
-      <c r="I96" s="78"/>
-      <c r="J96" s="32"/>
-      <c r="K96" s="78"/>
-      <c r="L96" s="76"/>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="80" t="s">
-        <v>299</v>
-      </c>
-      <c r="B97" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="C97" s="80" t="s">
-        <v>301</v>
-      </c>
-      <c r="D97" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="E97" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="F97" s="80" t="s">
-        <v>304</v>
-      </c>
-      <c r="G97" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="H97" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="I97" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="J97" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="K97" s="80" t="s">
-        <v>306</v>
-      </c>
-      <c r="L97" s="76" t="str">
-        <f>"CREATE TABLE "&amp;K92&amp;"("</f>
-        <v>CREATE TABLE LZ_WEI_BUTTON(</v>
+        <v>WAT_CREAT_TIME DATETIME   ,</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="81">
+        <v>7</v>
+      </c>
+      <c r="B98" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="C98" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="D98" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="E98" s="82">
         <v>1</v>
       </c>
-      <c r="B98" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="C98" s="82" t="s">
-        <v>592</v>
-      </c>
-      <c r="D98" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="E98" s="82"/>
-      <c r="F98" s="82" t="s">
-        <v>309</v>
-      </c>
+      <c r="F98" s="82"/>
       <c r="G98" s="83"/>
       <c r="H98" s="82"/>
-      <c r="I98" s="82" t="s">
-        <v>466</v>
-      </c>
-      <c r="J98" s="82" t="s">
+      <c r="I98" s="82"/>
+      <c r="J98" s="82"/>
+      <c r="K98" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="L98" s="76" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>WAT_STATUS  CHAR(1)   ,</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="L99" s="76" t="str">
+        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C92,0,3,1,1)="PK",C92&amp;IF(OFFSET(C92,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C92,1,3,1,1)="PK",OFFSET(C92,1,0,1,1)&amp;IF(OFFSET(C92,1,0,1,1)="",",",""),"")&amp;"));"</f>
+        <v>PRIMARY KEY(WAT_ID));</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="L100" s="76"/>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="137" t="s">
+        <v>291</v>
+      </c>
+      <c r="B101" s="138"/>
+      <c r="C101" s="139" t="s">
+        <v>324</v>
+      </c>
+      <c r="D101" s="140"/>
+      <c r="E101" s="137" t="s">
+        <v>293</v>
+      </c>
+      <c r="F101" s="138"/>
+      <c r="G101" s="75"/>
+      <c r="H101" s="75"/>
+      <c r="I101" s="75"/>
+      <c r="J101" s="75"/>
+      <c r="K101" s="135" t="s">
+        <v>325</v>
+      </c>
+      <c r="L101" s="11" t="str">
+        <f>"-- "&amp;C102</f>
+        <v>-- 错误代码返回表</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="137" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" s="138"/>
+      <c r="C102" s="152" t="s">
+        <v>326</v>
+      </c>
+      <c r="D102" s="140"/>
+      <c r="E102" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="F102" s="138"/>
+      <c r="G102" s="75"/>
+      <c r="H102" s="75"/>
+      <c r="I102" s="75"/>
+      <c r="J102" s="75"/>
+      <c r="K102" s="136"/>
+      <c r="L102" s="11" t="str">
+        <f>"-- "&amp;C103</f>
+        <v xml:space="preserve">-- </v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="137" t="s">
+        <v>298</v>
+      </c>
+      <c r="B103" s="138"/>
+      <c r="C103" s="141"/>
+      <c r="D103" s="142"/>
+      <c r="E103" s="142"/>
+      <c r="F103" s="142"/>
+      <c r="G103" s="142"/>
+      <c r="H103" s="142"/>
+      <c r="I103" s="142"/>
+      <c r="J103" s="142"/>
+      <c r="K103" s="143"/>
+      <c r="L103" s="49"/>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="72"/>
+      <c r="B104" s="73"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="74"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K101&amp;";"</f>
+        <v>DROP TABLE IF EXISTS LZ_WEI_ERRORCODE;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="78"/>
+      <c r="B105" s="78"/>
+      <c r="C105" s="78"/>
+      <c r="D105" s="79"/>
+      <c r="E105" s="78"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="78"/>
+      <c r="H105" s="78"/>
+      <c r="I105" s="78"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="78"/>
+      <c r="L105" s="76"/>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="B106" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="C106" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D106" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="E106" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="F106" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="G106" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="H106" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="I106" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="J106" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="K106" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="L106" s="76" t="str">
+        <f>"CREATE TABLE "&amp;K101&amp;"("</f>
+        <v>CREATE TABLE LZ_WEI_ERRORCODE(</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="81">
+        <v>1</v>
+      </c>
+      <c r="B107" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="82" t="s">
+        <v>327</v>
+      </c>
+      <c r="D107" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="G107" s="83"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="82" t="s">
+        <v>465</v>
+      </c>
+      <c r="J107" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="K98" s="55" t="s">
+      <c r="K107" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="L98" s="76" t="str">
-        <f t="shared" ref="L98:L106" ca="1" si="5">C98&amp;" "&amp;D98&amp;IF(OR(D98="DATETIME",D98="INT",D98="DATE",D98="TEXT"),E98,"("&amp;E98&amp;")")&amp;" "&amp;" "&amp;H98&amp;" "&amp;J98&amp;IF(G98&lt;&gt;""," default "&amp;G98&amp;" ","")&amp;IF(I98&lt;&gt;""," "&amp;I98&amp;" ","")&amp;IF(OFFSET(C98,1,0,1,1)="",",",",")</f>
-        <v>WBT_ID INT   not null AUTO_INCREMENT ,</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="81">
+      <c r="L107" s="76" t="str">
+        <f t="shared" ref="L107:L110" ca="1" si="5">C107&amp;" "&amp;D107&amp;IF(OR(D107="DATETIME",D107="INT",D107="DATE",D107="TEXT"),E107,"("&amp;E107&amp;")")&amp;" "&amp;" "&amp;H107&amp;" "&amp;J107&amp;IF(G107&lt;&gt;""," default "&amp;G107&amp;" ","")&amp;IF(I107&lt;&gt;""," "&amp;I107&amp;" ","")&amp;IF(OFFSET(C107,1,0,1,1)="",",",",")</f>
+        <v>WAE_ID INT   not null AUTO_INCREMENT ,</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="81">
         <v>2</v>
       </c>
-      <c r="B99" s="82" t="s">
-        <v>369</v>
-      </c>
-      <c r="C99" s="85" t="s">
-        <v>593</v>
-      </c>
-      <c r="D99" s="82" t="s">
+      <c r="B108" s="82" t="s">
+        <v>328</v>
+      </c>
+      <c r="C108" s="85" t="s">
+        <v>329</v>
+      </c>
+      <c r="D108" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="E99" s="82">
+      <c r="E108" s="82">
+        <v>20</v>
+      </c>
+      <c r="F108" s="82"/>
+      <c r="G108" s="83"/>
+      <c r="H108" s="82"/>
+      <c r="I108" s="82"/>
+      <c r="J108" s="82"/>
+      <c r="K108" s="55"/>
+      <c r="L108" s="76" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>WAE_CODE VARCHAR(20)   ,</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="81">
+        <v>3</v>
+      </c>
+      <c r="B109" s="82" t="s">
+        <v>330</v>
+      </c>
+      <c r="C109" s="82" t="s">
+        <v>583</v>
+      </c>
+      <c r="D109" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E109" s="82">
+        <v>400</v>
+      </c>
+      <c r="F109" s="82"/>
+      <c r="G109" s="83"/>
+      <c r="H109" s="82"/>
+      <c r="I109" s="82"/>
+      <c r="K109" s="55"/>
+      <c r="L109" s="76" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>WAE_DESC VARCHAR(400)   ,</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="81">
+        <v>4</v>
+      </c>
+      <c r="B110" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="C110" s="82" t="s">
+        <v>332</v>
+      </c>
+      <c r="D110" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="F99" s="82"/>
-      <c r="G99" s="83"/>
-      <c r="H99" s="82"/>
-      <c r="I99" s="82"/>
-      <c r="J99" s="82"/>
-      <c r="K99" s="55"/>
-      <c r="L99" s="76" t="str">
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="83"/>
+      <c r="H110" s="82"/>
+      <c r="I110" s="82"/>
+      <c r="J110" s="82"/>
+      <c r="K110" s="55"/>
+      <c r="L110" s="76" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>WBT_APP_ID VARCHAR(200)   ,</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" s="81">
+        <v>WAE_CREAT_TIME DATETIME   ,</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="L111" s="76" t="str">
+        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C107,0,3,1,1)="PK",C107&amp;IF(OFFSET(C107,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C107,1,3,1,1)="PK",OFFSET(C107,1,0,1,1)&amp;IF(OFFSET(C107,1,0,1,1)="",",",""),"")&amp;"));"</f>
+        <v>PRIMARY KEY(WAE_ID));</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="L112" s="76"/>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="137" t="s">
+        <v>291</v>
+      </c>
+      <c r="B113" s="138"/>
+      <c r="C113" s="139" t="s">
+        <v>333</v>
+      </c>
+      <c r="D113" s="140"/>
+      <c r="E113" s="137" t="s">
+        <v>293</v>
+      </c>
+      <c r="F113" s="138"/>
+      <c r="G113" s="75"/>
+      <c r="H113" s="75"/>
+      <c r="I113" s="75"/>
+      <c r="J113" s="75"/>
+      <c r="K113" s="135" t="s">
+        <v>584</v>
+      </c>
+      <c r="L113" s="11" t="str">
+        <f>"-- "&amp;C114</f>
+        <v>-- 微信自定义菜单表</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="137" t="s">
+        <v>295</v>
+      </c>
+      <c r="B114" s="138"/>
+      <c r="C114" s="152" t="s">
+        <v>360</v>
+      </c>
+      <c r="D114" s="140"/>
+      <c r="E114" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="F114" s="138"/>
+      <c r="G114" s="75"/>
+      <c r="H114" s="75"/>
+      <c r="I114" s="75"/>
+      <c r="J114" s="75"/>
+      <c r="K114" s="136"/>
+      <c r="L114" s="11" t="str">
+        <f>"-- "&amp;C115</f>
+        <v xml:space="preserve">-- </v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="137" t="s">
+        <v>298</v>
+      </c>
+      <c r="B115" s="138"/>
+      <c r="C115" s="141"/>
+      <c r="D115" s="142"/>
+      <c r="E115" s="142"/>
+      <c r="F115" s="142"/>
+      <c r="G115" s="142"/>
+      <c r="H115" s="142"/>
+      <c r="I115" s="142"/>
+      <c r="J115" s="142"/>
+      <c r="K115" s="143"/>
+      <c r="L115" s="49"/>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="72"/>
+      <c r="B116" s="73"/>
+      <c r="C116" s="77"/>
+      <c r="D116" s="77"/>
+      <c r="E116" s="77"/>
+      <c r="F116" s="77"/>
+      <c r="G116" s="77"/>
+      <c r="H116" s="77"/>
+      <c r="I116" s="77"/>
+      <c r="J116" s="74"/>
+      <c r="K116" s="77"/>
+      <c r="L116" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K113&amp;";"</f>
+        <v>DROP TABLE IF EXISTS LZ_WEI_MENU;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="78"/>
+      <c r="B117" s="78"/>
+      <c r="C117" s="78"/>
+      <c r="D117" s="79"/>
+      <c r="E117" s="78"/>
+      <c r="F117" s="78"/>
+      <c r="G117" s="78"/>
+      <c r="H117" s="78"/>
+      <c r="I117" s="78"/>
+      <c r="J117" s="32"/>
+      <c r="K117" s="78"/>
+      <c r="L117" s="76"/>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="B118" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="C118" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D118" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="E118" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="F118" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="G118" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="H118" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="I118" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="J118" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="K118" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="L118" s="76" t="str">
+        <f>"CREATE TABLE "&amp;K113&amp;"("</f>
+        <v>CREATE TABLE LZ_WEI_MENU(</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="81">
+        <v>1</v>
+      </c>
+      <c r="B119" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="C119" s="82" t="s">
+        <v>585</v>
+      </c>
+      <c r="D119" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="E119" s="82"/>
+      <c r="F119" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="G119" s="83"/>
+      <c r="H119" s="82"/>
+      <c r="I119" s="82" t="s">
+        <v>465</v>
+      </c>
+      <c r="J119" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="K119" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="L119" s="76" t="str">
+        <f t="shared" ref="L119:L125" ca="1" si="6">C119&amp;" "&amp;D119&amp;IF(OR(D119="DATETIME",D119="INT",D119="DATE",D119="TEXT"),E119,"("&amp;E119&amp;")")&amp;" "&amp;" "&amp;H119&amp;" "&amp;J119&amp;IF(G119&lt;&gt;""," default "&amp;G119&amp;" ","")&amp;IF(I119&lt;&gt;""," "&amp;I119&amp;" ","")&amp;IF(OFFSET(C119,1,0,1,1)="",",",",")</f>
+        <v>WMU_ID INT   not null AUTO_INCREMENT ,</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="81">
+        <v>2</v>
+      </c>
+      <c r="B120" s="82" t="s">
+        <v>361</v>
+      </c>
+      <c r="C120" s="82" t="s">
+        <v>586</v>
+      </c>
+      <c r="D120" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="83"/>
+      <c r="H120" s="82"/>
+      <c r="I120" s="82"/>
+      <c r="J120" s="82"/>
+      <c r="K120" s="55"/>
+      <c r="L120" s="76" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>WMU_WEC_ID INT   ,</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="81">
         <v>3</v>
       </c>
-      <c r="B100" s="82" t="s">
-        <v>370</v>
-      </c>
-      <c r="C100" s="85" t="s">
-        <v>371</v>
-      </c>
-      <c r="D100" s="82" t="s">
+      <c r="B121" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="C121" s="85" t="s">
+        <v>587</v>
+      </c>
+      <c r="D121" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E121" s="82">
+        <v>200</v>
+      </c>
+      <c r="F121" s="82"/>
+      <c r="G121" s="83"/>
+      <c r="H121" s="82"/>
+      <c r="I121" s="82"/>
+      <c r="J121" s="82"/>
+      <c r="K121" s="55"/>
+      <c r="L121" s="76" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>WMU_APP_ID VARCHAR(200)   ,</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="81">
+        <v>4</v>
+      </c>
+      <c r="B122" s="82" t="s">
+        <v>363</v>
+      </c>
+      <c r="C122" s="85" t="s">
+        <v>588</v>
+      </c>
+      <c r="D122" s="82" t="s">
         <v>364</v>
       </c>
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
-      <c r="G100" s="83"/>
-      <c r="H100" s="82"/>
-      <c r="I100" s="82"/>
-      <c r="K100" s="55"/>
-      <c r="L100" s="76" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>WBT_JSON TEXT   ,</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="81">
-        <v>4</v>
-      </c>
-      <c r="B101" s="82" t="s">
-        <v>372</v>
-      </c>
-      <c r="C101" s="82" t="s">
-        <v>373</v>
-      </c>
-      <c r="D101" s="82" t="s">
+      <c r="E122" s="82"/>
+      <c r="F122" s="82"/>
+      <c r="G122" s="83"/>
+      <c r="H122" s="82"/>
+      <c r="I122" s="82"/>
+      <c r="J122" s="82"/>
+      <c r="K122" s="55"/>
+      <c r="L122" s="76" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>WMU_JSON TEXT   ,</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="81">
+        <v>5</v>
+      </c>
+      <c r="B123" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="C123" s="85" t="s">
+        <v>589</v>
+      </c>
+      <c r="D123" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="E101" s="82">
+      <c r="E123" s="82">
         <v>200</v>
       </c>
-      <c r="F101" s="82"/>
-      <c r="G101" s="83"/>
-      <c r="H101" s="82"/>
-      <c r="I101" s="82"/>
-      <c r="J101" s="82"/>
-      <c r="K101" s="55"/>
-      <c r="L101" s="76" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>WBT_URL  VARCHAR(200)   ,</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102" s="81">
-        <v>5</v>
-      </c>
-      <c r="B102" s="82" t="s">
-        <v>374</v>
-      </c>
-      <c r="C102" s="82" t="s">
-        <v>375</v>
-      </c>
-      <c r="D102" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E102" s="82">
+      <c r="F123" s="82"/>
+      <c r="G123" s="83"/>
+      <c r="H123" s="82"/>
+      <c r="I123" s="82"/>
+      <c r="J123" s="82"/>
+      <c r="K123" s="55"/>
+      <c r="L123" s="76" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>WMU_DESC VARCHAR(200)   ,</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="81">
+        <v>6</v>
+      </c>
+      <c r="B124" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="C124" s="82" t="s">
+        <v>365</v>
+      </c>
+      <c r="D124" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="E124" s="82">
+        <v>1</v>
+      </c>
+      <c r="F124" s="82"/>
+      <c r="G124" s="83"/>
+      <c r="H124" s="82"/>
+      <c r="I124" s="82"/>
+      <c r="J124" s="82"/>
+      <c r="K124" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="L124" s="76" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>WMU_STATUS  CHAR(1)   ,</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="81">
+        <v>7</v>
+      </c>
+      <c r="B125" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="C125" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="D125" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="F102" s="82"/>
-      <c r="G102" s="83"/>
-      <c r="H102" s="82"/>
-      <c r="I102" s="82"/>
-      <c r="J102" s="82"/>
-      <c r="K102" s="55"/>
-      <c r="L102" s="76" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>WBT_KEY VARCHAR(200)   ,</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103" s="81">
-        <v>6</v>
-      </c>
-      <c r="B103" s="82" t="s">
-        <v>376</v>
-      </c>
-      <c r="C103" s="82" t="s">
-        <v>377</v>
-      </c>
-      <c r="D103" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="E103" s="82"/>
-      <c r="F103" s="82"/>
-      <c r="G103" s="83"/>
-      <c r="H103" s="82"/>
-      <c r="I103" s="82"/>
-      <c r="J103" s="82"/>
-      <c r="K103" s="55"/>
-      <c r="L103" s="76" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>WBT_LEVEL INT   ,</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="A104" s="81">
-        <v>7</v>
-      </c>
-      <c r="B104" s="82" t="s">
-        <v>378</v>
-      </c>
-      <c r="C104" s="82" t="s">
-        <v>379</v>
-      </c>
-      <c r="D104" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="83"/>
-      <c r="H104" s="82"/>
-      <c r="I104" s="82"/>
-      <c r="J104" s="82"/>
-      <c r="K104" s="55"/>
-      <c r="L104" s="76" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>WBT_PARENT INT   ,</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="A105" s="81">
-        <v>8</v>
-      </c>
-      <c r="B105" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="C105" s="82" t="s">
-        <v>380</v>
-      </c>
-      <c r="D105" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E105" s="82">
-        <v>20</v>
-      </c>
-      <c r="F105" s="82"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="82"/>
-      <c r="J105" s="82"/>
-      <c r="K105" s="55"/>
-      <c r="L105" s="76" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>WBT_STATUS  VARCHAR(20)   ,</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106" s="81">
-        <v>9</v>
-      </c>
-      <c r="B106" s="82" t="s">
-        <v>331</v>
-      </c>
-      <c r="C106" s="82" t="s">
-        <v>381</v>
-      </c>
-      <c r="D106" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="82"/>
-      <c r="I106" s="82"/>
-      <c r="J106" s="82"/>
-      <c r="K106" s="55"/>
-      <c r="L106" s="76" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>WBT_REGISTOR_DATE DATETIME   ,</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
-      <c r="L107" s="76" t="str">
-        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C98,0,3,1,1)="PK",C98&amp;IF(OFFSET(C98,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C98,1,3,1,1)="PK",OFFSET(C98,1,0,1,1)&amp;IF(OFFSET(C98,1,0,1,1)="",",",""),"")&amp;"));"</f>
-        <v>PRIMARY KEY(WBT_ID));</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
-      <c r="L108" s="76"/>
-    </row>
-    <row r="109" spans="1:12">
-      <c r="A109" s="137" t="s">
+      <c r="E125" s="82"/>
+      <c r="F125" s="82"/>
+      <c r="G125" s="83"/>
+      <c r="H125" s="82"/>
+      <c r="I125" s="82"/>
+      <c r="J125" s="82"/>
+      <c r="K125" s="55"/>
+      <c r="L125" s="76" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>WMU_REGISTOR_DATE DATETIME   ,</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="L126" s="76" t="str">
+        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C119,0,3,1,1)="PK",C119&amp;IF(OFFSET(C119,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C119,1,3,1,1)="PK",OFFSET(C119,1,0,1,1)&amp;IF(OFFSET(C119,1,0,1,1)="",",",""),"")&amp;"));"</f>
+        <v>PRIMARY KEY(WMU_ID));</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="L127" s="76"/>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="137" t="s">
         <v>291</v>
       </c>
-      <c r="B109" s="138"/>
-      <c r="C109" s="139" t="s">
+      <c r="B128" s="138"/>
+      <c r="C128" s="139" t="s">
         <v>367</v>
       </c>
-      <c r="D109" s="140"/>
-      <c r="E109" s="137" t="s">
+      <c r="D128" s="140"/>
+      <c r="E128" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="F109" s="138"/>
-      <c r="G109" s="75"/>
-      <c r="H109" s="75"/>
-      <c r="I109" s="75"/>
-      <c r="J109" s="75"/>
-      <c r="K109" s="135" t="s">
-        <v>594</v>
-      </c>
-      <c r="L109" s="11" t="str">
-        <f>"-- "&amp;C110</f>
-        <v>-- 微信按钮-菜单关系</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
-      <c r="A110" s="137" t="s">
+      <c r="F128" s="138"/>
+      <c r="G128" s="75"/>
+      <c r="H128" s="75"/>
+      <c r="I128" s="75"/>
+      <c r="J128" s="75"/>
+      <c r="K128" s="135" t="s">
+        <v>590</v>
+      </c>
+      <c r="L128" s="11" t="str">
+        <f>"-- "&amp;C129</f>
+        <v>-- 微信按钮</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="B110" s="138"/>
-      <c r="C110" s="152" t="s">
-        <v>382</v>
-      </c>
-      <c r="D110" s="140"/>
-      <c r="E110" s="137" t="s">
+      <c r="B129" s="138"/>
+      <c r="C129" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="D129" s="140"/>
+      <c r="E129" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="F110" s="138"/>
-      <c r="G110" s="75"/>
-      <c r="H110" s="75"/>
-      <c r="I110" s="75"/>
-      <c r="J110" s="75"/>
-      <c r="K110" s="136"/>
-      <c r="L110" s="11" t="str">
-        <f>"-- "&amp;C111</f>
+      <c r="F129" s="138"/>
+      <c r="G129" s="75"/>
+      <c r="H129" s="75"/>
+      <c r="I129" s="75"/>
+      <c r="J129" s="75"/>
+      <c r="K129" s="136"/>
+      <c r="L129" s="11" t="str">
+        <f>"-- "&amp;C130</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
-    <row r="111" spans="1:12">
-      <c r="A111" s="137" t="s">
+    <row r="130" spans="1:12">
+      <c r="A130" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B111" s="138"/>
-      <c r="C111" s="141"/>
-      <c r="D111" s="142"/>
-      <c r="E111" s="142"/>
-      <c r="F111" s="142"/>
-      <c r="G111" s="142"/>
-      <c r="H111" s="142"/>
-      <c r="I111" s="142"/>
-      <c r="J111" s="142"/>
-      <c r="K111" s="143"/>
-      <c r="L111" s="49"/>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="A112" s="72"/>
-      <c r="B112" s="73"/>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
-      <c r="I112" s="77"/>
-      <c r="J112" s="74"/>
-      <c r="K112" s="77"/>
-      <c r="L112" s="49" t="str">
-        <f>"DROP TABLE IF EXISTS "&amp;K109&amp;";"</f>
-        <v>DROP TABLE IF EXISTS LZ_WEI_MENU_BUTTON;</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113" s="78"/>
-      <c r="B113" s="78"/>
-      <c r="C113" s="78"/>
-      <c r="D113" s="79"/>
-      <c r="E113" s="78"/>
-      <c r="F113" s="78"/>
-      <c r="G113" s="78"/>
-      <c r="H113" s="78"/>
-      <c r="I113" s="78"/>
-      <c r="J113" s="32"/>
-      <c r="K113" s="78"/>
-      <c r="L113" s="76"/>
-    </row>
-    <row r="114" spans="1:12">
-      <c r="A114" s="80" t="s">
+      <c r="B130" s="138"/>
+      <c r="C130" s="141"/>
+      <c r="D130" s="142"/>
+      <c r="E130" s="142"/>
+      <c r="F130" s="142"/>
+      <c r="G130" s="142"/>
+      <c r="H130" s="142"/>
+      <c r="I130" s="142"/>
+      <c r="J130" s="142"/>
+      <c r="K130" s="143"/>
+      <c r="L130" s="49"/>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="72"/>
+      <c r="B131" s="73"/>
+      <c r="C131" s="77"/>
+      <c r="D131" s="77"/>
+      <c r="E131" s="77"/>
+      <c r="F131" s="77"/>
+      <c r="G131" s="77"/>
+      <c r="H131" s="77"/>
+      <c r="I131" s="77"/>
+      <c r="J131" s="74"/>
+      <c r="K131" s="77"/>
+      <c r="L131" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K128&amp;";"</f>
+        <v>DROP TABLE IF EXISTS LZ_WEI_BUTTON;</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="78"/>
+      <c r="B132" s="78"/>
+      <c r="C132" s="78"/>
+      <c r="D132" s="79"/>
+      <c r="E132" s="78"/>
+      <c r="F132" s="78"/>
+      <c r="G132" s="78"/>
+      <c r="H132" s="78"/>
+      <c r="I132" s="78"/>
+      <c r="J132" s="32"/>
+      <c r="K132" s="78"/>
+      <c r="L132" s="76"/>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="80" t="s">
         <v>299</v>
       </c>
-      <c r="B114" s="80" t="s">
+      <c r="B133" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="C114" s="80" t="s">
+      <c r="C133" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="D114" s="80" t="s">
+      <c r="D133" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="E114" s="80" t="s">
+      <c r="E133" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="F114" s="80" t="s">
+      <c r="F133" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="G114" s="80" t="s">
+      <c r="G133" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="H114" s="80" t="s">
+      <c r="H133" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="I114" s="80" t="s">
+      <c r="I133" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="J114" s="33" t="s">
+      <c r="J133" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="K114" s="80" t="s">
+      <c r="K133" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="L114" s="76" t="str">
-        <f>"CREATE TABLE "&amp;K109&amp;"("</f>
-        <v>CREATE TABLE LZ_WEI_MENU_BUTTON(</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" s="81">
-        <v>1</v>
-      </c>
-      <c r="B115" s="82" t="s">
-        <v>383</v>
-      </c>
-      <c r="C115" s="82" t="s">
-        <v>595</v>
-      </c>
-      <c r="D115" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="E115" s="82"/>
-      <c r="F115" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="G115" s="83"/>
-      <c r="H115" s="82"/>
-      <c r="I115" s="82"/>
-      <c r="J115" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="K115" s="55" t="s">
-        <v>310</v>
-      </c>
-      <c r="L115" s="76" t="str">
-        <f t="shared" ref="L115:L118" ca="1" si="6">C115&amp;" "&amp;D115&amp;IF(OR(D115="DATETIME",D115="INT",D115="DATE",D115="TEXT"),E115,"("&amp;E115&amp;")")&amp;" "&amp;" "&amp;H115&amp;" "&amp;J115&amp;IF(G115&lt;&gt;""," default "&amp;G115&amp;" ","")&amp;IF(I115&lt;&gt;""," "&amp;I115&amp;" ","")&amp;IF(OFFSET(C115,1,0,1,1)="",",",",")</f>
-        <v>WMB_BUTTON_ID INT   not null,</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="A116" s="81">
-        <v>2</v>
-      </c>
-      <c r="B116" s="82" t="s">
-        <v>384</v>
-      </c>
-      <c r="C116" s="85" t="s">
-        <v>596</v>
-      </c>
-      <c r="D116" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="E116" s="82"/>
-      <c r="F116" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="G116" s="83"/>
-      <c r="H116" s="82"/>
-      <c r="I116" s="82"/>
-      <c r="J116" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="K116" s="55" t="s">
-        <v>310</v>
-      </c>
-      <c r="L116" s="76" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>WMB_MENU_ID INT   not null,</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="A117" s="81">
-        <v>8</v>
-      </c>
-      <c r="B117" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="C117" s="82" t="s">
-        <v>385</v>
-      </c>
-      <c r="D117" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E117" s="82">
-        <v>20</v>
-      </c>
-      <c r="F117" s="82"/>
-      <c r="G117" s="83"/>
-      <c r="H117" s="82"/>
-      <c r="I117" s="82"/>
-      <c r="J117" s="82"/>
-      <c r="K117" s="55"/>
-      <c r="L117" s="76" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>WMB_STATUS  VARCHAR(20)   ,</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118" s="81">
-        <v>9</v>
-      </c>
-      <c r="B118" s="82" t="s">
-        <v>331</v>
-      </c>
-      <c r="C118" s="82" t="s">
-        <v>386</v>
-      </c>
-      <c r="D118" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="E118" s="82"/>
-      <c r="F118" s="82"/>
-      <c r="G118" s="83"/>
-      <c r="H118" s="82"/>
-      <c r="I118" s="82"/>
-      <c r="J118" s="82"/>
-      <c r="K118" s="55"/>
-      <c r="L118" s="76" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>WMB_REGISTOR_DATE DATETIME   ,</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
-      <c r="L119" s="76" t="str">
-        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C115,0,3,1,1)="PK",C115&amp;IF(OFFSET(C115,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C115,1,3,1,1)="PK",OFFSET(C115,1,0,1,1)&amp;IF(OFFSET(C115,1,0,1,1)="",",",""),"")&amp;"));"</f>
-        <v>PRIMARY KEY(WMB_BUTTON_ID,WMB_MENU_ID));</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="L120" s="76"/>
-    </row>
-    <row r="121" spans="1:12">
-      <c r="A121" s="137" t="s">
-        <v>291</v>
-      </c>
-      <c r="B121" s="138"/>
-      <c r="C121" s="139" t="s">
-        <v>387</v>
-      </c>
-      <c r="D121" s="140"/>
-      <c r="E121" s="137" t="s">
-        <v>293</v>
-      </c>
-      <c r="F121" s="138"/>
-      <c r="G121" s="75"/>
-      <c r="H121" s="75"/>
-      <c r="I121" s="75"/>
-      <c r="J121" s="75"/>
-      <c r="K121" s="135" t="s">
-        <v>597</v>
-      </c>
-      <c r="L121" s="11" t="str">
-        <f>"-- "&amp;C122</f>
-        <v>-- 微信-客户的客户关系表</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="A122" s="137" t="s">
-        <v>295</v>
-      </c>
-      <c r="B122" s="138"/>
-      <c r="C122" s="152" t="s">
-        <v>404</v>
-      </c>
-      <c r="D122" s="140"/>
-      <c r="E122" s="137" t="s">
-        <v>297</v>
-      </c>
-      <c r="F122" s="138"/>
-      <c r="G122" s="75"/>
-      <c r="H122" s="75"/>
-      <c r="I122" s="75"/>
-      <c r="J122" s="75"/>
-      <c r="K122" s="136"/>
-      <c r="L122" s="11" t="str">
-        <f>"-- "&amp;C123</f>
-        <v xml:space="preserve">-- </v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
-      <c r="A123" s="137" t="s">
-        <v>298</v>
-      </c>
-      <c r="B123" s="138"/>
-      <c r="C123" s="141"/>
-      <c r="D123" s="142"/>
-      <c r="E123" s="142"/>
-      <c r="F123" s="142"/>
-      <c r="G123" s="142"/>
-      <c r="H123" s="142"/>
-      <c r="I123" s="142"/>
-      <c r="J123" s="142"/>
-      <c r="K123" s="143"/>
-      <c r="L123" s="49"/>
-    </row>
-    <row r="124" spans="1:12">
-      <c r="A124" s="72"/>
-      <c r="B124" s="73"/>
-      <c r="C124" s="77"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="77"/>
-      <c r="F124" s="77"/>
-      <c r="G124" s="77"/>
-      <c r="H124" s="77"/>
-      <c r="I124" s="77"/>
-      <c r="J124" s="74"/>
-      <c r="K124" s="77"/>
-      <c r="L124" s="49" t="str">
-        <f>"DROP TABLE IF EXISTS "&amp;K121&amp;";"</f>
-        <v>DROP TABLE IF EXISTS LZ_WEI_ENTER_CUST;</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="A125" s="78"/>
-      <c r="B125" s="78"/>
-      <c r="C125" s="78"/>
-      <c r="D125" s="79"/>
-      <c r="E125" s="78"/>
-      <c r="F125" s="78"/>
-      <c r="G125" s="78"/>
-      <c r="H125" s="78"/>
-      <c r="I125" s="78"/>
-      <c r="J125" s="32"/>
-      <c r="K125" s="78"/>
-      <c r="L125" s="76"/>
-    </row>
-    <row r="126" spans="1:12">
-      <c r="A126" s="80" t="s">
-        <v>299</v>
-      </c>
-      <c r="B126" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="C126" s="80" t="s">
-        <v>301</v>
-      </c>
-      <c r="D126" s="80" t="s">
-        <v>302</v>
-      </c>
-      <c r="E126" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="F126" s="80" t="s">
-        <v>304</v>
-      </c>
-      <c r="G126" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="H126" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="I126" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="J126" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="K126" s="80" t="s">
-        <v>306</v>
-      </c>
-      <c r="L126" s="76" t="str">
-        <f>"CREATE TABLE "&amp;K121&amp;"("</f>
-        <v>CREATE TABLE LZ_WEI_ENTER_CUST(</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
-      <c r="A127" s="81">
-        <v>1</v>
-      </c>
-      <c r="B127" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="C127" s="82" t="s">
-        <v>598</v>
-      </c>
-      <c r="D127" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="E127" s="82"/>
-      <c r="F127" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="G127" s="83"/>
-      <c r="H127" s="82"/>
-      <c r="I127" s="82" t="s">
-        <v>466</v>
-      </c>
-      <c r="J127" s="82"/>
-      <c r="K127" s="55" t="s">
-        <v>310</v>
-      </c>
-      <c r="L127" s="76" t="str">
-        <f t="shared" ref="L127:L138" ca="1" si="7">C127&amp;" "&amp;D127&amp;IF(OR(D127="DATETIME",D127="INT",D127="DATE",D127="TEXT"),E127,"("&amp;E127&amp;")")&amp;" "&amp;" "&amp;H127&amp;" "&amp;J127&amp;IF(G127&lt;&gt;""," default "&amp;G127&amp;" ","")&amp;IF(I127&lt;&gt;""," "&amp;I127&amp;" ","")&amp;IF(OFFSET(C127,1,0,1,1)="",",",",")</f>
-        <v>WET_ID INT    AUTO_INCREMENT ,</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
-      <c r="A128" s="81">
-        <v>2</v>
-      </c>
-      <c r="B128" s="82" t="s">
-        <v>336</v>
-      </c>
-      <c r="C128" s="82" t="s">
-        <v>599</v>
-      </c>
-      <c r="D128" s="82" t="s">
-        <v>401</v>
-      </c>
-      <c r="E128" s="82">
-        <v>200</v>
-      </c>
-      <c r="F128" s="82"/>
-      <c r="G128" s="83"/>
-      <c r="H128" s="82"/>
-      <c r="I128" s="82"/>
-      <c r="J128" s="82"/>
-      <c r="K128" s="55"/>
-      <c r="L128" s="76" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>WET_OPEN_ID VARCHAR(200)   ,</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
-      <c r="A129" s="81">
-        <v>3</v>
-      </c>
-      <c r="B129" s="82" t="s">
-        <v>406</v>
-      </c>
-      <c r="C129" s="82" t="s">
-        <v>600</v>
-      </c>
-      <c r="D129" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E129" s="82">
-        <v>200</v>
-      </c>
-      <c r="F129" s="82"/>
-      <c r="G129" s="83"/>
-      <c r="H129" s="82"/>
-      <c r="I129" s="82"/>
-      <c r="J129" s="82"/>
-      <c r="K129" s="55"/>
-      <c r="L129" s="76" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>WET_CUSTENTER_NAME VARCHAR(200)   ,</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" s="81">
-        <v>4</v>
-      </c>
-      <c r="B130" s="82" t="s">
-        <v>407</v>
-      </c>
-      <c r="C130" s="82" t="s">
-        <v>601</v>
-      </c>
-      <c r="D130" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E130" s="82">
-        <v>20</v>
-      </c>
-      <c r="F130" s="82"/>
-      <c r="G130" s="83"/>
-      <c r="H130" s="82"/>
-      <c r="I130" s="82"/>
-      <c r="J130" s="82"/>
-      <c r="K130" s="55"/>
-      <c r="L130" s="76" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>WET_MOBILE VARCHAR(20)   ,</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
-      <c r="A131" s="81">
-        <v>5</v>
-      </c>
-      <c r="B131" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="C131" s="82" t="s">
-        <v>408</v>
-      </c>
-      <c r="D131" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E131" s="82">
-        <v>40</v>
-      </c>
-      <c r="F131" s="82"/>
-      <c r="G131" s="83"/>
-      <c r="H131" s="82"/>
-      <c r="I131" s="82"/>
-      <c r="J131" s="82"/>
-      <c r="K131" s="55"/>
-      <c r="L131" s="76" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>WET_NAME VARCHAR(40)   ,</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A132" s="81">
-        <v>6</v>
-      </c>
-      <c r="B132" s="82" t="s">
-        <v>370</v>
-      </c>
-      <c r="C132" s="82" t="s">
-        <v>409</v>
-      </c>
-      <c r="D132" s="82" t="s">
-        <v>401</v>
-      </c>
-      <c r="E132" s="82">
-        <v>1</v>
-      </c>
-      <c r="F132" s="82"/>
-      <c r="G132" s="83"/>
-      <c r="H132" s="82"/>
-      <c r="I132" s="82"/>
-      <c r="J132" s="82"/>
-      <c r="K132" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="L132" s="76" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>WET_TYPE VARCHAR(1)   ,</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
-      <c r="A133" s="81">
-        <v>7</v>
-      </c>
-      <c r="B133" s="82" t="s">
-        <v>411</v>
-      </c>
-      <c r="C133" s="82" t="s">
-        <v>602</v>
-      </c>
-      <c r="D133" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="E133" s="82"/>
-      <c r="F133" s="82"/>
-      <c r="G133" s="83"/>
-      <c r="H133" s="82"/>
-      <c r="I133" s="82"/>
-      <c r="J133" s="82"/>
-      <c r="K133" s="55"/>
       <c r="L133" s="76" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>WET_CUE_ID INT   ,</v>
+        <f>"CREATE TABLE "&amp;K128&amp;"("</f>
+        <v>CREATE TABLE LZ_WEI_BUTTON(</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="81">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B134" s="82" t="s">
-        <v>412</v>
+        <v>204</v>
       </c>
       <c r="C134" s="82" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="D134" s="82" t="s">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="E134" s="82"/>
-      <c r="F134" s="82"/>
+      <c r="F134" s="82" t="s">
+        <v>309</v>
+      </c>
       <c r="G134" s="83"/>
       <c r="H134" s="82"/>
-      <c r="I134" s="82"/>
-      <c r="J134" s="82"/>
-      <c r="K134" s="55"/>
+      <c r="I134" s="82" t="s">
+        <v>465</v>
+      </c>
+      <c r="J134" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="K134" s="55" t="s">
+        <v>310</v>
+      </c>
       <c r="L134" s="76" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>WET_CUU_ID INT   ,</v>
+        <f t="shared" ref="L134:L142" ca="1" si="7">C134&amp;" "&amp;D134&amp;IF(OR(D134="DATETIME",D134="INT",D134="DATE",D134="TEXT"),E134,"("&amp;E134&amp;")")&amp;" "&amp;" "&amp;H134&amp;" "&amp;J134&amp;IF(G134&lt;&gt;""," default "&amp;G134&amp;" ","")&amp;IF(I134&lt;&gt;""," "&amp;I134&amp;" ","")&amp;IF(OFFSET(C134,1,0,1,1)="",",",",")</f>
+        <v>WBT_ID INT   not null AUTO_INCREMENT ,</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="81">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B135" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="C135" s="82" t="s">
-        <v>413</v>
+        <v>369</v>
+      </c>
+      <c r="C135" s="85" t="s">
+        <v>592</v>
       </c>
       <c r="D135" s="82" t="s">
         <v>202</v>
       </c>
       <c r="E135" s="82">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F135" s="82"/>
       <c r="G135" s="83"/>
@@ -16409,50 +16426,49 @@
       <c r="K135" s="55"/>
       <c r="L135" s="76" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>WET_STATUS VARCHAR(20)   ,</v>
+        <v>WBT_APP_ID VARCHAR(200)   ,</v>
       </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="81">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B136" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="C136" s="82" t="s">
-        <v>414</v>
+        <v>370</v>
+      </c>
+      <c r="C136" s="85" t="s">
+        <v>371</v>
       </c>
       <c r="D136" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E136" s="82">
-        <v>200</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="E136" s="82"/>
       <c r="F136" s="82"/>
       <c r="G136" s="83"/>
       <c r="H136" s="82"/>
       <c r="I136" s="82"/>
-      <c r="J136" s="82"/>
       <c r="K136" s="55"/>
       <c r="L136" s="76" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>WET_DESC VARCHAR(200)   ,</v>
+        <v>WBT_JSON TEXT   ,</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="81">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B137" s="82" t="s">
-        <v>235</v>
+        <v>372</v>
       </c>
       <c r="C137" s="82" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="D137" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="E137" s="82"/>
+        <v>202</v>
+      </c>
+      <c r="E137" s="82">
+        <v>200</v>
+      </c>
       <c r="F137" s="82"/>
       <c r="G137" s="83"/>
       <c r="H137" s="82"/>
@@ -16461,23 +16477,25 @@
       <c r="K137" s="55"/>
       <c r="L137" s="76" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>WET_REGISTOR INT   ,</v>
+        <v>WBT_URL  VARCHAR(200)   ,</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="81">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B138" s="82" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="C138" s="82" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="D138" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E138" s="82">
         <v>200</v>
       </c>
-      <c r="E138" s="82"/>
       <c r="F138" s="82"/>
       <c r="G138" s="83"/>
       <c r="H138" s="82"/>
@@ -16486,332 +16504,332 @@
       <c r="K138" s="55"/>
       <c r="L138" s="76" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>WET_REGISTDATE DATETIME   ,</v>
+        <v>WBT_KEY VARCHAR(200)   ,</v>
       </c>
     </row>
     <row r="139" spans="1:12">
+      <c r="A139" s="81">
+        <v>6</v>
+      </c>
+      <c r="B139" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="C139" s="82" t="s">
+        <v>377</v>
+      </c>
+      <c r="D139" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="E139" s="82"/>
+      <c r="F139" s="82"/>
+      <c r="G139" s="83"/>
+      <c r="H139" s="82"/>
+      <c r="I139" s="82"/>
+      <c r="J139" s="82"/>
+      <c r="K139" s="55"/>
       <c r="L139" s="76" t="str">
-        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C127,0,3,1,1)="PK",C127&amp;IF(OFFSET(C127,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C127,1,3,1,1)="PK",OFFSET(C127,1,0,1,1)&amp;IF(OFFSET(C127,1,0,1,1)="",",",""),"")&amp;"));"</f>
-        <v>PRIMARY KEY(WET_ID));</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>WBT_LEVEL INT   ,</v>
       </c>
     </row>
     <row r="140" spans="1:12">
-      <c r="L140" s="76"/>
+      <c r="A140" s="81">
+        <v>7</v>
+      </c>
+      <c r="B140" s="82" t="s">
+        <v>378</v>
+      </c>
+      <c r="C140" s="82" t="s">
+        <v>379</v>
+      </c>
+      <c r="D140" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="E140" s="82"/>
+      <c r="F140" s="82"/>
+      <c r="G140" s="83"/>
+      <c r="H140" s="82"/>
+      <c r="I140" s="82"/>
+      <c r="J140" s="82"/>
+      <c r="K140" s="55"/>
+      <c r="L140" s="76" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>WBT_PARENT INT   ,</v>
+      </c>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="137" t="s">
+      <c r="A141" s="81">
+        <v>8</v>
+      </c>
+      <c r="B141" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="C141" s="82" t="s">
+        <v>380</v>
+      </c>
+      <c r="D141" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E141" s="82">
+        <v>20</v>
+      </c>
+      <c r="F141" s="82"/>
+      <c r="G141" s="83"/>
+      <c r="H141" s="82"/>
+      <c r="I141" s="82"/>
+      <c r="J141" s="82"/>
+      <c r="K141" s="55"/>
+      <c r="L141" s="76" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>WBT_STATUS  VARCHAR(20)   ,</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="81">
+        <v>9</v>
+      </c>
+      <c r="B142" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="C142" s="82" t="s">
+        <v>381</v>
+      </c>
+      <c r="D142" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="E142" s="82"/>
+      <c r="F142" s="82"/>
+      <c r="G142" s="83"/>
+      <c r="H142" s="82"/>
+      <c r="I142" s="82"/>
+      <c r="J142" s="82"/>
+      <c r="K142" s="55"/>
+      <c r="L142" s="76" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>WBT_REGISTOR_DATE DATETIME   ,</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="L143" s="76" t="str">
+        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C134,0,3,1,1)="PK",C134&amp;IF(OFFSET(C134,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C134,1,3,1,1)="PK",OFFSET(C134,1,0,1,1)&amp;IF(OFFSET(C134,1,0,1,1)="",",",""),"")&amp;"));"</f>
+        <v>PRIMARY KEY(WBT_ID));</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="L144" s="76"/>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="137" t="s">
         <v>291</v>
       </c>
-      <c r="B141" s="138"/>
-      <c r="C141" s="139" t="s">
-        <v>387</v>
-      </c>
-      <c r="D141" s="140"/>
-      <c r="E141" s="137" t="s">
+      <c r="B145" s="138"/>
+      <c r="C145" s="139" t="s">
+        <v>367</v>
+      </c>
+      <c r="D145" s="140"/>
+      <c r="E145" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="F141" s="138"/>
-      <c r="G141" s="75"/>
-      <c r="H141" s="75"/>
-      <c r="I141" s="75"/>
-      <c r="J141" s="75"/>
-      <c r="K141" s="135" t="s">
-        <v>417</v>
-      </c>
-      <c r="L141" s="11" t="str">
-        <f>"-- "&amp;C142</f>
-        <v>-- 微信-订单表</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
-      <c r="A142" s="137" t="s">
+      <c r="F145" s="138"/>
+      <c r="G145" s="75"/>
+      <c r="H145" s="75"/>
+      <c r="I145" s="75"/>
+      <c r="J145" s="75"/>
+      <c r="K145" s="135" t="s">
+        <v>593</v>
+      </c>
+      <c r="L145" s="11" t="str">
+        <f>"-- "&amp;C146</f>
+        <v>-- 微信按钮-菜单关系</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="B142" s="138"/>
-      <c r="C142" s="152" t="s">
-        <v>418</v>
-      </c>
-      <c r="D142" s="140"/>
-      <c r="E142" s="137" t="s">
+      <c r="B146" s="138"/>
+      <c r="C146" s="152" t="s">
+        <v>382</v>
+      </c>
+      <c r="D146" s="140"/>
+      <c r="E146" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="F142" s="138"/>
-      <c r="G142" s="75"/>
-      <c r="H142" s="75"/>
-      <c r="I142" s="75"/>
-      <c r="J142" s="75"/>
-      <c r="K142" s="136"/>
-      <c r="L142" s="11" t="str">
-        <f>"-- "&amp;C143</f>
+      <c r="F146" s="138"/>
+      <c r="G146" s="75"/>
+      <c r="H146" s="75"/>
+      <c r="I146" s="75"/>
+      <c r="J146" s="75"/>
+      <c r="K146" s="136"/>
+      <c r="L146" s="11" t="str">
+        <f>"-- "&amp;C147</f>
         <v xml:space="preserve">-- </v>
       </c>
     </row>
-    <row r="143" spans="1:12">
-      <c r="A143" s="137" t="s">
+    <row r="147" spans="1:12">
+      <c r="A147" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B143" s="138"/>
-      <c r="C143" s="141"/>
-      <c r="D143" s="142"/>
-      <c r="E143" s="142"/>
-      <c r="F143" s="142"/>
-      <c r="G143" s="142"/>
-      <c r="H143" s="142"/>
-      <c r="I143" s="142"/>
-      <c r="J143" s="142"/>
-      <c r="K143" s="143"/>
-      <c r="L143" s="49"/>
-    </row>
-    <row r="144" spans="1:12">
-      <c r="A144" s="72"/>
-      <c r="B144" s="73"/>
-      <c r="C144" s="77"/>
-      <c r="D144" s="77"/>
-      <c r="E144" s="77"/>
-      <c r="F144" s="77"/>
-      <c r="G144" s="77"/>
-      <c r="H144" s="77"/>
-      <c r="I144" s="77"/>
-      <c r="J144" s="74"/>
-      <c r="K144" s="77"/>
-      <c r="L144" s="49" t="str">
-        <f>"DROP TABLE IF EXISTS "&amp;K141&amp;";"</f>
-        <v>DROP TABLE IF EXISTS LZ_WEI_ENTER_ORDER;</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="A145" s="78"/>
-      <c r="B145" s="78"/>
-      <c r="C145" s="78"/>
-      <c r="D145" s="79"/>
-      <c r="E145" s="78"/>
-      <c r="F145" s="78"/>
-      <c r="G145" s="78"/>
-      <c r="H145" s="78"/>
-      <c r="I145" s="78"/>
-      <c r="J145" s="32"/>
-      <c r="K145" s="78"/>
-      <c r="L145" s="76"/>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" s="80" t="s">
+      <c r="B147" s="138"/>
+      <c r="C147" s="141"/>
+      <c r="D147" s="142"/>
+      <c r="E147" s="142"/>
+      <c r="F147" s="142"/>
+      <c r="G147" s="142"/>
+      <c r="H147" s="142"/>
+      <c r="I147" s="142"/>
+      <c r="J147" s="142"/>
+      <c r="K147" s="143"/>
+      <c r="L147" s="49"/>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="72"/>
+      <c r="B148" s="73"/>
+      <c r="C148" s="77"/>
+      <c r="D148" s="77"/>
+      <c r="E148" s="77"/>
+      <c r="F148" s="77"/>
+      <c r="G148" s="77"/>
+      <c r="H148" s="77"/>
+      <c r="I148" s="77"/>
+      <c r="J148" s="74"/>
+      <c r="K148" s="77"/>
+      <c r="L148" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K145&amp;";"</f>
+        <v>DROP TABLE IF EXISTS LZ_WEI_MENU_BUTTON;</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="78"/>
+      <c r="B149" s="78"/>
+      <c r="C149" s="78"/>
+      <c r="D149" s="79"/>
+      <c r="E149" s="78"/>
+      <c r="F149" s="78"/>
+      <c r="G149" s="78"/>
+      <c r="H149" s="78"/>
+      <c r="I149" s="78"/>
+      <c r="J149" s="32"/>
+      <c r="K149" s="78"/>
+      <c r="L149" s="76"/>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="80" t="s">
         <v>299</v>
       </c>
-      <c r="B146" s="80" t="s">
+      <c r="B150" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="C146" s="80" t="s">
+      <c r="C150" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="D146" s="80" t="s">
+      <c r="D150" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="E146" s="80" t="s">
+      <c r="E150" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="F146" s="80" t="s">
+      <c r="F150" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="G146" s="80" t="s">
+      <c r="G150" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="H146" s="80" t="s">
+      <c r="H150" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="I146" s="80" t="s">
+      <c r="I150" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="J146" s="33" t="s">
+      <c r="J150" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="K146" s="80" t="s">
+      <c r="K150" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="L146" s="76" t="str">
-        <f>"CREATE TABLE "&amp;K141&amp;"("</f>
-        <v>CREATE TABLE LZ_WEI_ENTER_ORDER(</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" s="81">
-        <v>1</v>
-      </c>
-      <c r="B147" s="82" t="s">
-        <v>419</v>
-      </c>
-      <c r="C147" s="82" t="s">
-        <v>420</v>
-      </c>
-      <c r="D147" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="E147" s="82"/>
-      <c r="F147" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="G147" s="83"/>
-      <c r="H147" s="82"/>
-      <c r="I147" s="82" t="s">
-        <v>466</v>
-      </c>
-      <c r="J147" s="82"/>
-      <c r="K147" s="55" t="s">
-        <v>310</v>
-      </c>
-      <c r="L147" s="76" t="str">
-        <f t="shared" ref="L147:L153" ca="1" si="8">C147&amp;" "&amp;D147&amp;IF(OR(D147="DATETIME",D147="INT",D147="DATE",D147="TEXT"),E147,"("&amp;E147&amp;")")&amp;" "&amp;" "&amp;H147&amp;" "&amp;J147&amp;IF(G147&lt;&gt;""," default "&amp;G147&amp;" ","")&amp;IF(I147&lt;&gt;""," "&amp;I147&amp;" ","")&amp;IF(OFFSET(C147,1,0,1,1)="",",",",")</f>
-        <v>WEO_ID INT    AUTO_INCREMENT ,</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" s="81">
-        <v>2</v>
-      </c>
-      <c r="B148" s="82" t="s">
-        <v>421</v>
-      </c>
-      <c r="C148" s="82" t="s">
-        <v>422</v>
-      </c>
-      <c r="D148" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="E148" s="82"/>
-      <c r="F148" s="82"/>
-      <c r="G148" s="83"/>
-      <c r="H148" s="82"/>
-      <c r="I148" s="82"/>
-      <c r="J148" s="82"/>
-      <c r="K148" s="55" t="s">
-        <v>423</v>
-      </c>
-      <c r="L148" s="76" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>WEO_GQ_ID INT   ,</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" s="81">
-        <v>3</v>
-      </c>
-      <c r="B149" s="82" t="s">
-        <v>405</v>
-      </c>
-      <c r="C149" s="82" t="s">
-        <v>424</v>
-      </c>
-      <c r="D149" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="E149" s="82"/>
-      <c r="F149" s="82"/>
-      <c r="G149" s="83"/>
-      <c r="H149" s="82"/>
-      <c r="I149" s="82"/>
-      <c r="J149" s="82"/>
-      <c r="K149" s="55" t="s">
-        <v>425</v>
-      </c>
-      <c r="L149" s="76" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>WEO_WET_ID INT   ,</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" s="81">
-        <v>4</v>
-      </c>
-      <c r="B150" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="C150" s="82" t="s">
-        <v>426</v>
-      </c>
-      <c r="D150" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E150" s="82">
-        <v>20</v>
-      </c>
-      <c r="F150" s="82"/>
-      <c r="G150" s="83"/>
-      <c r="H150" s="82"/>
-      <c r="I150" s="82"/>
-      <c r="J150" s="82"/>
-      <c r="K150" s="55" t="s">
-        <v>427</v>
-      </c>
       <c r="L150" s="76" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>WEO_STATUS VARCHAR(20)   ,</v>
+        <f>"CREATE TABLE "&amp;K145&amp;"("</f>
+        <v>CREATE TABLE LZ_WEI_MENU_BUTTON(</v>
       </c>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B151" s="82" t="s">
-        <v>197</v>
+        <v>383</v>
       </c>
       <c r="C151" s="82" t="s">
-        <v>428</v>
+        <v>594</v>
       </c>
       <c r="D151" s="82" t="s">
-        <v>401</v>
-      </c>
-      <c r="E151" s="82">
-        <v>200</v>
-      </c>
-      <c r="F151" s="82"/>
+        <v>308</v>
+      </c>
+      <c r="E151" s="82"/>
+      <c r="F151" s="82" t="s">
+        <v>309</v>
+      </c>
       <c r="G151" s="83"/>
       <c r="H151" s="82"/>
       <c r="I151" s="82"/>
-      <c r="J151" s="82"/>
-      <c r="K151" s="55"/>
+      <c r="J151" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="K151" s="55" t="s">
+        <v>310</v>
+      </c>
       <c r="L151" s="76" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>WEO_DESC VARCHAR(200)   ,</v>
+        <f t="shared" ref="L151:L154" ca="1" si="8">C151&amp;" "&amp;D151&amp;IF(OR(D151="DATETIME",D151="INT",D151="DATE",D151="TEXT"),E151,"("&amp;E151&amp;")")&amp;" "&amp;" "&amp;H151&amp;" "&amp;J151&amp;IF(G151&lt;&gt;""," default "&amp;G151&amp;" ","")&amp;IF(I151&lt;&gt;""," "&amp;I151&amp;" ","")&amp;IF(OFFSET(C151,1,0,1,1)="",",",",")</f>
+        <v>WMB_BUTTON_ID INT   not null,</v>
       </c>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B152" s="82" t="s">
-        <v>235</v>
-      </c>
-      <c r="C152" s="82" t="s">
-        <v>429</v>
+        <v>384</v>
+      </c>
+      <c r="C152" s="85" t="s">
+        <v>595</v>
       </c>
       <c r="D152" s="82" t="s">
         <v>201</v>
       </c>
       <c r="E152" s="82"/>
-      <c r="F152" s="82"/>
+      <c r="F152" s="82" t="s">
+        <v>309</v>
+      </c>
       <c r="G152" s="83"/>
       <c r="H152" s="82"/>
       <c r="I152" s="82"/>
-      <c r="J152" s="82"/>
-      <c r="K152" s="55"/>
+      <c r="J152" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="K152" s="55" t="s">
+        <v>310</v>
+      </c>
       <c r="L152" s="76" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>WEO_REGISTOR INT   ,</v>
+        <v>WMB_MENU_ID INT   not null,</v>
       </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="81">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B153" s="82" t="s">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="C153" s="82" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="D153" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="E153" s="82"/>
+        <v>202</v>
+      </c>
+      <c r="E153" s="82">
+        <v>20</v>
+      </c>
       <c r="F153" s="82"/>
       <c r="G153" s="83"/>
       <c r="H153" s="82"/>
@@ -16820,340 +16838,328 @@
       <c r="K153" s="55"/>
       <c r="L153" s="76" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>WEO_REGISTDATE DATETIME   ,</v>
+        <v>WMB_STATUS  VARCHAR(20)   ,</v>
       </c>
     </row>
     <row r="154" spans="1:12">
+      <c r="A154" s="81">
+        <v>9</v>
+      </c>
+      <c r="B154" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="C154" s="82" t="s">
+        <v>386</v>
+      </c>
+      <c r="D154" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="E154" s="82"/>
+      <c r="F154" s="82"/>
+      <c r="G154" s="83"/>
+      <c r="H154" s="82"/>
+      <c r="I154" s="82"/>
+      <c r="J154" s="82"/>
+      <c r="K154" s="55"/>
       <c r="L154" s="76" t="str">
-        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C147,0,3,1,1)="PK",C147&amp;IF(OFFSET(C147,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C147,1,3,1,1)="PK",OFFSET(C147,1,0,1,1)&amp;IF(OFFSET(C147,1,0,1,1)="",",",""),"")&amp;"));"</f>
-        <v>PRIMARY KEY(WEO_ID));</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="15" customHeight="1">
-      <c r="L155" s="76"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>WMB_REGISTOR_DATE DATETIME   ,</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="L155" s="76" t="str">
+        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C151,0,3,1,1)="PK",C151&amp;IF(OFFSET(C151,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C151,1,3,1,1)="PK",OFFSET(C151,1,0,1,1)&amp;IF(OFFSET(C151,1,0,1,1)="",",",""),"")&amp;"));"</f>
+        <v>PRIMARY KEY(WMB_BUTTON_ID,WMB_MENU_ID));</v>
+      </c>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="137" t="s">
-        <v>291</v>
-      </c>
-      <c r="B156" s="138"/>
-      <c r="C156" s="139" t="s">
-        <v>431</v>
-      </c>
-      <c r="D156" s="140"/>
-      <c r="E156" s="137" t="s">
-        <v>293</v>
-      </c>
-      <c r="F156" s="138"/>
-      <c r="G156" s="75"/>
-      <c r="H156" s="75"/>
-      <c r="I156" s="75"/>
-      <c r="J156" s="75"/>
-      <c r="K156" s="135" t="s">
-        <v>607</v>
-      </c>
-      <c r="L156" s="11" t="str">
-        <f>"-- "&amp;C157</f>
-        <v>-- 微信回复消息表</v>
-      </c>
+      <c r="L156" s="76"/>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="137" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B157" s="138"/>
-      <c r="C157" s="152" t="s">
-        <v>432</v>
+      <c r="C157" s="139" t="s">
+        <v>387</v>
       </c>
       <c r="D157" s="140"/>
       <c r="E157" s="137" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F157" s="138"/>
       <c r="G157" s="75"/>
       <c r="H157" s="75"/>
       <c r="I157" s="75"/>
       <c r="J157" s="75"/>
-      <c r="K157" s="136"/>
+      <c r="K157" s="135" t="s">
+        <v>596</v>
+      </c>
       <c r="L157" s="11" t="str">
         <f>"-- "&amp;C158</f>
-        <v xml:space="preserve">-- </v>
+        <v>-- 微信-客户的客户关系表</v>
       </c>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="137" t="s">
+        <v>295</v>
+      </c>
+      <c r="B158" s="138"/>
+      <c r="C158" s="152" t="s">
+        <v>404</v>
+      </c>
+      <c r="D158" s="140"/>
+      <c r="E158" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="F158" s="138"/>
+      <c r="G158" s="75"/>
+      <c r="H158" s="75"/>
+      <c r="I158" s="75"/>
+      <c r="J158" s="75"/>
+      <c r="K158" s="136"/>
+      <c r="L158" s="11" t="str">
+        <f>"-- "&amp;C159</f>
+        <v xml:space="preserve">-- </v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B158" s="138"/>
-      <c r="C158" s="141"/>
-      <c r="D158" s="142"/>
-      <c r="E158" s="142"/>
-      <c r="F158" s="142"/>
-      <c r="G158" s="142"/>
-      <c r="H158" s="142"/>
-      <c r="I158" s="142"/>
-      <c r="J158" s="142"/>
-      <c r="K158" s="143"/>
-      <c r="L158" s="49"/>
-    </row>
-    <row r="159" spans="1:12">
-      <c r="A159" s="72"/>
-      <c r="B159" s="73"/>
-      <c r="C159" s="77"/>
-      <c r="D159" s="77"/>
-      <c r="E159" s="77"/>
-      <c r="F159" s="77"/>
-      <c r="G159" s="77"/>
-      <c r="H159" s="77"/>
-      <c r="I159" s="77"/>
-      <c r="J159" s="74"/>
-      <c r="K159" s="77"/>
-      <c r="L159" s="49" t="str">
-        <f>"DROP TABLE IF EXISTS "&amp;K156&amp;";"</f>
-        <v>DROP TABLE IF EXISTS LZ_WEI_MESSAGE;</v>
-      </c>
+      <c r="B159" s="138"/>
+      <c r="C159" s="141"/>
+      <c r="D159" s="142"/>
+      <c r="E159" s="142"/>
+      <c r="F159" s="142"/>
+      <c r="G159" s="142"/>
+      <c r="H159" s="142"/>
+      <c r="I159" s="142"/>
+      <c r="J159" s="142"/>
+      <c r="K159" s="143"/>
+      <c r="L159" s="49"/>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="78"/>
-      <c r="B160" s="78"/>
-      <c r="C160" s="78"/>
-      <c r="D160" s="79"/>
-      <c r="E160" s="78"/>
-      <c r="F160" s="78"/>
-      <c r="G160" s="78"/>
-      <c r="H160" s="78"/>
-      <c r="I160" s="78"/>
-      <c r="J160" s="32"/>
-      <c r="K160" s="78"/>
-      <c r="L160" s="76"/>
+      <c r="A160" s="72"/>
+      <c r="B160" s="73"/>
+      <c r="C160" s="77"/>
+      <c r="D160" s="77"/>
+      <c r="E160" s="77"/>
+      <c r="F160" s="77"/>
+      <c r="G160" s="77"/>
+      <c r="H160" s="77"/>
+      <c r="I160" s="77"/>
+      <c r="J160" s="74"/>
+      <c r="K160" s="77"/>
+      <c r="L160" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K157&amp;";"</f>
+        <v>DROP TABLE IF EXISTS LZ_WEI_ENTER_CUST;</v>
+      </c>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="80" t="s">
+      <c r="A161" s="78"/>
+      <c r="B161" s="78"/>
+      <c r="C161" s="78"/>
+      <c r="D161" s="79"/>
+      <c r="E161" s="78"/>
+      <c r="F161" s="78"/>
+      <c r="G161" s="78"/>
+      <c r="H161" s="78"/>
+      <c r="I161" s="78"/>
+      <c r="J161" s="32"/>
+      <c r="K161" s="78"/>
+      <c r="L161" s="76"/>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="80" t="s">
         <v>299</v>
       </c>
-      <c r="B161" s="80" t="s">
+      <c r="B162" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="C161" s="80" t="s">
+      <c r="C162" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="D161" s="80" t="s">
+      <c r="D162" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="E161" s="80" t="s">
+      <c r="E162" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="F161" s="80" t="s">
+      <c r="F162" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="G161" s="80" t="s">
+      <c r="G162" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="H161" s="80" t="s">
+      <c r="H162" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="I161" s="80" t="s">
+      <c r="I162" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="J161" s="33" t="s">
+      <c r="J162" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="K161" s="80" t="s">
+      <c r="K162" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="L161" s="76" t="str">
-        <f>"CREATE TABLE "&amp;K156&amp;"("</f>
-        <v>CREATE TABLE LZ_WEI_MESSAGE(</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A162" s="81">
+      <c r="L162" s="76" t="str">
+        <f>"CREATE TABLE "&amp;K157&amp;"("</f>
+        <v>CREATE TABLE LZ_WEI_ENTER_CUST(</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="81">
         <v>1</v>
       </c>
-      <c r="B162" s="82" t="s">
+      <c r="B163" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="C162" s="82" t="s">
-        <v>720</v>
-      </c>
-      <c r="D162" s="82" t="s">
+      <c r="C163" s="82" t="s">
+        <v>597</v>
+      </c>
+      <c r="D163" s="82" t="s">
         <v>308</v>
       </c>
-      <c r="E162" s="82"/>
-      <c r="F162" s="82" t="s">
+      <c r="E163" s="82"/>
+      <c r="F163" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="G162" s="83"/>
-      <c r="H162" s="82"/>
-      <c r="I162" s="82" t="s">
-        <v>466</v>
-      </c>
-      <c r="J162" s="82"/>
-      <c r="K162" s="55" t="s">
+      <c r="G163" s="83"/>
+      <c r="H163" s="82"/>
+      <c r="I163" s="82" t="s">
+        <v>465</v>
+      </c>
+      <c r="J163" s="82"/>
+      <c r="K163" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="L162" s="76" t="str">
-        <f t="shared" ref="L162:L172" ca="1" si="9">C162&amp;" "&amp;D162&amp;IF(OR(D162="DATETIME",D162="INT",D162="DATE",D162="TEXT"),E162,"("&amp;E162&amp;")")&amp;" "&amp;" "&amp;H162&amp;" "&amp;J162&amp;IF(G162&lt;&gt;""," default "&amp;G162&amp;" ","")&amp;IF(I162&lt;&gt;""," "&amp;I162&amp;" ","")&amp;IF(OFFSET(C162,1,0,1,1)="",",",",")</f>
-        <v>WMG_ID INT    AUTO_INCREMENT ,</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A163" s="81">
-        <v>2</v>
-      </c>
-      <c r="B163" s="67" t="s">
-        <v>719</v>
-      </c>
-      <c r="C163" s="67" t="s">
-        <v>721</v>
-      </c>
-      <c r="D163" s="67" t="s">
-        <v>202</v>
-      </c>
-      <c r="E163" s="67">
-        <v>200</v>
-      </c>
-      <c r="F163" s="67"/>
-      <c r="G163" s="84"/>
-      <c r="H163" s="67"/>
-      <c r="I163" s="67"/>
-      <c r="J163" s="67"/>
-      <c r="K163" s="70" t="s">
-        <v>719</v>
-      </c>
-      <c r="L163" s="127" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>WMG_APP_ID VARCHAR(200)   ,</v>
+      <c r="L163" s="76" t="str">
+        <f t="shared" ref="L163:L174" ca="1" si="9">C163&amp;" "&amp;D163&amp;IF(OR(D163="DATETIME",D163="INT",D163="DATE",D163="TEXT"),E163,"("&amp;E163&amp;")")&amp;" "&amp;" "&amp;H163&amp;" "&amp;J163&amp;IF(G163&lt;&gt;""," default "&amp;G163&amp;" ","")&amp;IF(I163&lt;&gt;""," "&amp;I163&amp;" ","")&amp;IF(OFFSET(C163,1,0,1,1)="",",",",")</f>
+        <v>WET_ID INT    AUTO_INCREMENT ,</v>
       </c>
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B164" s="82" t="s">
-        <v>433</v>
+        <v>336</v>
       </c>
       <c r="C164" s="82" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D164" s="82" t="s">
-        <v>202</v>
+        <v>401</v>
       </c>
       <c r="E164" s="82">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="F164" s="82"/>
       <c r="G164" s="83"/>
       <c r="H164" s="82"/>
       <c r="I164" s="82"/>
       <c r="J164" s="82"/>
-      <c r="K164" s="55" t="s">
-        <v>434</v>
-      </c>
+      <c r="K164" s="55"/>
       <c r="L164" s="76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>WMG_CONTENT VARCHAR(800)   ,</v>
+        <v>WET_OPEN_ID VARCHAR(200)   ,</v>
       </c>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="81">
-        <v>4</v>
-      </c>
-      <c r="B165" s="67" t="s">
-        <v>435</v>
-      </c>
-      <c r="C165" s="67" t="s">
-        <v>605</v>
-      </c>
-      <c r="D165" s="67" t="s">
-        <v>401</v>
-      </c>
-      <c r="E165" s="67">
-        <v>2000</v>
-      </c>
-      <c r="F165" s="67"/>
-      <c r="G165" s="84"/>
-      <c r="H165" s="67"/>
-      <c r="I165" s="67"/>
-      <c r="J165" s="67"/>
-      <c r="K165" s="70" t="s">
-        <v>436</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B165" s="82" t="s">
+        <v>406</v>
+      </c>
+      <c r="C165" s="82" t="s">
+        <v>599</v>
+      </c>
+      <c r="D165" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E165" s="82">
+        <v>200</v>
+      </c>
+      <c r="F165" s="82"/>
+      <c r="G165" s="83"/>
+      <c r="H165" s="82"/>
+      <c r="I165" s="82"/>
+      <c r="J165" s="82"/>
+      <c r="K165" s="55"/>
       <c r="L165" s="76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>WMG_CONTENT_XML VARCHAR(2000)   ,</v>
+        <v>WET_CUSTENTER_NAME VARCHAR(200)   ,</v>
       </c>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B166" s="82" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="C166" s="82" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D166" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E166" s="82">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F166" s="82"/>
       <c r="G166" s="83"/>
       <c r="H166" s="82"/>
       <c r="I166" s="82"/>
       <c r="J166" s="82"/>
-      <c r="K166" s="55" t="s">
-        <v>438</v>
-      </c>
+      <c r="K166" s="55"/>
       <c r="L166" s="76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>WMG_REPLY_TYPE CHAR(1)   ,</v>
+        <v>WET_MOBILE VARCHAR(20)   ,</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B167" s="82" t="s">
-        <v>439</v>
+        <v>213</v>
       </c>
       <c r="C167" s="82" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="D167" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E167" s="82">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F167" s="82"/>
       <c r="G167" s="83"/>
       <c r="H167" s="82"/>
       <c r="I167" s="82"/>
       <c r="J167" s="82"/>
-      <c r="K167" s="55" t="s">
-        <v>441</v>
-      </c>
+      <c r="K167" s="55"/>
       <c r="L167" s="76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>WMG_MSG_TYPE CHAR(1)   ,</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
+        <v>WET_NAME VARCHAR(40)   ,</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="13.5" customHeight="1">
       <c r="A168" s="81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B168" s="82" t="s">
-        <v>442</v>
+        <v>370</v>
       </c>
       <c r="C168" s="82" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="D168" s="82" t="s">
-        <v>203</v>
+        <v>401</v>
       </c>
       <c r="E168" s="82">
         <v>1</v>
@@ -17164,58 +17170,52 @@
       <c r="I168" s="82"/>
       <c r="J168" s="82"/>
       <c r="K168" s="55" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="L168" s="76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>WMG_AES_TYPE CHAR(1)   ,</v>
+        <v>WET_TYPE VARCHAR(1)   ,</v>
       </c>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B169" s="82" t="s">
-        <v>321</v>
+        <v>411</v>
       </c>
       <c r="C169" s="82" t="s">
-        <v>445</v>
+        <v>601</v>
       </c>
       <c r="D169" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E169" s="82">
-        <v>20</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E169" s="82"/>
       <c r="F169" s="82"/>
       <c r="G169" s="83"/>
       <c r="H169" s="82"/>
       <c r="I169" s="82"/>
       <c r="J169" s="82"/>
-      <c r="K169" s="55" t="s">
-        <v>446</v>
-      </c>
+      <c r="K169" s="55"/>
       <c r="L169" s="76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>WMG_STATUS VARCHAR(20)   ,</v>
+        <v>WET_CUE_ID INT   ,</v>
       </c>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="81">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B170" s="82" t="s">
-        <v>197</v>
+        <v>412</v>
       </c>
       <c r="C170" s="82" t="s">
-        <v>447</v>
+        <v>602</v>
       </c>
       <c r="D170" s="82" t="s">
-        <v>401</v>
-      </c>
-      <c r="E170" s="82">
-        <v>800</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E170" s="82"/>
       <c r="F170" s="82"/>
       <c r="G170" s="83"/>
       <c r="H170" s="82"/>
@@ -17224,23 +17224,25 @@
       <c r="K170" s="55"/>
       <c r="L170" s="76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>WMG_DESC VARCHAR(800)   ,</v>
+        <v>WET_CUU_ID INT   ,</v>
       </c>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="81">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B171" s="82" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="C171" s="82" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="D171" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="E171" s="82"/>
+        <v>202</v>
+      </c>
+      <c r="E171" s="82">
+        <v>20</v>
+      </c>
       <c r="F171" s="82"/>
       <c r="G171" s="83"/>
       <c r="H171" s="82"/>
@@ -17249,23 +17251,25 @@
       <c r="K171" s="55"/>
       <c r="L171" s="76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>WMG_REGISTOR INT   ,</v>
+        <v>WET_STATUS VARCHAR(20)   ,</v>
       </c>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="81">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B172" s="82" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C172" s="82" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="D172" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E172" s="82">
         <v>200</v>
       </c>
-      <c r="E172" s="82"/>
       <c r="F172" s="82"/>
       <c r="G172" s="83"/>
       <c r="H172" s="82"/>
@@ -17274,277 +17278,269 @@
       <c r="K172" s="55"/>
       <c r="L172" s="76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>WMG_REGISTDATE DATETIME   ,</v>
+        <v>WET_DESC VARCHAR(200)   ,</v>
       </c>
     </row>
     <row r="173" spans="1:12">
+      <c r="A173" s="81">
+        <v>11</v>
+      </c>
+      <c r="B173" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="C173" s="82" t="s">
+        <v>415</v>
+      </c>
+      <c r="D173" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="E173" s="82"/>
+      <c r="F173" s="82"/>
+      <c r="G173" s="83"/>
+      <c r="H173" s="82"/>
+      <c r="I173" s="82"/>
+      <c r="J173" s="82"/>
+      <c r="K173" s="55"/>
       <c r="L173" s="76" t="str">
-        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C162,0,3,1,1)="PK",C162&amp;IF(OFFSET(C162,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C162,1,3,1,1)="PK",OFFSET(C162,1,0,1,1)&amp;IF(OFFSET(C162,1,0,1,1)="",",",""),"")&amp;"));"</f>
-        <v>PRIMARY KEY(WMG_ID));</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>WET_REGISTOR INT   ,</v>
       </c>
     </row>
     <row r="174" spans="1:12">
-      <c r="L174" s="76"/>
+      <c r="A174" s="81">
+        <v>12</v>
+      </c>
+      <c r="B174" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="C174" s="82" t="s">
+        <v>416</v>
+      </c>
+      <c r="D174" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="E174" s="82"/>
+      <c r="F174" s="82"/>
+      <c r="G174" s="83"/>
+      <c r="H174" s="82"/>
+      <c r="I174" s="82"/>
+      <c r="J174" s="82"/>
+      <c r="K174" s="55"/>
+      <c r="L174" s="76" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>WET_REGISTDATE DATETIME   ,</v>
+      </c>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="137" t="s">
-        <v>291</v>
-      </c>
-      <c r="B175" s="138"/>
-      <c r="C175" s="139" t="s">
-        <v>431</v>
-      </c>
-      <c r="D175" s="140"/>
-      <c r="E175" s="137" t="s">
-        <v>293</v>
-      </c>
-      <c r="F175" s="138"/>
-      <c r="G175" s="75"/>
-      <c r="H175" s="75"/>
-      <c r="I175" s="75"/>
-      <c r="J175" s="75"/>
-      <c r="K175" s="135" t="s">
-        <v>608</v>
-      </c>
-      <c r="L175" s="11" t="str">
-        <f>"-- "&amp;C176</f>
-        <v>-- 微信关键字-回复消息表</v>
+      <c r="L175" s="76" t="str">
+        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C163,0,3,1,1)="PK",C163&amp;IF(OFFSET(C163,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C163,1,3,1,1)="PK",OFFSET(C163,1,0,1,1)&amp;IF(OFFSET(C163,1,0,1,1)="",",",""),"")&amp;"));"</f>
+        <v>PRIMARY KEY(WET_ID));</v>
       </c>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="137" t="s">
-        <v>295</v>
-      </c>
-      <c r="B176" s="138"/>
-      <c r="C176" s="152" t="s">
-        <v>450</v>
-      </c>
-      <c r="D176" s="140"/>
-      <c r="E176" s="137" t="s">
-        <v>297</v>
-      </c>
-      <c r="F176" s="138"/>
-      <c r="G176" s="75"/>
-      <c r="H176" s="75"/>
-      <c r="I176" s="75"/>
-      <c r="J176" s="75"/>
-      <c r="K176" s="136"/>
-      <c r="L176" s="11" t="str">
-        <f>"-- "&amp;C177</f>
-        <v xml:space="preserve">-- </v>
-      </c>
+      <c r="L176" s="76"/>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="137" t="s">
+        <v>291</v>
+      </c>
+      <c r="B177" s="138"/>
+      <c r="C177" s="139" t="s">
+        <v>387</v>
+      </c>
+      <c r="D177" s="140"/>
+      <c r="E177" s="137" t="s">
+        <v>293</v>
+      </c>
+      <c r="F177" s="138"/>
+      <c r="G177" s="75"/>
+      <c r="H177" s="75"/>
+      <c r="I177" s="75"/>
+      <c r="J177" s="75"/>
+      <c r="K177" s="135" t="s">
+        <v>417</v>
+      </c>
+      <c r="L177" s="11" t="str">
+        <f>"-- "&amp;C178</f>
+        <v>-- 微信-订单表</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" s="137" t="s">
+        <v>295</v>
+      </c>
+      <c r="B178" s="138"/>
+      <c r="C178" s="152" t="s">
+        <v>418</v>
+      </c>
+      <c r="D178" s="140"/>
+      <c r="E178" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="F178" s="138"/>
+      <c r="G178" s="75"/>
+      <c r="H178" s="75"/>
+      <c r="I178" s="75"/>
+      <c r="J178" s="75"/>
+      <c r="K178" s="136"/>
+      <c r="L178" s="11" t="str">
+        <f>"-- "&amp;C179</f>
+        <v xml:space="preserve">-- </v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="B177" s="138"/>
-      <c r="C177" s="141"/>
-      <c r="D177" s="142"/>
-      <c r="E177" s="142"/>
-      <c r="F177" s="142"/>
-      <c r="G177" s="142"/>
-      <c r="H177" s="142"/>
-      <c r="I177" s="142"/>
-      <c r="J177" s="142"/>
-      <c r="K177" s="143"/>
-      <c r="L177" s="49"/>
-    </row>
-    <row r="178" spans="1:12">
-      <c r="A178" s="72"/>
-      <c r="B178" s="73"/>
-      <c r="C178" s="77"/>
-      <c r="D178" s="77"/>
-      <c r="E178" s="77"/>
-      <c r="F178" s="77"/>
-      <c r="G178" s="77"/>
-      <c r="H178" s="77"/>
-      <c r="I178" s="77"/>
-      <c r="J178" s="74"/>
-      <c r="K178" s="77"/>
-      <c r="L178" s="49" t="str">
-        <f>"DROP TABLE IF EXISTS "&amp;K175&amp;";"</f>
-        <v>DROP TABLE IF EXISTS LZ_WEI_KEYWORD_MESSAGE;</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12">
-      <c r="A179" s="78"/>
-      <c r="B179" s="78"/>
-      <c r="C179" s="78"/>
-      <c r="D179" s="79"/>
-      <c r="E179" s="78"/>
-      <c r="F179" s="78"/>
-      <c r="G179" s="78"/>
-      <c r="H179" s="78"/>
-      <c r="I179" s="78"/>
-      <c r="J179" s="32"/>
-      <c r="K179" s="78"/>
-      <c r="L179" s="76"/>
+      <c r="B179" s="138"/>
+      <c r="C179" s="141"/>
+      <c r="D179" s="142"/>
+      <c r="E179" s="142"/>
+      <c r="F179" s="142"/>
+      <c r="G179" s="142"/>
+      <c r="H179" s="142"/>
+      <c r="I179" s="142"/>
+      <c r="J179" s="142"/>
+      <c r="K179" s="143"/>
+      <c r="L179" s="49"/>
     </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="80" t="s">
+      <c r="A180" s="72"/>
+      <c r="B180" s="73"/>
+      <c r="C180" s="77"/>
+      <c r="D180" s="77"/>
+      <c r="E180" s="77"/>
+      <c r="F180" s="77"/>
+      <c r="G180" s="77"/>
+      <c r="H180" s="77"/>
+      <c r="I180" s="77"/>
+      <c r="J180" s="74"/>
+      <c r="K180" s="77"/>
+      <c r="L180" s="49" t="str">
+        <f>"DROP TABLE IF EXISTS "&amp;K177&amp;";"</f>
+        <v>DROP TABLE IF EXISTS LZ_WEI_ENTER_ORDER;</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" s="78"/>
+      <c r="B181" s="78"/>
+      <c r="C181" s="78"/>
+      <c r="D181" s="79"/>
+      <c r="E181" s="78"/>
+      <c r="F181" s="78"/>
+      <c r="G181" s="78"/>
+      <c r="H181" s="78"/>
+      <c r="I181" s="78"/>
+      <c r="J181" s="32"/>
+      <c r="K181" s="78"/>
+      <c r="L181" s="76"/>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" s="80" t="s">
         <v>299</v>
       </c>
-      <c r="B180" s="80" t="s">
+      <c r="B182" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="C180" s="80" t="s">
+      <c r="C182" s="80" t="s">
         <v>301</v>
       </c>
-      <c r="D180" s="80" t="s">
+      <c r="D182" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="E180" s="80" t="s">
+      <c r="E182" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="F180" s="80" t="s">
+      <c r="F182" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="G180" s="80" t="s">
+      <c r="G182" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="H180" s="80" t="s">
+      <c r="H182" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="I180" s="80" t="s">
+      <c r="I182" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="J180" s="33" t="s">
+      <c r="J182" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="K180" s="80" t="s">
+      <c r="K182" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="L180" s="76" t="str">
-        <f>"CREATE TABLE "&amp;K175&amp;"("</f>
-        <v>CREATE TABLE LZ_WEI_KEYWORD_MESSAGE(</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12">
-      <c r="A181" s="81">
-        <v>1</v>
-      </c>
-      <c r="B181" s="82" t="s">
-        <v>204</v>
-      </c>
-      <c r="C181" s="82" t="s">
-        <v>609</v>
-      </c>
-      <c r="D181" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="E181" s="82"/>
-      <c r="F181" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="G181" s="83"/>
-      <c r="H181" s="82"/>
-      <c r="I181" s="82" t="s">
-        <v>466</v>
-      </c>
-      <c r="J181" s="82"/>
-      <c r="K181" s="55" t="s">
-        <v>310</v>
-      </c>
-      <c r="L181" s="76" t="str">
-        <f t="shared" ref="L181:L189" ca="1" si="10">C181&amp;" "&amp;D181&amp;IF(OR(D181="DATETIME",D181="INT",D181="DATE",D181="TEXT"),E181,"("&amp;E181&amp;")")&amp;" "&amp;" "&amp;H181&amp;" "&amp;J181&amp;IF(G181&lt;&gt;""," default "&amp;G181&amp;" ","")&amp;IF(I181&lt;&gt;""," "&amp;I181&amp;" ","")&amp;IF(OFFSET(C181,1,0,1,1)="",",",",")</f>
-        <v>WKG_ID INT    AUTO_INCREMENT ,</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12">
-      <c r="A182" s="81">
-        <v>2</v>
-      </c>
-      <c r="B182" s="82" t="s">
-        <v>361</v>
-      </c>
-      <c r="C182" s="82" t="s">
-        <v>610</v>
-      </c>
-      <c r="D182" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="E182" s="82"/>
-      <c r="F182" s="82"/>
-      <c r="G182" s="83"/>
-      <c r="H182" s="82"/>
-      <c r="I182" s="82"/>
-      <c r="J182" s="82"/>
-      <c r="K182" s="55" t="s">
-        <v>388</v>
-      </c>
       <c r="L182" s="76" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>WKG_WEC_ID INT   ,</v>
+        <f>"CREATE TABLE "&amp;K177&amp;"("</f>
+        <v>CREATE TABLE LZ_WEI_ENTER_ORDER(</v>
       </c>
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B183" s="82" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="C183" s="82" t="s">
-        <v>611</v>
+        <v>420</v>
       </c>
       <c r="D183" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E183" s="82">
-        <v>200</v>
-      </c>
-      <c r="F183" s="82"/>
+        <v>308</v>
+      </c>
+      <c r="E183" s="82"/>
+      <c r="F183" s="82" t="s">
+        <v>309</v>
+      </c>
       <c r="G183" s="83"/>
       <c r="H183" s="82"/>
-      <c r="I183" s="82"/>
+      <c r="I183" s="82" t="s">
+        <v>465</v>
+      </c>
       <c r="J183" s="82"/>
       <c r="K183" s="55" t="s">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="L183" s="76" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>WKG_APP_ID VARCHAR(200)   ,</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="15" customHeight="1">
+        <f t="shared" ref="L183:L189" ca="1" si="10">C183&amp;" "&amp;D183&amp;IF(OR(D183="DATETIME",D183="INT",D183="DATE",D183="TEXT"),E183,"("&amp;E183&amp;")")&amp;" "&amp;" "&amp;H183&amp;" "&amp;J183&amp;IF(G183&lt;&gt;""," default "&amp;G183&amp;" ","")&amp;IF(I183&lt;&gt;""," "&amp;I183&amp;" ","")&amp;IF(OFFSET(C183,1,0,1,1)="",",",",")</f>
+        <v>WEO_ID INT    AUTO_INCREMENT ,</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B184" s="82" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="C184" s="82" t="s">
-        <v>612</v>
+        <v>422</v>
       </c>
       <c r="D184" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E184" s="82">
-        <v>200</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E184" s="82"/>
       <c r="F184" s="82"/>
       <c r="G184" s="83"/>
       <c r="H184" s="82"/>
       <c r="I184" s="82"/>
       <c r="J184" s="82"/>
       <c r="K184" s="55" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="L184" s="76" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>WKG_KEYWORDS VARCHAR(200)   ,</v>
+        <v>WEO_GQ_ID INT   ,</v>
       </c>
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B185" s="82" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="C185" s="82" t="s">
-        <v>613</v>
+        <v>424</v>
       </c>
       <c r="D185" s="82" t="s">
         <v>201</v>
@@ -17556,22 +17552,22 @@
       <c r="I185" s="82"/>
       <c r="J185" s="82"/>
       <c r="K185" s="55" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="L185" s="76" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>WKG_WMG_ID INT   ,</v>
+        <v>WEO_WET_ID INT   ,</v>
       </c>
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="81">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B186" s="82" t="s">
         <v>321</v>
       </c>
       <c r="C186" s="82" t="s">
-        <v>614</v>
+        <v>426</v>
       </c>
       <c r="D186" s="82" t="s">
         <v>202</v>
@@ -17585,25 +17581,25 @@
       <c r="I186" s="82"/>
       <c r="J186" s="82"/>
       <c r="K186" s="55" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="L186" s="76" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>WKG_STATUS VARCHAR(20)   ,</v>
+        <v>WEO_STATUS VARCHAR(20)   ,</v>
       </c>
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="81">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B187" s="82" t="s">
         <v>197</v>
       </c>
       <c r="C187" s="82" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="D187" s="82" t="s">
-        <v>202</v>
+        <v>401</v>
       </c>
       <c r="E187" s="82">
         <v>200</v>
@@ -17616,18 +17612,18 @@
       <c r="K187" s="55"/>
       <c r="L187" s="76" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>WKG_DESC VARCHAR(200)   ,</v>
+        <v>WEO_DESC VARCHAR(200)   ,</v>
       </c>
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B188" s="82" t="s">
         <v>235</v>
       </c>
       <c r="C188" s="82" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="D188" s="82" t="s">
         <v>201</v>
@@ -17641,18 +17637,18 @@
       <c r="K188" s="55"/>
       <c r="L188" s="76" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>WKG_REGISTOR INT   ,</v>
+        <v>WEO_REGISTOR INT   ,</v>
       </c>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="81">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B189" s="82" t="s">
         <v>236</v>
       </c>
       <c r="C189" s="82" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="D189" s="82" t="s">
         <v>200</v>
@@ -17666,16 +17662,16 @@
       <c r="K189" s="55"/>
       <c r="L189" s="76" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>WKG_REGISTDATE DATETIME   ,</v>
+        <v>WEO_REGISTDATE DATETIME   ,</v>
       </c>
     </row>
     <row r="190" spans="1:12">
       <c r="L190" s="76" t="str">
-        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C181,0,3,1,1)="PK",C181&amp;IF(OFFSET(C181,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C181,1,3,1,1)="PK",OFFSET(C181,1,0,1,1)&amp;IF(OFFSET(C181,1,0,1,1)="",",",""),"")&amp;"));"</f>
-        <v>PRIMARY KEY(WKG_ID));</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12">
+        <f ca="1">"PRIMARY KEY("&amp;IF(OFFSET(C183,0,3,1,1)="PK",C183&amp;IF(OFFSET(C183,1,3,1,1)="","",","),"")&amp;IF(OFFSET(C183,1,3,1,1)="PK",OFFSET(C183,1,0,1,1)&amp;IF(OFFSET(C183,1,0,1,1)="",",",""),"")&amp;"));"</f>
+        <v>PRIMARY KEY(WEO_ID));</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="15" customHeight="1">
       <c r="L191" s="76"/>
     </row>
     <row r="192" spans="1:12">
@@ -17696,7 +17692,7 @@
       <c r="I192" s="75"/>
       <c r="J192" s="75"/>
       <c r="K192" s="135" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="L192" s="11" t="str">
         <f>"-- "&amp;C193</f>
@@ -17709,7 +17705,7 @@
       </c>
       <c r="B193" s="138"/>
       <c r="C193" s="152" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D193" s="140"/>
       <c r="E193" s="137" t="s">
@@ -17820,7 +17816,7 @@
         <v>204</v>
       </c>
       <c r="C198" s="82" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D198" s="82" t="s">
         <v>308</v>
@@ -17832,7 +17828,7 @@
       <c r="G198" s="83"/>
       <c r="H198" s="82"/>
       <c r="I198" s="82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J198" s="82" t="s">
         <v>68</v>
@@ -17853,7 +17849,7 @@
         <v>311</v>
       </c>
       <c r="C199" s="67" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D199" s="67" t="s">
         <v>201</v>
@@ -17878,7 +17874,7 @@
         <v>313</v>
       </c>
       <c r="C200" s="67" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D200" s="67" t="s">
         <v>202</v>
@@ -17902,10 +17898,10 @@
         <v>4</v>
       </c>
       <c r="B201" s="82" t="s">
+        <v>459</v>
+      </c>
+      <c r="C201" s="85" t="s">
         <v>460</v>
-      </c>
-      <c r="C201" s="85" t="s">
-        <v>461</v>
       </c>
       <c r="D201" s="82" t="s">
         <v>202</v>
@@ -17932,7 +17928,7 @@
         <v>317</v>
       </c>
       <c r="C202" s="82" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D202" s="82" t="s">
         <v>200</v>
@@ -17956,7 +17952,7 @@
         <v>319</v>
       </c>
       <c r="C203" s="82" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D203" s="82" t="s">
         <v>200</v>
@@ -17981,7 +17977,7 @@
         <v>321</v>
       </c>
       <c r="C204" s="82" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D204" s="82" t="s">
         <v>203</v>
@@ -18013,15 +18009,15 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="137" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B207" s="138"/>
       <c r="C207" s="153" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D207" s="153"/>
       <c r="E207" s="154" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F207" s="154"/>
       <c r="G207" s="75"/>
@@ -18029,7 +18025,7 @@
       <c r="I207" s="75"/>
       <c r="J207" s="75"/>
       <c r="K207" s="155" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="L207" s="11" t="str">
         <f>"-- "&amp;C208</f>
@@ -18038,15 +18034,15 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="137" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B208" s="138"/>
       <c r="C208" s="153" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D208" s="153"/>
       <c r="E208" s="154" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F208" s="154"/>
       <c r="G208" s="75"/>
@@ -18061,11 +18057,11 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="137" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B209" s="138"/>
       <c r="C209" s="77" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D209" s="77"/>
       <c r="E209" s="77"/>
@@ -18110,37 +18106,37 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="80" t="s">
+        <v>474</v>
+      </c>
+      <c r="B212" s="80" t="s">
         <v>475</v>
       </c>
-      <c r="B212" s="80" t="s">
+      <c r="C212" s="80" t="s">
         <v>476</v>
       </c>
-      <c r="C212" s="80" t="s">
+      <c r="D212" s="80" t="s">
         <v>477</v>
       </c>
-      <c r="D212" s="80" t="s">
+      <c r="E212" s="80" t="s">
         <v>478</v>
       </c>
-      <c r="E212" s="80" t="s">
+      <c r="F212" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="F212" s="80" t="s">
+      <c r="G212" s="80" t="s">
         <v>480</v>
       </c>
-      <c r="G212" s="80" t="s">
+      <c r="H212" s="80" t="s">
         <v>481</v>
       </c>
-      <c r="H212" s="80" t="s">
+      <c r="I212" s="80" t="s">
         <v>482</v>
       </c>
-      <c r="I212" s="80" t="s">
+      <c r="J212" s="80" t="s">
         <v>483</v>
       </c>
-      <c r="J212" s="80" t="s">
+      <c r="K212" s="80" t="s">
         <v>484</v>
-      </c>
-      <c r="K212" s="80" t="s">
-        <v>485</v>
       </c>
       <c r="L212" s="11" t="str">
         <f>"CREATE TABLE "&amp;K207&amp;"("</f>
@@ -18152,25 +18148,25 @@
         <v>1</v>
       </c>
       <c r="B213" s="52" t="s">
+        <v>485</v>
+      </c>
+      <c r="C213" s="52" t="s">
         <v>486</v>
-      </c>
-      <c r="C213" s="52" t="s">
-        <v>487</v>
       </c>
       <c r="D213" s="52" t="s">
         <v>201</v>
       </c>
       <c r="E213" s="52"/>
       <c r="F213" s="52" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G213" s="82"/>
       <c r="H213" s="82"/>
       <c r="I213" s="82" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J213" s="52" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K213" s="90"/>
       <c r="L213" s="76" t="str">
@@ -18183,10 +18179,10 @@
         <v>2</v>
       </c>
       <c r="B214" s="52" t="s">
+        <v>489</v>
+      </c>
+      <c r="C214" s="52" t="s">
         <v>490</v>
-      </c>
-      <c r="C214" s="52" t="s">
-        <v>491</v>
       </c>
       <c r="D214" s="52" t="s">
         <v>202</v>
@@ -18200,7 +18196,7 @@
       <c r="I214" s="82"/>
       <c r="J214" s="9"/>
       <c r="K214" s="90" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L214" s="76" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -18212,10 +18208,10 @@
         <v>3</v>
       </c>
       <c r="B215" s="52" t="s">
+        <v>492</v>
+      </c>
+      <c r="C215" s="52" t="s">
         <v>493</v>
-      </c>
-      <c r="C215" s="52" t="s">
-        <v>494</v>
       </c>
       <c r="D215" s="52" t="s">
         <v>202</v>
@@ -18229,7 +18225,7 @@
       <c r="I215" s="77"/>
       <c r="J215" s="52"/>
       <c r="K215" s="90" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L215" s="76" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -18241,10 +18237,10 @@
         <v>4</v>
       </c>
       <c r="B216" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C216" s="52" t="s">
         <v>496</v>
-      </c>
-      <c r="C216" s="52" t="s">
-        <v>497</v>
       </c>
       <c r="D216" s="52" t="s">
         <v>202</v>
@@ -18258,7 +18254,7 @@
       <c r="I216" s="82"/>
       <c r="J216" s="52"/>
       <c r="K216" s="90" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L216" s="76" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -18270,13 +18266,13 @@
         <v>5</v>
       </c>
       <c r="B217" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C217" s="52" t="s">
         <v>499</v>
       </c>
-      <c r="C217" s="52" t="s">
+      <c r="D217" s="52" t="s">
         <v>500</v>
-      </c>
-      <c r="D217" s="52" t="s">
-        <v>501</v>
       </c>
       <c r="E217" s="52"/>
       <c r="F217" s="52"/>
@@ -18285,7 +18281,7 @@
       <c r="I217" s="82"/>
       <c r="J217" s="52"/>
       <c r="K217" s="90" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L217" s="76" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -18297,10 +18293,10 @@
         <v>6</v>
       </c>
       <c r="B218" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C218" s="52" t="s">
         <v>503</v>
-      </c>
-      <c r="C218" s="52" t="s">
-        <v>504</v>
       </c>
       <c r="D218" s="52" t="s">
         <v>202</v>
@@ -18324,10 +18320,10 @@
         <v>7</v>
       </c>
       <c r="B219" s="52" t="s">
+        <v>504</v>
+      </c>
+      <c r="C219" s="52" t="s">
         <v>505</v>
-      </c>
-      <c r="C219" s="52" t="s">
-        <v>506</v>
       </c>
       <c r="D219" s="52" t="s">
         <v>200</v>
@@ -18355,8 +18351,6 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="C194:K194"/>
     <mergeCell ref="A209:B209"/>
     <mergeCell ref="A207:B207"/>
     <mergeCell ref="C207:D207"/>
@@ -18365,8 +18359,6 @@
     <mergeCell ref="A208:B208"/>
     <mergeCell ref="C208:D208"/>
     <mergeCell ref="E208:F208"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="C177:K177"/>
     <mergeCell ref="A192:B192"/>
     <mergeCell ref="C192:D192"/>
     <mergeCell ref="E192:F192"/>
@@ -18374,57 +18366,61 @@
     <mergeCell ref="A193:B193"/>
     <mergeCell ref="C193:D193"/>
     <mergeCell ref="E193:F193"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:K158"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="K175:K176"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:K143"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="K156:K157"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:K194"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:K179"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:K159"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="K177:K178"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
     <mergeCell ref="A157:B157"/>
     <mergeCell ref="C157:D157"/>
     <mergeCell ref="E157:F157"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:K123"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:K111"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:K67"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:K147"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="A63:B63"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -18432,49 +18428,49 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:K79"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="K128:K129"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:K88"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D115:D118 D213:D219 D33:D47 D7:D24 D56:D62 D71:D74 D198:D204 D127:D138 D147:D153 D181:D189 D98:D106 D83:D89 D162:D172">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D198:D204 D213:D219 D151:D154 D69:D83 D7:D24 D92:D98 D107:D110 D163:D174 D183:D189 D134:D142 D119:D125 D32:D42 D51:D59">
       <formula1>"INT,CHAR,NVARCHAR,VARCHAR,TEXT,NUMERIC,DECIMAL,DATE,DATETIME"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18524,7 +18520,7 @@
       <c r="I1" s="99"/>
       <c r="J1" s="99"/>
       <c r="K1" s="135" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="L1" s="11" t="str">
         <f>"-- "&amp;C2</f>
@@ -18555,7 +18551,7 @@
       </c>
       <c r="B2" s="138"/>
       <c r="C2" s="139" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D2" s="140"/>
       <c r="E2" s="137" t="s">
@@ -18756,7 +18752,7 @@
         <v>204</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>201</v>
@@ -18804,10 +18800,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>202</v>
@@ -18851,13 +18847,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E9" s="52"/>
       <c r="F9" s="54"/>
@@ -18899,7 +18895,7 @@
         <v>321</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D10" s="53" t="s">
         <v>202</v>
@@ -18944,7 +18940,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>201</v>
@@ -18987,7 +18983,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D12" s="53" t="s">
         <v>200</v>
@@ -19046,7 +19042,7 @@
       <c r="I15" s="99"/>
       <c r="J15" s="99"/>
       <c r="K15" s="135" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="L15" s="11" t="str">
         <f>"-- "&amp;C16</f>
@@ -19077,7 +19073,7 @@
       </c>
       <c r="B16" s="138"/>
       <c r="C16" s="139" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D16" s="140"/>
       <c r="E16" s="137" t="s">
@@ -19278,7 +19274,7 @@
         <v>204</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>201</v>
@@ -19326,10 +19322,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>202</v>
@@ -19373,10 +19369,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D23" s="53" t="s">
         <v>201</v>
@@ -19418,10 +19414,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D24" s="53" t="s">
         <v>201</v>
@@ -19463,16 +19459,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D25" s="53" t="s">
+        <v>542</v>
+      </c>
+      <c r="E25" s="52" t="s">
         <v>543</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>544</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -19508,16 +19504,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D26" s="53" t="s">
+        <v>542</v>
+      </c>
+      <c r="E26" s="52" t="s">
         <v>543</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>544</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
@@ -19553,16 +19549,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="56" t="s">
+        <v>541</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D27" s="53" t="s">
         <v>542</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="D27" s="53" t="s">
-        <v>543</v>
-      </c>
       <c r="E27" s="52" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
@@ -19601,7 +19597,7 @@
         <v>321</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D28" s="53" t="s">
         <v>202</v>
@@ -19646,7 +19642,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>201</v>
@@ -19689,7 +19685,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D30" s="53" t="s">
         <v>200</v>
@@ -19748,7 +19744,7 @@
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
       <c r="K32" s="135" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="L32" s="11" t="str">
         <f>"-- "&amp;C33</f>
@@ -19779,7 +19775,7 @@
       </c>
       <c r="B33" s="138"/>
       <c r="C33" s="139" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D33" s="140"/>
       <c r="E33" s="137" t="s">
@@ -19980,7 +19976,7 @@
         <v>204</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>201</v>
@@ -20028,10 +20024,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>201</v>
@@ -20073,10 +20069,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D40" s="53" t="s">
         <v>201</v>
@@ -20118,10 +20114,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D41" s="53" t="s">
         <v>200</v>
@@ -20161,16 +20157,16 @@
         <v>5</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D42" s="53" t="s">
+        <v>542</v>
+      </c>
+      <c r="E42" s="52" t="s">
         <v>543</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>544</v>
       </c>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
@@ -20206,16 +20202,16 @@
         <v>6</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D43" s="53" t="s">
+        <v>542</v>
+      </c>
+      <c r="E43" s="52" t="s">
         <v>543</v>
-      </c>
-      <c r="E43" s="52" t="s">
-        <v>544</v>
       </c>
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
@@ -20251,10 +20247,10 @@
         <v>7</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D44" s="53" t="s">
         <v>201</v>
@@ -20294,16 +20290,16 @@
         <v>8</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D45" s="53" t="s">
+        <v>542</v>
+      </c>
+      <c r="E45" s="52" t="s">
         <v>543</v>
-      </c>
-      <c r="E45" s="52" t="s">
-        <v>544</v>
       </c>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
@@ -20339,10 +20335,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D46" s="53" t="s">
         <v>202</v>
@@ -20384,10 +20380,10 @@
         <v>10</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D47" s="53" t="s">
         <v>202</v>
@@ -20432,7 +20428,7 @@
         <v>321</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D48" s="53" t="s">
         <v>202</v>
@@ -20477,7 +20473,7 @@
         <v>57</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>201</v>
@@ -20520,7 +20516,7 @@
         <v>58</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D50" s="53" t="s">
         <v>200</v>
@@ -20579,7 +20575,7 @@
       <c r="I54" s="106"/>
       <c r="J54" s="106"/>
       <c r="K54" s="135" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="L54" s="11" t="str">
         <f>"-- "&amp;C55</f>
@@ -20610,7 +20606,7 @@
       </c>
       <c r="B55" s="138"/>
       <c r="C55" s="139" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D55" s="140"/>
       <c r="E55" s="137" t="s">
@@ -20811,7 +20807,7 @@
         <v>204</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>201</v>
@@ -20859,10 +20855,10 @@
         <v>2</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>201</v>
@@ -20904,10 +20900,10 @@
         <v>3</v>
       </c>
       <c r="B62" s="56" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D62" s="53" t="s">
         <v>201</v>
@@ -20949,10 +20945,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D63" s="53" t="s">
         <v>203</v>
@@ -20966,7 +20962,7 @@
       <c r="I63" s="54"/>
       <c r="J63" s="52"/>
       <c r="K63" s="55" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="L63" s="11" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20996,16 +20992,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D64" s="53" t="s">
+        <v>542</v>
+      </c>
+      <c r="E64" s="52" t="s">
         <v>543</v>
-      </c>
-      <c r="E64" s="52" t="s">
-        <v>544</v>
       </c>
       <c r="F64" s="54"/>
       <c r="G64" s="54"/>
@@ -21041,16 +21037,16 @@
         <v>6</v>
       </c>
       <c r="B65" s="56" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D65" s="53" t="s">
+        <v>542</v>
+      </c>
+      <c r="E65" s="52" t="s">
         <v>543</v>
-      </c>
-      <c r="E65" s="52" t="s">
-        <v>544</v>
       </c>
       <c r="F65" s="54"/>
       <c r="G65" s="54"/>
@@ -21086,10 +21082,10 @@
         <v>7</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D66" s="53" t="s">
         <v>201</v>
@@ -21129,10 +21125,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D67" s="53" t="s">
         <v>200</v>
@@ -21172,10 +21168,10 @@
         <v>9</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D68" s="53" t="s">
         <v>201</v>
@@ -21215,10 +21211,10 @@
         <v>11</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D69" s="53" t="s">
         <v>202</v>
@@ -21263,7 +21259,7 @@
         <v>321</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D70" s="53" t="s">
         <v>202</v>
@@ -21308,7 +21304,7 @@
         <v>57</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>201</v>
@@ -21351,7 +21347,7 @@
         <v>58</v>
       </c>
       <c r="C72" s="52" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D72" s="53" t="s">
         <v>200</v>
@@ -21410,7 +21406,7 @@
       <c r="I75" s="126"/>
       <c r="J75" s="126"/>
       <c r="K75" s="135" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="L75" s="11" t="str">
         <f>"-- "&amp;C76</f>
@@ -21441,7 +21437,7 @@
       </c>
       <c r="B76" s="138"/>
       <c r="C76" s="139" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D76" s="140"/>
       <c r="E76" s="137" t="s">
@@ -21639,10 +21635,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>201</v>
@@ -21690,10 +21686,10 @@
         <v>2</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>201</v>
@@ -21735,10 +21731,10 @@
         <v>3</v>
       </c>
       <c r="B83" s="56" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D83" s="53" t="s">
         <v>201</v>
@@ -21780,16 +21776,16 @@
         <v>4</v>
       </c>
       <c r="B84" s="56" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D84" s="53" t="s">
+        <v>542</v>
+      </c>
+      <c r="E84" s="52" t="s">
         <v>543</v>
-      </c>
-      <c r="E84" s="52" t="s">
-        <v>544</v>
       </c>
       <c r="F84" s="54"/>
       <c r="G84" s="54"/>
@@ -21830,7 +21826,7 @@
         <v>57</v>
       </c>
       <c r="C85" s="52" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>201</v>
@@ -21873,7 +21869,7 @@
         <v>58</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D86" s="53" t="s">
         <v>200</v>
@@ -21977,8 +21973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22015,7 +22011,7 @@
       <c r="I1" s="111"/>
       <c r="J1" s="111"/>
       <c r="K1" s="135" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="L1" s="11" t="str">
         <f>"-- "&amp;C2</f>
@@ -22028,7 +22024,7 @@
       </c>
       <c r="B2" s="138"/>
       <c r="C2" s="139" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D2" s="140"/>
       <c r="E2" s="137" t="s">
@@ -22139,7 +22135,7 @@
         <v>204</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>201</v>
@@ -22172,7 +22168,7 @@
         <v>210</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>202</v>
@@ -22201,7 +22197,7 @@
         <v>212</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>202</v>
@@ -22225,10 +22221,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D10" s="53" t="s">
         <v>202</v>
@@ -22255,7 +22251,7 @@
         <v>214</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>203</v>
@@ -22282,7 +22278,7 @@
         <v>216</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D12" s="53" t="s">
         <v>201</v>
@@ -22304,10 +22300,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>200</v>
@@ -22332,7 +22328,7 @@
         <v>273</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D14" s="68" t="s">
         <v>200</v>
@@ -22357,7 +22353,7 @@
         <v>321</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D15" s="68" t="s">
         <v>202</v>
@@ -22381,10 +22377,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D16" s="68" t="s">
         <v>201</v>
@@ -22425,7 +22421,7 @@
       <c r="I18" s="111"/>
       <c r="J18" s="111"/>
       <c r="K18" s="135" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="L18" s="11" t="str">
         <f>"-- "&amp;C19</f>
@@ -22438,7 +22434,7 @@
       </c>
       <c r="B19" s="138"/>
       <c r="C19" s="139" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D19" s="140"/>
       <c r="E19" s="137" t="s">
@@ -22549,7 +22545,7 @@
         <v>204</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>201</v>
@@ -22582,7 +22578,7 @@
         <v>229</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>202</v>
@@ -22611,7 +22607,7 @@
         <v>230</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D26" s="53" t="s">
         <v>202</v>
@@ -22638,7 +22634,7 @@
         <v>231</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D27" s="53" t="s">
         <v>203</v>
@@ -22665,7 +22661,7 @@
         <v>232</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D28" s="53" t="s">
         <v>201</v>
@@ -22690,7 +22686,7 @@
         <v>233</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D29" s="53" t="s">
         <v>202</v>
@@ -22717,7 +22713,7 @@
         <v>234</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D30" s="53" t="s">
         <v>201</v>
@@ -22742,7 +22738,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D31" s="52" t="s">
         <v>20</v>
@@ -22767,7 +22763,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D32" s="53" t="s">
         <v>200</v>
@@ -22808,7 +22804,7 @@
       <c r="I34" s="115"/>
       <c r="J34" s="115"/>
       <c r="K34" s="135" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="L34" s="11" t="str">
         <f>"-- "&amp;C35</f>
@@ -22821,7 +22817,7 @@
       </c>
       <c r="B35" s="138"/>
       <c r="C35" s="139" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D35" s="140"/>
       <c r="E35" s="137" t="s">
@@ -22932,7 +22928,7 @@
         <v>204</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>201</v>
@@ -22965,7 +22961,7 @@
         <v>242</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>202</v>
@@ -22994,7 +22990,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D42" s="53" t="s">
         <v>202</v>
@@ -23021,7 +23017,7 @@
         <v>57</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D43" s="53" t="s">
         <v>201</v>
@@ -23046,7 +23042,7 @@
         <v>58</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D44" s="53" t="s">
         <v>200</v>
@@ -23087,7 +23083,7 @@
       <c r="I46" s="115"/>
       <c r="J46" s="115"/>
       <c r="K46" s="135" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="L46" s="11" t="str">
         <f>"-- "&amp;C47</f>
@@ -23100,7 +23096,7 @@
       </c>
       <c r="B47" s="138"/>
       <c r="C47" s="139" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D47" s="140"/>
       <c r="E47" s="137" t="s">
@@ -23211,7 +23207,7 @@
         <v>246</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>201</v>
@@ -23240,7 +23236,7 @@
         <v>247</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>201</v>
@@ -23269,7 +23265,7 @@
         <v>248</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D54" s="53" t="s">
         <v>200</v>
@@ -23313,7 +23309,7 @@
       <c r="I57" s="115"/>
       <c r="J57" s="115"/>
       <c r="K57" s="135" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="L57" s="11" t="str">
         <f>"-- "&amp;C58</f>
@@ -23326,7 +23322,7 @@
       </c>
       <c r="B58" s="138"/>
       <c r="C58" s="139" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D58" s="140"/>
       <c r="E58" s="137" t="s">
@@ -23437,7 +23433,7 @@
         <v>246</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>201</v>
@@ -23466,7 +23462,7 @@
         <v>249</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>201</v>
@@ -23495,7 +23491,7 @@
         <v>248</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D65" s="53" t="s">
         <v>200</v>
@@ -23550,7 +23546,7 @@
       <c r="I68" s="115"/>
       <c r="J68" s="115"/>
       <c r="K68" s="135" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="L68" s="11" t="str">
         <f>"-- "&amp;C69</f>
@@ -23563,7 +23559,7 @@
       </c>
       <c r="B69" s="138"/>
       <c r="C69" s="139" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D69" s="140"/>
       <c r="E69" s="137" t="s">
@@ -23674,7 +23670,7 @@
         <v>251</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>201</v>
@@ -23703,14 +23699,14 @@
         <v>252</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>201</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="117" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
@@ -23732,7 +23728,7 @@
         <v>253</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D76" s="53" t="s">
         <v>200</v>
@@ -23773,7 +23769,7 @@
       <c r="I78" s="133"/>
       <c r="J78" s="133"/>
       <c r="K78" s="135" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="L78" s="11" t="str">
         <f>"-- "&amp;C79</f>
@@ -23786,7 +23782,7 @@
       </c>
       <c r="B79" s="138"/>
       <c r="C79" s="139" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D79" s="140"/>
       <c r="E79" s="137" t="s">
@@ -23894,10 +23890,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>201</v>
@@ -23927,10 +23923,10 @@
         <v>2</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>202</v>
@@ -23956,10 +23952,10 @@
         <v>3</v>
       </c>
       <c r="B86" s="56" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D86" s="53" t="s">
         <v>201</v>
@@ -23981,10 +23977,10 @@
         <v>4</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D87" s="53" t="s">
         <v>201</v>
@@ -24006,10 +24002,10 @@
         <v>5</v>
       </c>
       <c r="B88" s="56" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D88" s="53" t="s">
         <v>201</v>
@@ -24031,10 +24027,10 @@
         <v>6</v>
       </c>
       <c r="B89" s="56" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D89" s="53" t="s">
         <v>201</v>
@@ -24056,10 +24052,10 @@
         <v>8</v>
       </c>
       <c r="B90" s="82" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D90" s="53" t="s">
         <v>201</v>
@@ -24081,10 +24077,10 @@
         <v>9</v>
       </c>
       <c r="B91" s="82" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D91" s="53" t="s">
         <v>202</v>
@@ -24108,10 +24104,10 @@
         <v>10</v>
       </c>
       <c r="B92" s="82" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D92" s="53" t="s">
         <v>202</v>
@@ -24135,10 +24131,10 @@
         <v>11</v>
       </c>
       <c r="B93" s="82" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D93" s="53" t="s">
         <v>201</v>
@@ -24160,10 +24156,10 @@
         <v>12</v>
       </c>
       <c r="B94" s="82" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D94" s="53" t="s">
         <v>200</v>

--- a/document/crm数据结构.xlsx
+++ b/document/crm数据结构.xlsx
@@ -1661,10 +1661,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0:明文模式 1:加密模式 2:兼容模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1：微信 2：微博</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1828,10 +1824,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:关键字回复 2:默认回复 3：关注回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消息类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1840,19 +1832,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:图文信息 2:文字信息 3:图片信息 4:语音信息 5:视频信息 6:音乐信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加密类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WMG_AES_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1:加密 2:明文 3:兼容 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3048,307 +3032,323 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FWH_APP_SECRET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWH_REDERECT_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWH_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWH_ENCODING_AES_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWH_AES_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWH_APP_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWH_CUS_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWH_ACCOUNT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWH_ENTER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWH_DEFAULT_MSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWH_SUBSCRIBE_MSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWH_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWH_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWH_REGISTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWH_REGISTDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC_WEI_FUWUHAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppSecret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL(服务器回调地址)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token(令牌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncodingAESKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息加解密方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认回复消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注消息回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC_SHOP_ADMIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSA_USERNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC_SHOP_MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC_SHOP_ROLE_MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC_SHOP_ADMIN_MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSAM_MENU_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSAM_ADMIN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSRM_ROLE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSRM_MENU_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSA_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSR_REGISTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC_SHOP_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC_SHOP_DEPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应微信企业号通讯录中部门id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_PARENT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_ADMIN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_TXL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_REGISTDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_REGISTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSA_DEPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000:可用 2000:不可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC_WEI_MESSAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC_WEI_KEYWORD_MESSAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FWH_APP_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FWH_APP_SECRET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWH_REDERECT_URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWH_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWH_ENCODING_AES_KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWH_AES_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWH_APP_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWH_CUS_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWH_ACCOUNT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWH_ENTER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWH_DEFAULT_MSG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWH_SUBSCRIBE_MSG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWH_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWH_DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWH_REGISTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWH_REGISTDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WC_WEI_FUWUHAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppSecret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL(服务器回调地址)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token(令牌)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EncodingAESKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息加解密方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认回复消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注消息回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WC_SHOP_ADMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSA_USERNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WC_SHOP_MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WC_SHOP_ROLE_MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WC_SHOP_ADMIN_MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSAM_MENU_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSAM_ADMIN_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSRM_ROLE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSRM_MENU_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSA_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSR_REGISTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WC_SHOP_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WC_SHOP_DEPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织机构表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应微信企业号通讯录中部门id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDP_LEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDP_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDP_PARENT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDP_ADMIN_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDP_TXL_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDP_REGISTDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDP_DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDP_REGISTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDP_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDP_ORDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSA_DEPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000:可用 2000:不可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WC_WEI_MESSAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WC_WEI_KEYWORD_MESSAGE</t>
+    <t>1:关键字回复 2:默认回复 3：关注回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:图文信息 2:文字信息 3:图片信息 4:语音信息 5:视频信息 6:音乐信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:明文模式 1:加密模式 2:兼容模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1:加密 2:明文 3:兼容 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4089,22 +4089,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4116,14 +4110,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4139,6 +4133,12 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4475,10 +4475,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="138"/>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="140"/>
+      <c r="D1" s="136"/>
       <c r="E1" s="137" t="s">
         <v>12</v>
       </c>
@@ -4487,8 +4487,8 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="135" t="s">
-        <v>698</v>
+      <c r="K1" s="142" t="s">
+        <v>694</v>
       </c>
       <c r="L1" s="11" t="str">
         <f>"-- "&amp;C2</f>
@@ -4518,10 +4518,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="138"/>
-      <c r="C2" s="139" t="s">
-        <v>522</v>
-      </c>
-      <c r="D2" s="140"/>
+      <c r="C2" s="135" t="s">
+        <v>518</v>
+      </c>
+      <c r="D2" s="136"/>
       <c r="E2" s="137" t="s">
         <v>13</v>
       </c>
@@ -4530,7 +4530,7 @@
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="136"/>
+      <c r="K2" s="143"/>
       <c r="L2" s="11" t="str">
         <f>"-- "&amp;C3</f>
         <v>-- 这个表相当于微信企业表 用它和管理员做关联</v>
@@ -4559,17 +4559,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="138"/>
-      <c r="C3" s="141" t="s">
-        <v>506</v>
-      </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
+      <c r="C3" s="139" t="s">
+        <v>502</v>
+      </c>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="141"/>
       <c r="L3" s="49"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -4722,7 +4722,7 @@
         <v>204</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>201</v>
@@ -4770,10 +4770,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>202</v>
@@ -4820,7 +4820,7 @@
         <v>277</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>202</v>
@@ -5045,7 +5045,7 @@
         <v>286</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>201</v>
@@ -5085,13 +5085,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D15" s="100" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E15" s="100">
         <v>10</v>
@@ -5130,10 +5130,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D16" s="100" t="s">
         <v>203</v>
@@ -5282,10 +5282,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="138"/>
-      <c r="C25" s="139" t="s">
+      <c r="C25" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="140"/>
+      <c r="D25" s="136"/>
       <c r="E25" s="137" t="s">
         <v>12</v>
       </c>
@@ -5294,7 +5294,7 @@
       <c r="H25" s="61"/>
       <c r="I25" s="61"/>
       <c r="J25" s="61"/>
-      <c r="K25" s="135" t="s">
+      <c r="K25" s="142" t="s">
         <v>272</v>
       </c>
       <c r="L25" s="11" t="str">
@@ -5307,10 +5307,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="138"/>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="D26" s="140"/>
+      <c r="D26" s="136"/>
       <c r="E26" s="137" t="s">
         <v>13</v>
       </c>
@@ -5319,7 +5319,7 @@
       <c r="H26" s="61"/>
       <c r="I26" s="61"/>
       <c r="J26" s="61"/>
-      <c r="K26" s="136"/>
+      <c r="K26" s="143"/>
       <c r="L26" s="11" t="str">
         <f>"-- "&amp;C27</f>
         <v xml:space="preserve">-- </v>
@@ -5330,15 +5330,15 @@
         <v>1</v>
       </c>
       <c r="B27" s="138"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="143"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="141"/>
       <c r="L27" s="49"/>
     </row>
     <row r="28" spans="1:30">
@@ -5449,7 +5449,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>262</v>
@@ -5481,7 +5481,7 @@
         <v>212</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D33" s="53" t="s">
         <v>202</v>
@@ -5508,7 +5508,7 @@
         <v>213</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D34" s="53" t="s">
         <v>202</v>
@@ -5535,7 +5535,7 @@
         <v>214</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D35" s="53" t="s">
         <v>203</v>
@@ -5562,7 +5562,7 @@
         <v>216</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D36" s="53" t="s">
         <v>201</v>
@@ -5634,10 +5634,10 @@
         <v>9</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D39" s="68" t="s">
         <v>202</v>
@@ -5683,10 +5683,10 @@
         <v>11</v>
       </c>
       <c r="B42" s="138"/>
-      <c r="C42" s="139" t="s">
+      <c r="C42" s="135" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="140"/>
+      <c r="D42" s="136"/>
       <c r="E42" s="137" t="s">
         <v>12</v>
       </c>
@@ -5695,8 +5695,8 @@
       <c r="H42" s="61"/>
       <c r="I42" s="61"/>
       <c r="J42" s="61"/>
-      <c r="K42" s="135" t="s">
-        <v>575</v>
+      <c r="K42" s="142" t="s">
+        <v>571</v>
       </c>
       <c r="L42" s="11" t="str">
         <f>"-- "&amp;C43</f>
@@ -5708,10 +5708,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="138"/>
-      <c r="C43" s="139" t="s">
+      <c r="C43" s="135" t="s">
         <v>217</v>
       </c>
-      <c r="D43" s="140"/>
+      <c r="D43" s="136"/>
       <c r="E43" s="137" t="s">
         <v>13</v>
       </c>
@@ -5720,7 +5720,7 @@
       <c r="H43" s="61"/>
       <c r="I43" s="61"/>
       <c r="J43" s="61"/>
-      <c r="K43" s="136"/>
+      <c r="K43" s="143"/>
       <c r="L43" s="11" t="str">
         <f>"-- "&amp;C44</f>
         <v xml:space="preserve">-- </v>
@@ -5731,15 +5731,15 @@
         <v>1</v>
       </c>
       <c r="B44" s="138"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="142"/>
-      <c r="J44" s="142"/>
-      <c r="K44" s="143"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="141"/>
       <c r="L44" s="49"/>
     </row>
     <row r="45" spans="1:12">
@@ -5962,10 +5962,10 @@
         <v>11</v>
       </c>
       <c r="B54" s="138"/>
-      <c r="C54" s="139" t="s">
+      <c r="C54" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="D54" s="140"/>
+      <c r="D54" s="136"/>
       <c r="E54" s="137" t="s">
         <v>12</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="H54" s="61"/>
       <c r="I54" s="61"/>
       <c r="J54" s="61"/>
-      <c r="K54" s="135" t="s">
+      <c r="K54" s="142" t="s">
         <v>263</v>
       </c>
       <c r="L54" s="11" t="str">
@@ -5987,10 +5987,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="138"/>
-      <c r="C55" s="139" t="s">
+      <c r="C55" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="D55" s="140"/>
+      <c r="D55" s="136"/>
       <c r="E55" s="137" t="s">
         <v>13</v>
       </c>
@@ -5999,7 +5999,7 @@
       <c r="H55" s="61"/>
       <c r="I55" s="61"/>
       <c r="J55" s="61"/>
-      <c r="K55" s="136"/>
+      <c r="K55" s="143"/>
       <c r="L55" s="11" t="str">
         <f>"-- "&amp;C56</f>
         <v xml:space="preserve">-- </v>
@@ -6010,15 +6010,15 @@
         <v>1</v>
       </c>
       <c r="B56" s="138"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="142"/>
-      <c r="I56" s="142"/>
-      <c r="J56" s="142"/>
-      <c r="K56" s="143"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="140"/>
+      <c r="K56" s="141"/>
       <c r="L56" s="49"/>
     </row>
     <row r="57" spans="1:12">
@@ -6157,7 +6157,7 @@
         <v>248</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D62" s="53" t="s">
         <v>200</v>
@@ -6185,10 +6185,10 @@
         <v>11</v>
       </c>
       <c r="B64" s="138"/>
-      <c r="C64" s="139" t="s">
+      <c r="C64" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="D64" s="140"/>
+      <c r="D64" s="136"/>
       <c r="E64" s="137" t="s">
         <v>12</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="H64" s="61"/>
       <c r="I64" s="61"/>
       <c r="J64" s="61"/>
-      <c r="K64" s="135" t="s">
+      <c r="K64" s="142" t="s">
         <v>256</v>
       </c>
       <c r="L64" s="11" t="str">
@@ -6210,10 +6210,10 @@
         <v>0</v>
       </c>
       <c r="B65" s="138"/>
-      <c r="C65" s="139" t="s">
+      <c r="C65" s="135" t="s">
         <v>224</v>
       </c>
-      <c r="D65" s="140"/>
+      <c r="D65" s="136"/>
       <c r="E65" s="137" t="s">
         <v>13</v>
       </c>
@@ -6222,7 +6222,7 @@
       <c r="H65" s="61"/>
       <c r="I65" s="61"/>
       <c r="J65" s="61"/>
-      <c r="K65" s="136"/>
+      <c r="K65" s="143"/>
       <c r="L65" s="11" t="str">
         <f>"-- "&amp;C66</f>
         <v xml:space="preserve">-- </v>
@@ -6233,15 +6233,15 @@
         <v>1</v>
       </c>
       <c r="B66" s="138"/>
-      <c r="C66" s="141"/>
-      <c r="D66" s="142"/>
-      <c r="E66" s="142"/>
-      <c r="F66" s="142"/>
-      <c r="G66" s="142"/>
-      <c r="H66" s="142"/>
-      <c r="I66" s="142"/>
-      <c r="J66" s="142"/>
-      <c r="K66" s="143"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="140"/>
+      <c r="E66" s="140"/>
+      <c r="F66" s="140"/>
+      <c r="G66" s="140"/>
+      <c r="H66" s="140"/>
+      <c r="I66" s="140"/>
+      <c r="J66" s="140"/>
+      <c r="K66" s="141"/>
       <c r="L66" s="49"/>
     </row>
     <row r="67" spans="1:12">
@@ -6408,10 +6408,10 @@
         <v>11</v>
       </c>
       <c r="B74" s="138"/>
-      <c r="C74" s="139" t="s">
+      <c r="C74" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="140"/>
+      <c r="D74" s="136"/>
       <c r="E74" s="137" t="s">
         <v>12</v>
       </c>
@@ -6420,7 +6420,7 @@
       <c r="H74" s="61"/>
       <c r="I74" s="61"/>
       <c r="J74" s="61"/>
-      <c r="K74" s="135" t="s">
+      <c r="K74" s="142" t="s">
         <v>265</v>
       </c>
       <c r="L74" s="11" t="str">
@@ -6433,10 +6433,10 @@
         <v>0</v>
       </c>
       <c r="B75" s="138"/>
-      <c r="C75" s="139" t="s">
+      <c r="C75" s="135" t="s">
         <v>222</v>
       </c>
-      <c r="D75" s="140"/>
+      <c r="D75" s="136"/>
       <c r="E75" s="137" t="s">
         <v>13</v>
       </c>
@@ -6445,7 +6445,7 @@
       <c r="H75" s="61"/>
       <c r="I75" s="61"/>
       <c r="J75" s="61"/>
-      <c r="K75" s="136"/>
+      <c r="K75" s="143"/>
       <c r="L75" s="11" t="str">
         <f>"-- "&amp;C76</f>
         <v xml:space="preserve">-- </v>
@@ -6456,15 +6456,15 @@
         <v>1</v>
       </c>
       <c r="B76" s="138"/>
-      <c r="C76" s="141"/>
-      <c r="D76" s="142"/>
-      <c r="E76" s="142"/>
-      <c r="F76" s="142"/>
-      <c r="G76" s="142"/>
-      <c r="H76" s="142"/>
-      <c r="I76" s="142"/>
-      <c r="J76" s="142"/>
-      <c r="K76" s="143"/>
+      <c r="C76" s="139"/>
+      <c r="D76" s="140"/>
+      <c r="E76" s="140"/>
+      <c r="F76" s="140"/>
+      <c r="G76" s="140"/>
+      <c r="H76" s="140"/>
+      <c r="I76" s="140"/>
+      <c r="J76" s="140"/>
+      <c r="K76" s="141"/>
       <c r="L76" s="49"/>
     </row>
     <row r="77" spans="1:12">
@@ -6791,10 +6791,10 @@
         <v>11</v>
       </c>
       <c r="B90" s="138"/>
-      <c r="C90" s="139" t="s">
+      <c r="C90" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="D90" s="140"/>
+      <c r="D90" s="136"/>
       <c r="E90" s="137" t="s">
         <v>12</v>
       </c>
@@ -6803,7 +6803,7 @@
       <c r="H90" s="61"/>
       <c r="I90" s="61"/>
       <c r="J90" s="61"/>
-      <c r="K90" s="135" t="s">
+      <c r="K90" s="142" t="s">
         <v>257</v>
       </c>
       <c r="L90" s="11" t="str">
@@ -6816,10 +6816,10 @@
         <v>0</v>
       </c>
       <c r="B91" s="138"/>
-      <c r="C91" s="139" t="s">
+      <c r="C91" s="135" t="s">
         <v>223</v>
       </c>
-      <c r="D91" s="140"/>
+      <c r="D91" s="136"/>
       <c r="E91" s="137" t="s">
         <v>13</v>
       </c>
@@ -6828,7 +6828,7 @@
       <c r="H91" s="61"/>
       <c r="I91" s="61"/>
       <c r="J91" s="61"/>
-      <c r="K91" s="136"/>
+      <c r="K91" s="143"/>
       <c r="L91" s="11" t="str">
         <f>"-- "&amp;C92</f>
         <v xml:space="preserve">-- </v>
@@ -6839,15 +6839,15 @@
         <v>1</v>
       </c>
       <c r="B92" s="138"/>
-      <c r="C92" s="141"/>
-      <c r="D92" s="142"/>
-      <c r="E92" s="142"/>
-      <c r="F92" s="142"/>
-      <c r="G92" s="142"/>
-      <c r="H92" s="142"/>
-      <c r="I92" s="142"/>
-      <c r="J92" s="142"/>
-      <c r="K92" s="143"/>
+      <c r="C92" s="139"/>
+      <c r="D92" s="140"/>
+      <c r="E92" s="140"/>
+      <c r="F92" s="140"/>
+      <c r="G92" s="140"/>
+      <c r="H92" s="140"/>
+      <c r="I92" s="140"/>
+      <c r="J92" s="140"/>
+      <c r="K92" s="141"/>
       <c r="L92" s="49"/>
     </row>
     <row r="93" spans="1:12">
@@ -7011,19 +7011,40 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:K76"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:K92"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="K90:K91"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="C56:K56"/>
     <mergeCell ref="A74:B74"/>
@@ -7040,40 +7061,19 @@
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="K64:K65"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:K76"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -7118,18 +7118,18 @@
         <v>11</v>
       </c>
       <c r="B1" s="138"/>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="149" t="s">
+      <c r="D1" s="146"/>
+      <c r="E1" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="149"/>
+      <c r="F1" s="147"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="148" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="12" t="str">
@@ -7160,18 +7160,18 @@
         <v>0</v>
       </c>
       <c r="B2" s="138"/>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="148"/>
-      <c r="E2" s="149" t="s">
+      <c r="D2" s="146"/>
+      <c r="E2" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="149"/>
+      <c r="F2" s="147"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="151"/>
+      <c r="J2" s="149"/>
       <c r="K2" s="12" t="str">
         <f>"/*"&amp;C3&amp;"*/"</f>
         <v>/*用于记录合同主体信息*/</v>
@@ -7200,16 +7200,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="138"/>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
       <c r="K3" s="23" t="str">
         <f>"if exists (select * from sysobjects where id = object_id(N'["&amp;J1&amp;"]') and OBJECTPROPERTY(id, N'IsUserTable')= 1)"</f>
         <v>if exists (select * from sysobjects where id = object_id(N'[LZ_CONTRACT_MAIN]') and OBJECTPROPERTY(id, N'IsUserTable')= 1)</v>
@@ -8335,18 +8335,18 @@
         <v>11</v>
       </c>
       <c r="B29" s="144"/>
-      <c r="C29" s="147" t="s">
+      <c r="C29" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="148"/>
-      <c r="E29" s="149" t="s">
+      <c r="D29" s="146"/>
+      <c r="E29" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="149"/>
+      <c r="F29" s="147"/>
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
-      <c r="J29" s="150" t="s">
+      <c r="J29" s="148" t="s">
         <v>39</v>
       </c>
       <c r="K29" s="12" t="str">
@@ -8377,18 +8377,18 @@
         <v>0</v>
       </c>
       <c r="B30" s="144"/>
-      <c r="C30" s="147" t="s">
+      <c r="C30" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="148"/>
-      <c r="E30" s="149" t="s">
+      <c r="D30" s="146"/>
+      <c r="E30" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="149"/>
+      <c r="F30" s="147"/>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
-      <c r="J30" s="151"/>
+      <c r="J30" s="149"/>
       <c r="K30" s="12" t="str">
         <f>"/*"&amp;C31&amp;"*/"</f>
         <v>/*用于记录合同明细信息*/</v>
@@ -8417,16 +8417,16 @@
         <v>1</v>
       </c>
       <c r="B31" s="144"/>
-      <c r="C31" s="145" t="s">
+      <c r="C31" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
       <c r="K31" s="36" t="str">
         <f>"if exists (select * from sysobjects where id = object_id(N'["&amp;J29&amp;"]') and OBJECTPROPERTY(id, N'IsUserTable')= 1)"</f>
         <v>if exists (select * from sysobjects where id = object_id(N'[LZ_CONTRACT_DETAIL]') and OBJECTPROPERTY(id, N'IsUserTable')= 1)</v>
@@ -9322,18 +9322,18 @@
         <v>11</v>
       </c>
       <c r="B52" s="144"/>
-      <c r="C52" s="147" t="s">
+      <c r="C52" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="148"/>
-      <c r="E52" s="149" t="s">
+      <c r="D52" s="146"/>
+      <c r="E52" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="149"/>
+      <c r="F52" s="147"/>
       <c r="G52" s="31"/>
       <c r="H52" s="31"/>
       <c r="I52" s="31"/>
-      <c r="J52" s="150" t="s">
+      <c r="J52" s="148" t="s">
         <v>70</v>
       </c>
       <c r="K52" s="12" t="str">
@@ -9364,18 +9364,18 @@
         <v>0</v>
       </c>
       <c r="B53" s="144"/>
-      <c r="C53" s="147" t="s">
+      <c r="C53" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="148"/>
-      <c r="E53" s="149" t="s">
+      <c r="D53" s="146"/>
+      <c r="E53" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="149"/>
+      <c r="F53" s="147"/>
       <c r="G53" s="31"/>
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
-      <c r="J53" s="151"/>
+      <c r="J53" s="149"/>
       <c r="K53" s="12" t="str">
         <f>"/*"&amp;C54&amp;"*/"</f>
         <v>/*用于记录产品套餐信息*/</v>
@@ -9404,16 +9404,16 @@
         <v>1</v>
       </c>
       <c r="B54" s="144"/>
-      <c r="C54" s="145" t="s">
+      <c r="C54" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="146"/>
-      <c r="E54" s="146"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="146"/>
-      <c r="J54" s="146"/>
+      <c r="D54" s="151"/>
+      <c r="E54" s="151"/>
+      <c r="F54" s="151"/>
+      <c r="G54" s="151"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="151"/>
       <c r="K54" s="36" t="str">
         <f>"if exists (select * from sysobjects where id = object_id(N'["&amp;J52&amp;"]') and OBJECTPROPERTY(id, N'IsUserTable')= 1)"</f>
         <v>if exists (select * from sysobjects where id = object_id(N'[LZ_PRODUCTPACKAGE_INFO]') and OBJECTPROPERTY(id, N'IsUserTable')= 1)</v>
@@ -10233,18 +10233,18 @@
         <v>11</v>
       </c>
       <c r="B74" s="144"/>
-      <c r="C74" s="147" t="s">
+      <c r="C74" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="D74" s="148"/>
-      <c r="E74" s="149" t="s">
+      <c r="D74" s="146"/>
+      <c r="E74" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="149"/>
+      <c r="F74" s="147"/>
       <c r="G74" s="31"/>
       <c r="H74" s="31"/>
       <c r="I74" s="31"/>
-      <c r="J74" s="150" t="s">
+      <c r="J74" s="148" t="s">
         <v>101</v>
       </c>
       <c r="K74" s="12" t="str">
@@ -10275,18 +10275,18 @@
         <v>0</v>
       </c>
       <c r="B75" s="144"/>
-      <c r="C75" s="147" t="s">
+      <c r="C75" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="D75" s="148"/>
-      <c r="E75" s="149" t="s">
+      <c r="D75" s="146"/>
+      <c r="E75" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="149"/>
+      <c r="F75" s="147"/>
       <c r="G75" s="31"/>
       <c r="H75" s="31"/>
       <c r="I75" s="31"/>
-      <c r="J75" s="151"/>
+      <c r="J75" s="149"/>
       <c r="K75" s="12" t="str">
         <f>"/*"&amp;C76&amp;"*/"</f>
         <v>/*字典表,记录所有的套餐类型*/</v>
@@ -10315,16 +10315,16 @@
         <v>1</v>
       </c>
       <c r="B76" s="144"/>
-      <c r="C76" s="145" t="s">
+      <c r="C76" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="D76" s="146"/>
-      <c r="E76" s="146"/>
-      <c r="F76" s="146"/>
-      <c r="G76" s="146"/>
-      <c r="H76" s="146"/>
-      <c r="I76" s="146"/>
-      <c r="J76" s="146"/>
+      <c r="D76" s="151"/>
+      <c r="E76" s="151"/>
+      <c r="F76" s="151"/>
+      <c r="G76" s="151"/>
+      <c r="H76" s="151"/>
+      <c r="I76" s="151"/>
+      <c r="J76" s="151"/>
       <c r="K76" s="36" t="str">
         <f>"if exists (select * from sysobjects where id = object_id(N'["&amp;J74&amp;"]') and OBJECTPROPERTY(id, N'IsUserTable')= 1)"</f>
         <v>if exists (select * from sysobjects where id = object_id(N'[LZ_PRODUCTPACKAGE_TYPE]') and OBJECTPROPERTY(id, N'IsUserTable')= 1)</v>
@@ -10849,18 +10849,18 @@
         <v>11</v>
       </c>
       <c r="B89" s="138"/>
-      <c r="C89" s="147" t="s">
+      <c r="C89" s="145" t="s">
         <v>106</v>
       </c>
-      <c r="D89" s="148"/>
-      <c r="E89" s="149" t="s">
+      <c r="D89" s="146"/>
+      <c r="E89" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="149"/>
+      <c r="F89" s="147"/>
       <c r="G89" s="31"/>
       <c r="H89" s="31"/>
       <c r="I89" s="31"/>
-      <c r="J89" s="150" t="s">
+      <c r="J89" s="148" t="s">
         <v>120</v>
       </c>
       <c r="K89" s="12" t="str">
@@ -10891,18 +10891,18 @@
         <v>0</v>
       </c>
       <c r="B90" s="138"/>
-      <c r="C90" s="147" t="s">
+      <c r="C90" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="D90" s="148"/>
-      <c r="E90" s="149" t="s">
+      <c r="D90" s="146"/>
+      <c r="E90" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="149"/>
+      <c r="F90" s="147"/>
       <c r="G90" s="31"/>
       <c r="H90" s="31"/>
       <c r="I90" s="31"/>
-      <c r="J90" s="151"/>
+      <c r="J90" s="149"/>
       <c r="K90" s="12" t="str">
         <f>"/*"&amp;C91&amp;"*/"</f>
         <v>/**/</v>
@@ -10931,14 +10931,14 @@
         <v>1</v>
       </c>
       <c r="B91" s="138"/>
-      <c r="C91" s="145"/>
-      <c r="D91" s="146"/>
-      <c r="E91" s="146"/>
-      <c r="F91" s="146"/>
-      <c r="G91" s="146"/>
-      <c r="H91" s="146"/>
-      <c r="I91" s="146"/>
-      <c r="J91" s="146"/>
+      <c r="C91" s="150"/>
+      <c r="D91" s="151"/>
+      <c r="E91" s="151"/>
+      <c r="F91" s="151"/>
+      <c r="G91" s="151"/>
+      <c r="H91" s="151"/>
+      <c r="I91" s="151"/>
+      <c r="J91" s="151"/>
       <c r="K91" s="36" t="str">
         <f>"if exists (select * from sysobjects where id = object_id(N'["&amp;J89&amp;"]') and OBJECTPROPERTY(id, N'IsUserTable')= 1)"</f>
         <v>if exists (select * from sysobjects where id = object_id(N'[LZ_PACKAGE_PRODUCT_REL]') and OBJECTPROPERTY(id, N'IsUserTable')= 1)</v>
@@ -11778,18 +11778,18 @@
         <v>11</v>
       </c>
       <c r="B111" s="138"/>
-      <c r="C111" s="147" t="s">
+      <c r="C111" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="D111" s="148"/>
-      <c r="E111" s="149" t="s">
+      <c r="D111" s="146"/>
+      <c r="E111" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="F111" s="149"/>
+      <c r="F111" s="147"/>
       <c r="G111" s="22"/>
       <c r="H111" s="22"/>
       <c r="I111" s="17"/>
-      <c r="J111" s="150" t="s">
+      <c r="J111" s="148" t="s">
         <v>198</v>
       </c>
       <c r="K111" s="12" t="str">
@@ -11820,18 +11820,18 @@
         <v>0</v>
       </c>
       <c r="B112" s="138"/>
-      <c r="C112" s="147" t="s">
+      <c r="C112" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="D112" s="148"/>
-      <c r="E112" s="149" t="s">
+      <c r="D112" s="146"/>
+      <c r="E112" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="149"/>
+      <c r="F112" s="147"/>
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
       <c r="I112" s="17"/>
-      <c r="J112" s="151"/>
+      <c r="J112" s="149"/>
       <c r="K112" s="12" t="str">
         <f>"/*"&amp;C113&amp;"*/"</f>
         <v>/**/</v>
@@ -11860,14 +11860,14 @@
         <v>1</v>
       </c>
       <c r="B113" s="138"/>
-      <c r="C113" s="145"/>
-      <c r="D113" s="146"/>
-      <c r="E113" s="146"/>
-      <c r="F113" s="146"/>
-      <c r="G113" s="146"/>
-      <c r="H113" s="146"/>
-      <c r="I113" s="146"/>
-      <c r="J113" s="146"/>
+      <c r="C113" s="150"/>
+      <c r="D113" s="151"/>
+      <c r="E113" s="151"/>
+      <c r="F113" s="151"/>
+      <c r="G113" s="151"/>
+      <c r="H113" s="151"/>
+      <c r="I113" s="151"/>
+      <c r="J113" s="151"/>
       <c r="K113" s="23" t="str">
         <f>"if exists (select * from sysobjects where id = object_id(N'["&amp;J111&amp;"]') and OBJECTPROPERTY(id, N'IsUserTable')= 1)"</f>
         <v>if exists (select * from sysobjects where id = object_id(N'[LZ_INF_PACKAGE]') and OBJECTPROPERTY(id, N'IsUserTable')= 1)</v>
@@ -12651,22 +12651,33 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:J113"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
     <mergeCell ref="A91:B91"/>
     <mergeCell ref="C91:J91"/>
     <mergeCell ref="A76:B76"/>
@@ -12678,33 +12689,22 @@
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:J113"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12738,10 +12738,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="138"/>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="135" t="s">
         <v>387</v>
       </c>
-      <c r="D1" s="140"/>
+      <c r="D1" s="136"/>
       <c r="E1" s="137" t="s">
         <v>12</v>
       </c>
@@ -12750,8 +12750,8 @@
       <c r="H1" s="94"/>
       <c r="I1" s="94"/>
       <c r="J1" s="94"/>
-      <c r="K1" s="135" t="s">
-        <v>695</v>
+      <c r="K1" s="142" t="s">
+        <v>691</v>
       </c>
       <c r="L1" s="11" t="str">
         <f>"-- "&amp;C2</f>
@@ -12764,9 +12764,9 @@
       </c>
       <c r="B2" s="138"/>
       <c r="C2" s="152" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2" s="140"/>
+        <v>505</v>
+      </c>
+      <c r="D2" s="136"/>
       <c r="E2" s="137" t="s">
         <v>13</v>
       </c>
@@ -12775,7 +12775,7 @@
       <c r="H2" s="94"/>
       <c r="I2" s="94"/>
       <c r="J2" s="94"/>
-      <c r="K2" s="136"/>
+      <c r="K2" s="143"/>
       <c r="L2" s="11" t="str">
         <f>"-- "&amp;C3</f>
         <v xml:space="preserve">-- </v>
@@ -12786,15 +12786,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="138"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="141"/>
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12">
@@ -12872,10 +12872,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D7" s="82" t="s">
         <v>44</v>
@@ -12887,7 +12887,7 @@
       <c r="G7" s="83"/>
       <c r="H7" s="82"/>
       <c r="I7" s="82" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J7" s="82"/>
       <c r="K7" s="55" t="s">
@@ -12903,10 +12903,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D8" s="82" t="s">
         <v>201</v>
@@ -12920,7 +12920,7 @@
         <v>68</v>
       </c>
       <c r="K8" s="55" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L8" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -12932,13 +12932,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E9" s="82"/>
       <c r="F9" s="82"/>
@@ -12946,10 +12946,10 @@
       <c r="H9" s="82"/>
       <c r="I9" s="82"/>
       <c r="J9" s="82" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K9" s="55" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L9" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -12961,10 +12961,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D10" s="82" t="s">
         <v>202</v>
@@ -12976,11 +12976,11 @@
       <c r="G10" s="83"/>
       <c r="H10" s="82"/>
       <c r="I10" s="82" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J10" s="82"/>
       <c r="K10" s="55" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L10" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -12992,10 +12992,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D11" s="82" t="s">
         <v>202</v>
@@ -13023,13 +13023,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E12" s="82">
         <v>20</v>
@@ -13040,7 +13040,7 @@
       <c r="I12" s="82"/>
       <c r="J12" s="82"/>
       <c r="K12" s="55" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L12" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -13055,7 +13055,7 @@
         <v>213</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D13" s="82" t="s">
         <v>202</v>
@@ -13079,10 +13079,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D14" s="82" t="s">
         <v>202</v>
@@ -13109,10 +13109,10 @@
         <v>321</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E15" s="82">
         <v>20</v>
@@ -13123,7 +13123,7 @@
       <c r="I15" s="82"/>
       <c r="J15" s="82"/>
       <c r="K15" s="55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L15" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -13138,10 +13138,10 @@
         <v>49</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E16" s="82">
         <v>200</v>
@@ -13167,7 +13167,7 @@
         <v>57</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D17" s="82" t="s">
         <v>44</v>
@@ -13192,7 +13192,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D18" s="82" t="s">
         <v>36</v>
@@ -13241,8 +13241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13266,10 +13266,10 @@
         <v>291</v>
       </c>
       <c r="B1" s="138"/>
-      <c r="C1" s="139" t="s">
-        <v>719</v>
-      </c>
-      <c r="D1" s="140"/>
+      <c r="C1" s="135" t="s">
+        <v>715</v>
+      </c>
+      <c r="D1" s="136"/>
       <c r="E1" s="137" t="s">
         <v>293</v>
       </c>
@@ -13278,8 +13278,8 @@
       <c r="H1" s="75"/>
       <c r="I1" s="75"/>
       <c r="J1" s="75"/>
-      <c r="K1" s="135" t="s">
-        <v>738</v>
+      <c r="K1" s="142" t="s">
+        <v>733</v>
       </c>
       <c r="L1" s="11" t="str">
         <f>"-- "&amp;C2</f>
@@ -13292,9 +13292,9 @@
       </c>
       <c r="B2" s="138"/>
       <c r="C2" s="152" t="s">
-        <v>464</v>
-      </c>
-      <c r="D2" s="140"/>
+        <v>460</v>
+      </c>
+      <c r="D2" s="136"/>
       <c r="E2" s="137" t="s">
         <v>297</v>
       </c>
@@ -13303,7 +13303,7 @@
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
       <c r="J2" s="75"/>
-      <c r="K2" s="136"/>
+      <c r="K2" s="143"/>
       <c r="L2" s="11" t="str">
         <f>"-- "&amp;C3</f>
         <v xml:space="preserve">-- </v>
@@ -13314,15 +13314,15 @@
         <v>298</v>
       </c>
       <c r="B3" s="138"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="141"/>
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12">
@@ -13400,10 +13400,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="128" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D7" s="82" t="s">
         <v>308</v>
@@ -13415,7 +13415,7 @@
       <c r="G7" s="83"/>
       <c r="H7" s="82"/>
       <c r="I7" s="82" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J7" s="82"/>
       <c r="K7" s="55" t="s">
@@ -13431,10 +13431,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="129" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D8" s="82" t="s">
         <v>202</v>
@@ -13460,10 +13460,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="129" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>722</v>
+        <v>793</v>
       </c>
       <c r="D9" s="82" t="s">
         <v>202</v>
@@ -13491,10 +13491,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="129" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D10" s="82" t="s">
         <v>202</v>
@@ -13522,10 +13522,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="129" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D11" s="82" t="s">
         <v>202</v>
@@ -13551,10 +13551,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="129" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D12" s="82" t="s">
         <v>202</v>
@@ -13580,10 +13580,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="129" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D13" s="82" t="s">
         <v>202</v>
@@ -13609,10 +13609,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="129" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D14" s="82" t="s">
         <v>203</v>
@@ -13626,7 +13626,7 @@
       <c r="I14" s="82"/>
       <c r="J14" s="82"/>
       <c r="K14" s="86" t="s">
-        <v>396</v>
+        <v>796</v>
       </c>
       <c r="L14" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -13638,10 +13638,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="129" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D15" s="82" t="s">
         <v>203</v>
@@ -13655,7 +13655,7 @@
       <c r="I15" s="82"/>
       <c r="J15" s="82"/>
       <c r="K15" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L15" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -13667,13 +13667,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="129" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E16" s="82">
         <v>1</v>
@@ -13684,7 +13684,7 @@
       <c r="I16" s="82"/>
       <c r="J16" s="82"/>
       <c r="K16" s="55" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L16" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -13696,13 +13696,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="129" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E17" s="82">
         <v>1</v>
@@ -13713,7 +13713,7 @@
       <c r="I17" s="82"/>
       <c r="J17" s="82"/>
       <c r="K17" s="55" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L17" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -13725,10 +13725,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="129" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C18" s="87" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D18" s="87" t="s">
         <v>308</v>
@@ -13740,7 +13740,7 @@
       <c r="I18" s="87"/>
       <c r="J18" s="87"/>
       <c r="K18" s="89" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L18" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -13752,10 +13752,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="129" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D19" s="67" t="s">
         <v>308</v>
@@ -13777,10 +13777,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="129" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D20" s="67" t="s">
         <v>201</v>
@@ -13802,13 +13802,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="129" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E21" s="82">
         <v>20</v>
@@ -13819,7 +13819,7 @@
       <c r="I21" s="82"/>
       <c r="J21" s="82"/>
       <c r="K21" s="55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L21" s="76" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -13831,13 +13831,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="129" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E22" s="82">
         <v>200</v>
@@ -13860,10 +13860,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="129" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D23" s="82" t="s">
         <v>308</v>
@@ -13885,13 +13885,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="129" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E24" s="82"/>
       <c r="F24" s="82"/>
@@ -13916,10 +13916,10 @@
         <v>291</v>
       </c>
       <c r="B26" s="138"/>
-      <c r="C26" s="139" t="s">
-        <v>431</v>
-      </c>
-      <c r="D26" s="140"/>
+      <c r="C26" s="135" t="s">
+        <v>430</v>
+      </c>
+      <c r="D26" s="136"/>
       <c r="E26" s="137" t="s">
         <v>293</v>
       </c>
@@ -13928,8 +13928,8 @@
       <c r="H26" s="75"/>
       <c r="I26" s="75"/>
       <c r="J26" s="75"/>
-      <c r="K26" s="135" t="s">
-        <v>796</v>
+      <c r="K26" s="142" t="s">
+        <v>791</v>
       </c>
       <c r="L26" s="11" t="str">
         <f>"-- "&amp;C27</f>
@@ -13942,9 +13942,9 @@
       </c>
       <c r="B27" s="138"/>
       <c r="C27" s="152" t="s">
-        <v>432</v>
-      </c>
-      <c r="D27" s="140"/>
+        <v>431</v>
+      </c>
+      <c r="D27" s="136"/>
       <c r="E27" s="137" t="s">
         <v>297</v>
       </c>
@@ -13953,7 +13953,7 @@
       <c r="H27" s="75"/>
       <c r="I27" s="75"/>
       <c r="J27" s="75"/>
-      <c r="K27" s="136"/>
+      <c r="K27" s="143"/>
       <c r="L27" s="11" t="str">
         <f>"-- "&amp;C28</f>
         <v xml:space="preserve">-- </v>
@@ -13964,15 +13964,15 @@
         <v>298</v>
       </c>
       <c r="B28" s="138"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="143"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="141"/>
       <c r="L28" s="49"/>
     </row>
     <row r="29" spans="1:12">
@@ -14053,7 +14053,7 @@
         <v>204</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D32" s="82" t="s">
         <v>308</v>
@@ -14065,7 +14065,7 @@
       <c r="G32" s="83"/>
       <c r="H32" s="82"/>
       <c r="I32" s="82" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J32" s="82"/>
       <c r="K32" s="55" t="s">
@@ -14081,10 +14081,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="129" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D33" s="67" t="s">
         <v>202</v>
@@ -14098,7 +14098,7 @@
       <c r="I33" s="67"/>
       <c r="J33" s="67"/>
       <c r="K33" s="70" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="L33" s="127" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -14110,10 +14110,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="129" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D34" s="82" t="s">
         <v>202</v>
@@ -14127,7 +14127,7 @@
       <c r="I34" s="82"/>
       <c r="J34" s="82"/>
       <c r="K34" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L34" s="76" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -14139,13 +14139,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="129" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D35" s="67" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E35" s="67">
         <v>2000</v>
@@ -14156,7 +14156,7 @@
       <c r="I35" s="67"/>
       <c r="J35" s="67"/>
       <c r="K35" s="70" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L35" s="76" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -14168,10 +14168,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C36" s="82" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D36" s="82" t="s">
         <v>203</v>
@@ -14185,7 +14185,7 @@
       <c r="I36" s="82"/>
       <c r="J36" s="82"/>
       <c r="K36" s="55" t="s">
-        <v>438</v>
+        <v>794</v>
       </c>
       <c r="L36" s="76" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -14197,10 +14197,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="129" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C37" s="82" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D37" s="82" t="s">
         <v>203</v>
@@ -14214,7 +14214,7 @@
       <c r="I37" s="82"/>
       <c r="J37" s="82"/>
       <c r="K37" s="55" t="s">
-        <v>441</v>
+        <v>795</v>
       </c>
       <c r="L37" s="76" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -14226,10 +14226,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="129" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C38" s="82" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D38" s="82" t="s">
         <v>203</v>
@@ -14243,7 +14243,7 @@
       <c r="I38" s="82"/>
       <c r="J38" s="82"/>
       <c r="K38" s="55" t="s">
-        <v>444</v>
+        <v>797</v>
       </c>
       <c r="L38" s="76" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -14258,7 +14258,7 @@
         <v>321</v>
       </c>
       <c r="C39" s="82" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D39" s="82" t="s">
         <v>202</v>
@@ -14272,7 +14272,7 @@
       <c r="I39" s="82"/>
       <c r="J39" s="82"/>
       <c r="K39" s="55" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="L39" s="76" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -14287,10 +14287,10 @@
         <v>49</v>
       </c>
       <c r="C40" s="82" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E40" s="82">
         <v>800</v>
@@ -14314,7 +14314,7 @@
         <v>57</v>
       </c>
       <c r="C41" s="82" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D41" s="82" t="s">
         <v>201</v>
@@ -14339,7 +14339,7 @@
         <v>58</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D42" s="82" t="s">
         <v>200</v>
@@ -14370,10 +14370,10 @@
         <v>291</v>
       </c>
       <c r="B45" s="138"/>
-      <c r="C45" s="139" t="s">
-        <v>431</v>
-      </c>
-      <c r="D45" s="140"/>
+      <c r="C45" s="135" t="s">
+        <v>430</v>
+      </c>
+      <c r="D45" s="136"/>
       <c r="E45" s="137" t="s">
         <v>293</v>
       </c>
@@ -14382,8 +14382,8 @@
       <c r="H45" s="75"/>
       <c r="I45" s="75"/>
       <c r="J45" s="75"/>
-      <c r="K45" s="135" t="s">
-        <v>797</v>
+      <c r="K45" s="142" t="s">
+        <v>792</v>
       </c>
       <c r="L45" s="11" t="str">
         <f>"-- "&amp;C46</f>
@@ -14396,9 +14396,9 @@
       </c>
       <c r="B46" s="138"/>
       <c r="C46" s="152" t="s">
-        <v>449</v>
-      </c>
-      <c r="D46" s="140"/>
+        <v>445</v>
+      </c>
+      <c r="D46" s="136"/>
       <c r="E46" s="137" t="s">
         <v>297</v>
       </c>
@@ -14407,7 +14407,7 @@
       <c r="H46" s="75"/>
       <c r="I46" s="75"/>
       <c r="J46" s="75"/>
-      <c r="K46" s="136"/>
+      <c r="K46" s="143"/>
       <c r="L46" s="11" t="str">
         <f>"-- "&amp;C47</f>
         <v xml:space="preserve">-- </v>
@@ -14418,15 +14418,15 @@
         <v>298</v>
       </c>
       <c r="B47" s="138"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="142"/>
-      <c r="K47" s="143"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="140"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="140"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="141"/>
       <c r="L47" s="49"/>
     </row>
     <row r="48" spans="1:12">
@@ -14507,7 +14507,7 @@
         <v>204</v>
       </c>
       <c r="C51" s="82" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D51" s="82" t="s">
         <v>308</v>
@@ -14519,7 +14519,7 @@
       <c r="G51" s="83"/>
       <c r="H51" s="82"/>
       <c r="I51" s="82" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J51" s="82"/>
       <c r="K51" s="55" t="s">
@@ -14538,7 +14538,7 @@
         <v>361</v>
       </c>
       <c r="C52" s="82" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D52" s="82" t="s">
         <v>201</v>
@@ -14565,7 +14565,7 @@
         <v>390</v>
       </c>
       <c r="C53" s="82" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D53" s="82" t="s">
         <v>202</v>
@@ -14591,10 +14591,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="129" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C54" s="82" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D54" s="82" t="s">
         <v>202</v>
@@ -14608,7 +14608,7 @@
       <c r="I54" s="82"/>
       <c r="J54" s="82"/>
       <c r="K54" s="55" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L54" s="76" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -14620,10 +14620,10 @@
         <v>5</v>
       </c>
       <c r="B55" s="129" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C55" s="82" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D55" s="82" t="s">
         <v>201</v>
@@ -14635,7 +14635,7 @@
       <c r="I55" s="82"/>
       <c r="J55" s="82"/>
       <c r="K55" s="55" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L55" s="76" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -14650,7 +14650,7 @@
         <v>321</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D56" s="82" t="s">
         <v>202</v>
@@ -14664,7 +14664,7 @@
       <c r="I56" s="82"/>
       <c r="J56" s="82"/>
       <c r="K56" s="55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L56" s="76" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -14679,7 +14679,7 @@
         <v>49</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D57" s="82" t="s">
         <v>202</v>
@@ -14706,7 +14706,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="82" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D58" s="82" t="s">
         <v>201</v>
@@ -14731,7 +14731,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="82" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D59" s="82" t="s">
         <v>200</v>
@@ -14762,10 +14762,10 @@
         <v>291</v>
       </c>
       <c r="B63" s="138"/>
-      <c r="C63" s="139" t="s">
+      <c r="C63" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="D63" s="140"/>
+      <c r="D63" s="136"/>
       <c r="E63" s="137" t="s">
         <v>293</v>
       </c>
@@ -14774,8 +14774,8 @@
       <c r="H63" s="75"/>
       <c r="I63" s="75"/>
       <c r="J63" s="75"/>
-      <c r="K63" s="135" t="s">
-        <v>577</v>
+      <c r="K63" s="142" t="s">
+        <v>573</v>
       </c>
       <c r="L63" s="11" t="str">
         <f>"-- "&amp;C64</f>
@@ -14790,7 +14790,7 @@
       <c r="C64" s="152" t="s">
         <v>334</v>
       </c>
-      <c r="D64" s="140"/>
+      <c r="D64" s="136"/>
       <c r="E64" s="137" t="s">
         <v>297</v>
       </c>
@@ -14799,7 +14799,7 @@
       <c r="H64" s="75"/>
       <c r="I64" s="75"/>
       <c r="J64" s="75"/>
-      <c r="K64" s="136"/>
+      <c r="K64" s="143"/>
       <c r="L64" s="11" t="str">
         <f>"-- "&amp;C65</f>
         <v xml:space="preserve">-- </v>
@@ -14810,15 +14810,15 @@
         <v>298</v>
       </c>
       <c r="B65" s="138"/>
-      <c r="C65" s="141"/>
-      <c r="D65" s="142"/>
-      <c r="E65" s="142"/>
-      <c r="F65" s="142"/>
-      <c r="G65" s="142"/>
-      <c r="H65" s="142"/>
-      <c r="I65" s="142"/>
-      <c r="J65" s="142"/>
-      <c r="K65" s="143"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="140"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="140"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="140"/>
+      <c r="I65" s="140"/>
+      <c r="J65" s="140"/>
+      <c r="K65" s="141"/>
       <c r="L65" s="49"/>
     </row>
     <row r="66" spans="1:12">
@@ -14899,7 +14899,7 @@
         <v>204</v>
       </c>
       <c r="C69" s="82" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D69" s="82" t="s">
         <v>308</v>
@@ -14911,7 +14911,7 @@
       <c r="G69" s="83"/>
       <c r="H69" s="82"/>
       <c r="I69" s="82" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J69" s="82" t="s">
         <v>68</v>
@@ -14932,7 +14932,7 @@
         <v>311</v>
       </c>
       <c r="C70" s="67" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D70" s="67" t="s">
         <v>201</v>
@@ -14957,7 +14957,7 @@
         <v>335</v>
       </c>
       <c r="C71" s="67" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D71" s="67" t="s">
         <v>202</v>
@@ -14984,7 +14984,7 @@
         <v>336</v>
       </c>
       <c r="C72" s="85" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D72" s="82" t="s">
         <v>202</v>
@@ -15011,7 +15011,7 @@
         <v>337</v>
       </c>
       <c r="C73" s="82" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D73" s="82" t="s">
         <v>201</v>
@@ -15319,10 +15319,10 @@
         <v>291</v>
       </c>
       <c r="B86" s="138"/>
-      <c r="C86" s="139" t="s">
+      <c r="C86" s="135" t="s">
         <v>292</v>
       </c>
-      <c r="D86" s="140"/>
+      <c r="D86" s="136"/>
       <c r="E86" s="137" t="s">
         <v>293</v>
       </c>
@@ -15331,7 +15331,7 @@
       <c r="H86" s="75"/>
       <c r="I86" s="75"/>
       <c r="J86" s="75"/>
-      <c r="K86" s="135" t="s">
+      <c r="K86" s="142" t="s">
         <v>294</v>
       </c>
       <c r="L86" s="11" t="str">
@@ -15347,7 +15347,7 @@
       <c r="C87" s="152" t="s">
         <v>296</v>
       </c>
-      <c r="D87" s="140"/>
+      <c r="D87" s="136"/>
       <c r="E87" s="137" t="s">
         <v>297</v>
       </c>
@@ -15356,7 +15356,7 @@
       <c r="H87" s="75"/>
       <c r="I87" s="75"/>
       <c r="J87" s="75"/>
-      <c r="K87" s="136"/>
+      <c r="K87" s="143"/>
       <c r="L87" s="11" t="str">
         <f>"-- "&amp;C88</f>
         <v xml:space="preserve">-- </v>
@@ -15367,15 +15367,15 @@
         <v>298</v>
       </c>
       <c r="B88" s="138"/>
-      <c r="C88" s="141"/>
-      <c r="D88" s="142"/>
-      <c r="E88" s="142"/>
-      <c r="F88" s="142"/>
-      <c r="G88" s="142"/>
-      <c r="H88" s="142"/>
-      <c r="I88" s="142"/>
-      <c r="J88" s="142"/>
-      <c r="K88" s="143"/>
+      <c r="C88" s="139"/>
+      <c r="D88" s="140"/>
+      <c r="E88" s="140"/>
+      <c r="F88" s="140"/>
+      <c r="G88" s="140"/>
+      <c r="H88" s="140"/>
+      <c r="I88" s="140"/>
+      <c r="J88" s="140"/>
+      <c r="K88" s="141"/>
       <c r="L88" s="49"/>
     </row>
     <row r="89" spans="1:12">
@@ -15652,10 +15652,10 @@
         <v>291</v>
       </c>
       <c r="B101" s="138"/>
-      <c r="C101" s="139" t="s">
+      <c r="C101" s="135" t="s">
         <v>324</v>
       </c>
-      <c r="D101" s="140"/>
+      <c r="D101" s="136"/>
       <c r="E101" s="137" t="s">
         <v>293</v>
       </c>
@@ -15664,7 +15664,7 @@
       <c r="H101" s="75"/>
       <c r="I101" s="75"/>
       <c r="J101" s="75"/>
-      <c r="K101" s="135" t="s">
+      <c r="K101" s="142" t="s">
         <v>325</v>
       </c>
       <c r="L101" s="11" t="str">
@@ -15680,7 +15680,7 @@
       <c r="C102" s="152" t="s">
         <v>326</v>
       </c>
-      <c r="D102" s="140"/>
+      <c r="D102" s="136"/>
       <c r="E102" s="137" t="s">
         <v>297</v>
       </c>
@@ -15689,7 +15689,7 @@
       <c r="H102" s="75"/>
       <c r="I102" s="75"/>
       <c r="J102" s="75"/>
-      <c r="K102" s="136"/>
+      <c r="K102" s="143"/>
       <c r="L102" s="11" t="str">
         <f>"-- "&amp;C103</f>
         <v xml:space="preserve">-- </v>
@@ -15700,15 +15700,15 @@
         <v>298</v>
       </c>
       <c r="B103" s="138"/>
-      <c r="C103" s="141"/>
-      <c r="D103" s="142"/>
-      <c r="E103" s="142"/>
-      <c r="F103" s="142"/>
-      <c r="G103" s="142"/>
-      <c r="H103" s="142"/>
-      <c r="I103" s="142"/>
-      <c r="J103" s="142"/>
-      <c r="K103" s="143"/>
+      <c r="C103" s="139"/>
+      <c r="D103" s="140"/>
+      <c r="E103" s="140"/>
+      <c r="F103" s="140"/>
+      <c r="G103" s="140"/>
+      <c r="H103" s="140"/>
+      <c r="I103" s="140"/>
+      <c r="J103" s="140"/>
+      <c r="K103" s="141"/>
       <c r="L103" s="49"/>
     </row>
     <row r="104" spans="1:12">
@@ -15801,7 +15801,7 @@
       <c r="G107" s="83"/>
       <c r="H107" s="82"/>
       <c r="I107" s="82" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J107" s="82" t="s">
         <v>68</v>
@@ -15849,7 +15849,7 @@
         <v>330</v>
       </c>
       <c r="C109" s="82" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D109" s="82" t="s">
         <v>202</v>
@@ -15906,10 +15906,10 @@
         <v>291</v>
       </c>
       <c r="B113" s="138"/>
-      <c r="C113" s="139" t="s">
+      <c r="C113" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="D113" s="140"/>
+      <c r="D113" s="136"/>
       <c r="E113" s="137" t="s">
         <v>293</v>
       </c>
@@ -15918,8 +15918,8 @@
       <c r="H113" s="75"/>
       <c r="I113" s="75"/>
       <c r="J113" s="75"/>
-      <c r="K113" s="135" t="s">
-        <v>584</v>
+      <c r="K113" s="142" t="s">
+        <v>580</v>
       </c>
       <c r="L113" s="11" t="str">
         <f>"-- "&amp;C114</f>
@@ -15934,7 +15934,7 @@
       <c r="C114" s="152" t="s">
         <v>360</v>
       </c>
-      <c r="D114" s="140"/>
+      <c r="D114" s="136"/>
       <c r="E114" s="137" t="s">
         <v>297</v>
       </c>
@@ -15943,7 +15943,7 @@
       <c r="H114" s="75"/>
       <c r="I114" s="75"/>
       <c r="J114" s="75"/>
-      <c r="K114" s="136"/>
+      <c r="K114" s="143"/>
       <c r="L114" s="11" t="str">
         <f>"-- "&amp;C115</f>
         <v xml:space="preserve">-- </v>
@@ -15954,15 +15954,15 @@
         <v>298</v>
       </c>
       <c r="B115" s="138"/>
-      <c r="C115" s="141"/>
-      <c r="D115" s="142"/>
-      <c r="E115" s="142"/>
-      <c r="F115" s="142"/>
-      <c r="G115" s="142"/>
-      <c r="H115" s="142"/>
-      <c r="I115" s="142"/>
-      <c r="J115" s="142"/>
-      <c r="K115" s="143"/>
+      <c r="C115" s="139"/>
+      <c r="D115" s="140"/>
+      <c r="E115" s="140"/>
+      <c r="F115" s="140"/>
+      <c r="G115" s="140"/>
+      <c r="H115" s="140"/>
+      <c r="I115" s="140"/>
+      <c r="J115" s="140"/>
+      <c r="K115" s="141"/>
       <c r="L115" s="49"/>
     </row>
     <row r="116" spans="1:12">
@@ -16043,7 +16043,7 @@
         <v>204</v>
       </c>
       <c r="C119" s="82" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D119" s="82" t="s">
         <v>308</v>
@@ -16055,7 +16055,7 @@
       <c r="G119" s="83"/>
       <c r="H119" s="82"/>
       <c r="I119" s="82" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J119" s="82" t="s">
         <v>68</v>
@@ -16076,7 +16076,7 @@
         <v>361</v>
       </c>
       <c r="C120" s="82" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D120" s="82" t="s">
         <v>308</v>
@@ -16101,7 +16101,7 @@
         <v>362</v>
       </c>
       <c r="C121" s="85" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D121" s="82" t="s">
         <v>202</v>
@@ -16128,7 +16128,7 @@
         <v>363</v>
       </c>
       <c r="C122" s="85" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D122" s="82" t="s">
         <v>364</v>
@@ -16153,7 +16153,7 @@
         <v>197</v>
       </c>
       <c r="C123" s="85" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D123" s="82" t="s">
         <v>202</v>
@@ -16240,10 +16240,10 @@
         <v>291</v>
       </c>
       <c r="B128" s="138"/>
-      <c r="C128" s="139" t="s">
+      <c r="C128" s="135" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="140"/>
+      <c r="D128" s="136"/>
       <c r="E128" s="137" t="s">
         <v>293</v>
       </c>
@@ -16252,8 +16252,8 @@
       <c r="H128" s="75"/>
       <c r="I128" s="75"/>
       <c r="J128" s="75"/>
-      <c r="K128" s="135" t="s">
-        <v>590</v>
+      <c r="K128" s="142" t="s">
+        <v>586</v>
       </c>
       <c r="L128" s="11" t="str">
         <f>"-- "&amp;C129</f>
@@ -16268,7 +16268,7 @@
       <c r="C129" s="152" t="s">
         <v>368</v>
       </c>
-      <c r="D129" s="140"/>
+      <c r="D129" s="136"/>
       <c r="E129" s="137" t="s">
         <v>297</v>
       </c>
@@ -16277,7 +16277,7 @@
       <c r="H129" s="75"/>
       <c r="I129" s="75"/>
       <c r="J129" s="75"/>
-      <c r="K129" s="136"/>
+      <c r="K129" s="143"/>
       <c r="L129" s="11" t="str">
         <f>"-- "&amp;C130</f>
         <v xml:space="preserve">-- </v>
@@ -16288,15 +16288,15 @@
         <v>298</v>
       </c>
       <c r="B130" s="138"/>
-      <c r="C130" s="141"/>
-      <c r="D130" s="142"/>
-      <c r="E130" s="142"/>
-      <c r="F130" s="142"/>
-      <c r="G130" s="142"/>
-      <c r="H130" s="142"/>
-      <c r="I130" s="142"/>
-      <c r="J130" s="142"/>
-      <c r="K130" s="143"/>
+      <c r="C130" s="139"/>
+      <c r="D130" s="140"/>
+      <c r="E130" s="140"/>
+      <c r="F130" s="140"/>
+      <c r="G130" s="140"/>
+      <c r="H130" s="140"/>
+      <c r="I130" s="140"/>
+      <c r="J130" s="140"/>
+      <c r="K130" s="141"/>
       <c r="L130" s="49"/>
     </row>
     <row r="131" spans="1:12">
@@ -16377,7 +16377,7 @@
         <v>204</v>
       </c>
       <c r="C134" s="82" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D134" s="82" t="s">
         <v>308</v>
@@ -16389,7 +16389,7 @@
       <c r="G134" s="83"/>
       <c r="H134" s="82"/>
       <c r="I134" s="82" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J134" s="82" t="s">
         <v>68</v>
@@ -16410,7 +16410,7 @@
         <v>369</v>
       </c>
       <c r="C135" s="85" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D135" s="82" t="s">
         <v>202</v>
@@ -16623,10 +16623,10 @@
         <v>291</v>
       </c>
       <c r="B145" s="138"/>
-      <c r="C145" s="139" t="s">
+      <c r="C145" s="135" t="s">
         <v>367</v>
       </c>
-      <c r="D145" s="140"/>
+      <c r="D145" s="136"/>
       <c r="E145" s="137" t="s">
         <v>293</v>
       </c>
@@ -16635,8 +16635,8 @@
       <c r="H145" s="75"/>
       <c r="I145" s="75"/>
       <c r="J145" s="75"/>
-      <c r="K145" s="135" t="s">
-        <v>593</v>
+      <c r="K145" s="142" t="s">
+        <v>589</v>
       </c>
       <c r="L145" s="11" t="str">
         <f>"-- "&amp;C146</f>
@@ -16651,7 +16651,7 @@
       <c r="C146" s="152" t="s">
         <v>382</v>
       </c>
-      <c r="D146" s="140"/>
+      <c r="D146" s="136"/>
       <c r="E146" s="137" t="s">
         <v>297</v>
       </c>
@@ -16660,7 +16660,7 @@
       <c r="H146" s="75"/>
       <c r="I146" s="75"/>
       <c r="J146" s="75"/>
-      <c r="K146" s="136"/>
+      <c r="K146" s="143"/>
       <c r="L146" s="11" t="str">
         <f>"-- "&amp;C147</f>
         <v xml:space="preserve">-- </v>
@@ -16671,15 +16671,15 @@
         <v>298</v>
       </c>
       <c r="B147" s="138"/>
-      <c r="C147" s="141"/>
-      <c r="D147" s="142"/>
-      <c r="E147" s="142"/>
-      <c r="F147" s="142"/>
-      <c r="G147" s="142"/>
-      <c r="H147" s="142"/>
-      <c r="I147" s="142"/>
-      <c r="J147" s="142"/>
-      <c r="K147" s="143"/>
+      <c r="C147" s="139"/>
+      <c r="D147" s="140"/>
+      <c r="E147" s="140"/>
+      <c r="F147" s="140"/>
+      <c r="G147" s="140"/>
+      <c r="H147" s="140"/>
+      <c r="I147" s="140"/>
+      <c r="J147" s="140"/>
+      <c r="K147" s="141"/>
       <c r="L147" s="49"/>
     </row>
     <row r="148" spans="1:12">
@@ -16760,7 +16760,7 @@
         <v>383</v>
       </c>
       <c r="C151" s="82" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D151" s="82" t="s">
         <v>308</v>
@@ -16791,7 +16791,7 @@
         <v>384</v>
       </c>
       <c r="C152" s="85" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D152" s="82" t="s">
         <v>201</v>
@@ -16880,10 +16880,10 @@
         <v>291</v>
       </c>
       <c r="B157" s="138"/>
-      <c r="C157" s="139" t="s">
+      <c r="C157" s="135" t="s">
         <v>387</v>
       </c>
-      <c r="D157" s="140"/>
+      <c r="D157" s="136"/>
       <c r="E157" s="137" t="s">
         <v>293</v>
       </c>
@@ -16892,8 +16892,8 @@
       <c r="H157" s="75"/>
       <c r="I157" s="75"/>
       <c r="J157" s="75"/>
-      <c r="K157" s="135" t="s">
-        <v>596</v>
+      <c r="K157" s="142" t="s">
+        <v>592</v>
       </c>
       <c r="L157" s="11" t="str">
         <f>"-- "&amp;C158</f>
@@ -16906,9 +16906,9 @@
       </c>
       <c r="B158" s="138"/>
       <c r="C158" s="152" t="s">
-        <v>404</v>
-      </c>
-      <c r="D158" s="140"/>
+        <v>403</v>
+      </c>
+      <c r="D158" s="136"/>
       <c r="E158" s="137" t="s">
         <v>297</v>
       </c>
@@ -16917,7 +16917,7 @@
       <c r="H158" s="75"/>
       <c r="I158" s="75"/>
       <c r="J158" s="75"/>
-      <c r="K158" s="136"/>
+      <c r="K158" s="143"/>
       <c r="L158" s="11" t="str">
         <f>"-- "&amp;C159</f>
         <v xml:space="preserve">-- </v>
@@ -16928,15 +16928,15 @@
         <v>298</v>
       </c>
       <c r="B159" s="138"/>
-      <c r="C159" s="141"/>
-      <c r="D159" s="142"/>
-      <c r="E159" s="142"/>
-      <c r="F159" s="142"/>
-      <c r="G159" s="142"/>
-      <c r="H159" s="142"/>
-      <c r="I159" s="142"/>
-      <c r="J159" s="142"/>
-      <c r="K159" s="143"/>
+      <c r="C159" s="139"/>
+      <c r="D159" s="140"/>
+      <c r="E159" s="140"/>
+      <c r="F159" s="140"/>
+      <c r="G159" s="140"/>
+      <c r="H159" s="140"/>
+      <c r="I159" s="140"/>
+      <c r="J159" s="140"/>
+      <c r="K159" s="141"/>
       <c r="L159" s="49"/>
     </row>
     <row r="160" spans="1:12">
@@ -17017,7 +17017,7 @@
         <v>204</v>
       </c>
       <c r="C163" s="82" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D163" s="82" t="s">
         <v>308</v>
@@ -17029,7 +17029,7 @@
       <c r="G163" s="83"/>
       <c r="H163" s="82"/>
       <c r="I163" s="82" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J163" s="82"/>
       <c r="K163" s="55" t="s">
@@ -17048,10 +17048,10 @@
         <v>336</v>
       </c>
       <c r="C164" s="82" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D164" s="82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E164" s="82">
         <v>200</v>
@@ -17072,10 +17072,10 @@
         <v>3</v>
       </c>
       <c r="B165" s="82" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C165" s="82" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D165" s="82" t="s">
         <v>202</v>
@@ -17099,10 +17099,10 @@
         <v>4</v>
       </c>
       <c r="B166" s="82" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C166" s="82" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D166" s="82" t="s">
         <v>202</v>
@@ -17129,7 +17129,7 @@
         <v>213</v>
       </c>
       <c r="C167" s="82" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D167" s="82" t="s">
         <v>202</v>
@@ -17156,10 +17156,10 @@
         <v>370</v>
       </c>
       <c r="C168" s="82" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D168" s="82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E168" s="82">
         <v>1</v>
@@ -17170,7 +17170,7 @@
       <c r="I168" s="82"/>
       <c r="J168" s="82"/>
       <c r="K168" s="55" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L168" s="76" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -17182,10 +17182,10 @@
         <v>7</v>
       </c>
       <c r="B169" s="82" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C169" s="82" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D169" s="82" t="s">
         <v>201</v>
@@ -17207,10 +17207,10 @@
         <v>8</v>
       </c>
       <c r="B170" s="82" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C170" s="82" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D170" s="82" t="s">
         <v>201</v>
@@ -17235,7 +17235,7 @@
         <v>321</v>
       </c>
       <c r="C171" s="82" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D171" s="82" t="s">
         <v>202</v>
@@ -17262,7 +17262,7 @@
         <v>197</v>
       </c>
       <c r="C172" s="82" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D172" s="82" t="s">
         <v>202</v>
@@ -17289,7 +17289,7 @@
         <v>235</v>
       </c>
       <c r="C173" s="82" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D173" s="82" t="s">
         <v>201</v>
@@ -17314,7 +17314,7 @@
         <v>236</v>
       </c>
       <c r="C174" s="82" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D174" s="82" t="s">
         <v>200</v>
@@ -17345,10 +17345,10 @@
         <v>291</v>
       </c>
       <c r="B177" s="138"/>
-      <c r="C177" s="139" t="s">
+      <c r="C177" s="135" t="s">
         <v>387</v>
       </c>
-      <c r="D177" s="140"/>
+      <c r="D177" s="136"/>
       <c r="E177" s="137" t="s">
         <v>293</v>
       </c>
@@ -17357,8 +17357,8 @@
       <c r="H177" s="75"/>
       <c r="I177" s="75"/>
       <c r="J177" s="75"/>
-      <c r="K177" s="135" t="s">
-        <v>417</v>
+      <c r="K177" s="142" t="s">
+        <v>416</v>
       </c>
       <c r="L177" s="11" t="str">
         <f>"-- "&amp;C178</f>
@@ -17371,9 +17371,9 @@
       </c>
       <c r="B178" s="138"/>
       <c r="C178" s="152" t="s">
-        <v>418</v>
-      </c>
-      <c r="D178" s="140"/>
+        <v>417</v>
+      </c>
+      <c r="D178" s="136"/>
       <c r="E178" s="137" t="s">
         <v>297</v>
       </c>
@@ -17382,7 +17382,7 @@
       <c r="H178" s="75"/>
       <c r="I178" s="75"/>
       <c r="J178" s="75"/>
-      <c r="K178" s="136"/>
+      <c r="K178" s="143"/>
       <c r="L178" s="11" t="str">
         <f>"-- "&amp;C179</f>
         <v xml:space="preserve">-- </v>
@@ -17393,15 +17393,15 @@
         <v>298</v>
       </c>
       <c r="B179" s="138"/>
-      <c r="C179" s="141"/>
-      <c r="D179" s="142"/>
-      <c r="E179" s="142"/>
-      <c r="F179" s="142"/>
-      <c r="G179" s="142"/>
-      <c r="H179" s="142"/>
-      <c r="I179" s="142"/>
-      <c r="J179" s="142"/>
-      <c r="K179" s="143"/>
+      <c r="C179" s="139"/>
+      <c r="D179" s="140"/>
+      <c r="E179" s="140"/>
+      <c r="F179" s="140"/>
+      <c r="G179" s="140"/>
+      <c r="H179" s="140"/>
+      <c r="I179" s="140"/>
+      <c r="J179" s="140"/>
+      <c r="K179" s="141"/>
       <c r="L179" s="49"/>
     </row>
     <row r="180" spans="1:12">
@@ -17479,10 +17479,10 @@
         <v>1</v>
       </c>
       <c r="B183" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="C183" s="82" t="s">
         <v>419</v>
-      </c>
-      <c r="C183" s="82" t="s">
-        <v>420</v>
       </c>
       <c r="D183" s="82" t="s">
         <v>308</v>
@@ -17494,7 +17494,7 @@
       <c r="G183" s="83"/>
       <c r="H183" s="82"/>
       <c r="I183" s="82" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J183" s="82"/>
       <c r="K183" s="55" t="s">
@@ -17510,10 +17510,10 @@
         <v>2</v>
       </c>
       <c r="B184" s="82" t="s">
+        <v>420</v>
+      </c>
+      <c r="C184" s="82" t="s">
         <v>421</v>
-      </c>
-      <c r="C184" s="82" t="s">
-        <v>422</v>
       </c>
       <c r="D184" s="82" t="s">
         <v>201</v>
@@ -17525,7 +17525,7 @@
       <c r="I184" s="82"/>
       <c r="J184" s="82"/>
       <c r="K184" s="55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L184" s="76" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -17537,10 +17537,10 @@
         <v>3</v>
       </c>
       <c r="B185" s="82" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C185" s="82" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D185" s="82" t="s">
         <v>201</v>
@@ -17552,7 +17552,7 @@
       <c r="I185" s="82"/>
       <c r="J185" s="82"/>
       <c r="K185" s="55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L185" s="76" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -17567,7 +17567,7 @@
         <v>321</v>
       </c>
       <c r="C186" s="82" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D186" s="82" t="s">
         <v>202</v>
@@ -17581,7 +17581,7 @@
       <c r="I186" s="82"/>
       <c r="J186" s="82"/>
       <c r="K186" s="55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L186" s="76" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -17596,10 +17596,10 @@
         <v>197</v>
       </c>
       <c r="C187" s="82" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D187" s="82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E187" s="82">
         <v>200</v>
@@ -17623,7 +17623,7 @@
         <v>235</v>
       </c>
       <c r="C188" s="82" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D188" s="82" t="s">
         <v>201</v>
@@ -17648,7 +17648,7 @@
         <v>236</v>
       </c>
       <c r="C189" s="82" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D189" s="82" t="s">
         <v>200</v>
@@ -17679,10 +17679,10 @@
         <v>291</v>
       </c>
       <c r="B192" s="138"/>
-      <c r="C192" s="139" t="s">
+      <c r="C192" s="135" t="s">
         <v>292</v>
       </c>
-      <c r="D192" s="140"/>
+      <c r="D192" s="136"/>
       <c r="E192" s="137" t="s">
         <v>293</v>
       </c>
@@ -17691,8 +17691,8 @@
       <c r="H192" s="75"/>
       <c r="I192" s="75"/>
       <c r="J192" s="75"/>
-      <c r="K192" s="135" t="s">
-        <v>613</v>
+      <c r="K192" s="142" t="s">
+        <v>609</v>
       </c>
       <c r="L192" s="11" t="str">
         <f>"-- "&amp;C193</f>
@@ -17705,9 +17705,9 @@
       </c>
       <c r="B193" s="138"/>
       <c r="C193" s="152" t="s">
-        <v>612</v>
-      </c>
-      <c r="D193" s="140"/>
+        <v>608</v>
+      </c>
+      <c r="D193" s="136"/>
       <c r="E193" s="137" t="s">
         <v>297</v>
       </c>
@@ -17716,7 +17716,7 @@
       <c r="H193" s="75"/>
       <c r="I193" s="75"/>
       <c r="J193" s="75"/>
-      <c r="K193" s="136"/>
+      <c r="K193" s="143"/>
       <c r="L193" s="11" t="str">
         <f>"-- "&amp;C194</f>
         <v xml:space="preserve">-- </v>
@@ -17727,15 +17727,15 @@
         <v>298</v>
       </c>
       <c r="B194" s="138"/>
-      <c r="C194" s="141"/>
-      <c r="D194" s="142"/>
-      <c r="E194" s="142"/>
-      <c r="F194" s="142"/>
-      <c r="G194" s="142"/>
-      <c r="H194" s="142"/>
-      <c r="I194" s="142"/>
-      <c r="J194" s="142"/>
-      <c r="K194" s="143"/>
+      <c r="C194" s="139"/>
+      <c r="D194" s="140"/>
+      <c r="E194" s="140"/>
+      <c r="F194" s="140"/>
+      <c r="G194" s="140"/>
+      <c r="H194" s="140"/>
+      <c r="I194" s="140"/>
+      <c r="J194" s="140"/>
+      <c r="K194" s="141"/>
       <c r="L194" s="49"/>
     </row>
     <row r="195" spans="1:12">
@@ -17816,7 +17816,7 @@
         <v>204</v>
       </c>
       <c r="C198" s="82" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D198" s="82" t="s">
         <v>308</v>
@@ -17828,7 +17828,7 @@
       <c r="G198" s="83"/>
       <c r="H198" s="82"/>
       <c r="I198" s="82" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J198" s="82" t="s">
         <v>68</v>
@@ -17849,7 +17849,7 @@
         <v>311</v>
       </c>
       <c r="C199" s="67" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D199" s="67" t="s">
         <v>201</v>
@@ -17874,7 +17874,7 @@
         <v>313</v>
       </c>
       <c r="C200" s="67" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D200" s="67" t="s">
         <v>202</v>
@@ -17898,10 +17898,10 @@
         <v>4</v>
       </c>
       <c r="B201" s="82" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C201" s="85" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D201" s="82" t="s">
         <v>202</v>
@@ -17928,7 +17928,7 @@
         <v>317</v>
       </c>
       <c r="C202" s="82" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D202" s="82" t="s">
         <v>200</v>
@@ -17952,7 +17952,7 @@
         <v>319</v>
       </c>
       <c r="C203" s="82" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D203" s="82" t="s">
         <v>200</v>
@@ -17977,7 +17977,7 @@
         <v>321</v>
       </c>
       <c r="C204" s="82" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D204" s="82" t="s">
         <v>203</v>
@@ -18009,15 +18009,15 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="137" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B207" s="138"/>
       <c r="C207" s="153" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D207" s="153"/>
       <c r="E207" s="154" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F207" s="154"/>
       <c r="G207" s="75"/>
@@ -18025,7 +18025,7 @@
       <c r="I207" s="75"/>
       <c r="J207" s="75"/>
       <c r="K207" s="155" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="L207" s="11" t="str">
         <f>"-- "&amp;C208</f>
@@ -18034,15 +18034,15 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="137" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B208" s="138"/>
       <c r="C208" s="153" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D208" s="153"/>
       <c r="E208" s="154" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F208" s="154"/>
       <c r="G208" s="75"/>
@@ -18057,11 +18057,11 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="137" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B209" s="138"/>
       <c r="C209" s="77" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D209" s="77"/>
       <c r="E209" s="77"/>
@@ -18106,37 +18106,37 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="80" t="s">
+        <v>470</v>
+      </c>
+      <c r="B212" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="C212" s="80" t="s">
+        <v>472</v>
+      </c>
+      <c r="D212" s="80" t="s">
+        <v>473</v>
+      </c>
+      <c r="E212" s="80" t="s">
         <v>474</v>
       </c>
-      <c r="B212" s="80" t="s">
+      <c r="F212" s="80" t="s">
         <v>475</v>
       </c>
-      <c r="C212" s="80" t="s">
+      <c r="G212" s="80" t="s">
         <v>476</v>
       </c>
-      <c r="D212" s="80" t="s">
+      <c r="H212" s="80" t="s">
         <v>477</v>
       </c>
-      <c r="E212" s="80" t="s">
+      <c r="I212" s="80" t="s">
         <v>478</v>
       </c>
-      <c r="F212" s="80" t="s">
+      <c r="J212" s="80" t="s">
         <v>479</v>
       </c>
-      <c r="G212" s="80" t="s">
+      <c r="K212" s="80" t="s">
         <v>480</v>
-      </c>
-      <c r="H212" s="80" t="s">
-        <v>481</v>
-      </c>
-      <c r="I212" s="80" t="s">
-        <v>482</v>
-      </c>
-      <c r="J212" s="80" t="s">
-        <v>483</v>
-      </c>
-      <c r="K212" s="80" t="s">
-        <v>484</v>
       </c>
       <c r="L212" s="11" t="str">
         <f>"CREATE TABLE "&amp;K207&amp;"("</f>
@@ -18148,25 +18148,25 @@
         <v>1</v>
       </c>
       <c r="B213" s="52" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C213" s="52" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D213" s="52" t="s">
         <v>201</v>
       </c>
       <c r="E213" s="52"/>
       <c r="F213" s="52" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G213" s="82"/>
       <c r="H213" s="82"/>
       <c r="I213" s="82" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J213" s="52" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K213" s="90"/>
       <c r="L213" s="76" t="str">
@@ -18179,10 +18179,10 @@
         <v>2</v>
       </c>
       <c r="B214" s="52" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C214" s="52" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D214" s="52" t="s">
         <v>202</v>
@@ -18196,7 +18196,7 @@
       <c r="I214" s="82"/>
       <c r="J214" s="9"/>
       <c r="K214" s="90" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L214" s="76" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -18208,10 +18208,10 @@
         <v>3</v>
       </c>
       <c r="B215" s="52" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C215" s="52" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D215" s="52" t="s">
         <v>202</v>
@@ -18225,7 +18225,7 @@
       <c r="I215" s="77"/>
       <c r="J215" s="52"/>
       <c r="K215" s="90" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L215" s="76" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -18237,10 +18237,10 @@
         <v>4</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C216" s="52" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D216" s="52" t="s">
         <v>202</v>
@@ -18254,7 +18254,7 @@
       <c r="I216" s="82"/>
       <c r="J216" s="52"/>
       <c r="K216" s="90" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L216" s="76" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -18266,13 +18266,13 @@
         <v>5</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C217" s="52" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D217" s="52" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E217" s="52"/>
       <c r="F217" s="52"/>
@@ -18281,7 +18281,7 @@
       <c r="I217" s="82"/>
       <c r="J217" s="52"/>
       <c r="K217" s="90" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L217" s="76" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -18293,10 +18293,10 @@
         <v>6</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C218" s="52" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D218" s="52" t="s">
         <v>202</v>
@@ -18320,10 +18320,10 @@
         <v>7</v>
       </c>
       <c r="B219" s="52" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C219" s="52" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D219" s="52" t="s">
         <v>200</v>
@@ -18351,23 +18351,81 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="K207:K208"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="K192:K193"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="C194:K194"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:K88"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="K128:K129"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:K103"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="K177:K178"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:K147"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="A114:B114"/>
     <mergeCell ref="A179:B179"/>
     <mergeCell ref="C179:K179"/>
     <mergeCell ref="A26:B26"/>
@@ -18392,81 +18450,23 @@
     <mergeCell ref="C159:K159"/>
     <mergeCell ref="A177:B177"/>
     <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="K177:K178"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="C147:K147"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:K103"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="K128:K129"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:K65"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:K88"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="K207:K208"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="K192:K193"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:K194"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -18507,10 +18507,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="138"/>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="140"/>
+      <c r="D1" s="136"/>
       <c r="E1" s="137" t="s">
         <v>12</v>
       </c>
@@ -18519,8 +18519,8 @@
       <c r="H1" s="99"/>
       <c r="I1" s="99"/>
       <c r="J1" s="99"/>
-      <c r="K1" s="135" t="s">
-        <v>623</v>
+      <c r="K1" s="142" t="s">
+        <v>619</v>
       </c>
       <c r="L1" s="11" t="str">
         <f>"-- "&amp;C2</f>
@@ -18550,10 +18550,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="138"/>
-      <c r="C2" s="139" t="s">
-        <v>530</v>
-      </c>
-      <c r="D2" s="140"/>
+      <c r="C2" s="135" t="s">
+        <v>526</v>
+      </c>
+      <c r="D2" s="136"/>
       <c r="E2" s="137" t="s">
         <v>13</v>
       </c>
@@ -18562,7 +18562,7 @@
       <c r="H2" s="99"/>
       <c r="I2" s="99"/>
       <c r="J2" s="99"/>
-      <c r="K2" s="136"/>
+      <c r="K2" s="143"/>
       <c r="L2" s="11" t="str">
         <f>"-- "&amp;C3</f>
         <v xml:space="preserve">-- </v>
@@ -18591,15 +18591,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="138"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="141"/>
       <c r="L3" s="49"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -18752,7 +18752,7 @@
         <v>204</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>201</v>
@@ -18800,10 +18800,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>202</v>
@@ -18847,13 +18847,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E9" s="52"/>
       <c r="F9" s="54"/>
@@ -18895,7 +18895,7 @@
         <v>321</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D10" s="53" t="s">
         <v>202</v>
@@ -18940,7 +18940,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>201</v>
@@ -18983,7 +18983,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D12" s="53" t="s">
         <v>200</v>
@@ -19029,10 +19029,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="138"/>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="140"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="137" t="s">
         <v>12</v>
       </c>
@@ -19041,8 +19041,8 @@
       <c r="H15" s="99"/>
       <c r="I15" s="99"/>
       <c r="J15" s="99"/>
-      <c r="K15" s="135" t="s">
-        <v>654</v>
+      <c r="K15" s="142" t="s">
+        <v>650</v>
       </c>
       <c r="L15" s="11" t="str">
         <f>"-- "&amp;C16</f>
@@ -19072,10 +19072,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="138"/>
-      <c r="C16" s="139" t="s">
-        <v>531</v>
-      </c>
-      <c r="D16" s="140"/>
+      <c r="C16" s="135" t="s">
+        <v>527</v>
+      </c>
+      <c r="D16" s="136"/>
       <c r="E16" s="137" t="s">
         <v>13</v>
       </c>
@@ -19084,7 +19084,7 @@
       <c r="H16" s="99"/>
       <c r="I16" s="99"/>
       <c r="J16" s="99"/>
-      <c r="K16" s="136"/>
+      <c r="K16" s="143"/>
       <c r="L16" s="11" t="str">
         <f>"-- "&amp;C17</f>
         <v xml:space="preserve">-- </v>
@@ -19113,15 +19113,15 @@
         <v>1</v>
       </c>
       <c r="B17" s="138"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="143"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="141"/>
       <c r="L17" s="49"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -19274,7 +19274,7 @@
         <v>204</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>201</v>
@@ -19322,10 +19322,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>202</v>
@@ -19369,10 +19369,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D23" s="53" t="s">
         <v>201</v>
@@ -19414,10 +19414,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D24" s="53" t="s">
         <v>201</v>
@@ -19459,16 +19459,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>538</v>
+      </c>
+      <c r="E25" s="52" t="s">
         <v>539</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>542</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>543</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -19504,16 +19504,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E26" s="52" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
@@ -19549,16 +19549,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
@@ -19597,7 +19597,7 @@
         <v>321</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D28" s="53" t="s">
         <v>202</v>
@@ -19642,7 +19642,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>201</v>
@@ -19685,7 +19685,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D30" s="53" t="s">
         <v>200</v>
@@ -19731,10 +19731,10 @@
         <v>11</v>
       </c>
       <c r="B32" s="138"/>
-      <c r="C32" s="139" t="s">
+      <c r="C32" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="140"/>
+      <c r="D32" s="136"/>
       <c r="E32" s="137" t="s">
         <v>12</v>
       </c>
@@ -19743,8 +19743,8 @@
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
-      <c r="K32" s="135" t="s">
-        <v>691</v>
+      <c r="K32" s="142" t="s">
+        <v>687</v>
       </c>
       <c r="L32" s="11" t="str">
         <f>"-- "&amp;C33</f>
@@ -19774,10 +19774,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="138"/>
-      <c r="C33" s="139" t="s">
-        <v>546</v>
-      </c>
-      <c r="D33" s="140"/>
+      <c r="C33" s="135" t="s">
+        <v>542</v>
+      </c>
+      <c r="D33" s="136"/>
       <c r="E33" s="137" t="s">
         <v>13</v>
       </c>
@@ -19786,7 +19786,7 @@
       <c r="H33" s="106"/>
       <c r="I33" s="106"/>
       <c r="J33" s="106"/>
-      <c r="K33" s="136"/>
+      <c r="K33" s="143"/>
       <c r="L33" s="11" t="str">
         <f>"-- "&amp;C34</f>
         <v xml:space="preserve">-- </v>
@@ -19815,15 +19815,15 @@
         <v>1</v>
       </c>
       <c r="B34" s="138"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="143"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="141"/>
       <c r="L34" s="49"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -19976,7 +19976,7 @@
         <v>204</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>201</v>
@@ -20024,10 +20024,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>201</v>
@@ -20069,10 +20069,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D40" s="53" t="s">
         <v>201</v>
@@ -20114,10 +20114,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D41" s="53" t="s">
         <v>200</v>
@@ -20157,16 +20157,16 @@
         <v>5</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E42" s="52" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
@@ -20202,16 +20202,16 @@
         <v>6</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D43" s="53" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
@@ -20247,10 +20247,10 @@
         <v>7</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D44" s="53" t="s">
         <v>201</v>
@@ -20290,16 +20290,16 @@
         <v>8</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E45" s="52" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
@@ -20335,10 +20335,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D46" s="53" t="s">
         <v>202</v>
@@ -20380,10 +20380,10 @@
         <v>10</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D47" s="53" t="s">
         <v>202</v>
@@ -20428,7 +20428,7 @@
         <v>321</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D48" s="53" t="s">
         <v>202</v>
@@ -20473,7 +20473,7 @@
         <v>57</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>201</v>
@@ -20516,7 +20516,7 @@
         <v>58</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D50" s="53" t="s">
         <v>200</v>
@@ -20562,10 +20562,10 @@
         <v>11</v>
       </c>
       <c r="B54" s="138"/>
-      <c r="C54" s="139" t="s">
+      <c r="C54" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="D54" s="140"/>
+      <c r="D54" s="136"/>
       <c r="E54" s="137" t="s">
         <v>12</v>
       </c>
@@ -20574,8 +20574,8 @@
       <c r="H54" s="106"/>
       <c r="I54" s="106"/>
       <c r="J54" s="106"/>
-      <c r="K54" s="135" t="s">
-        <v>644</v>
+      <c r="K54" s="142" t="s">
+        <v>640</v>
       </c>
       <c r="L54" s="11" t="str">
         <f>"-- "&amp;C55</f>
@@ -20605,10 +20605,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="138"/>
-      <c r="C55" s="139" t="s">
-        <v>553</v>
-      </c>
-      <c r="D55" s="140"/>
+      <c r="C55" s="135" t="s">
+        <v>549</v>
+      </c>
+      <c r="D55" s="136"/>
       <c r="E55" s="137" t="s">
         <v>13</v>
       </c>
@@ -20617,7 +20617,7 @@
       <c r="H55" s="106"/>
       <c r="I55" s="106"/>
       <c r="J55" s="106"/>
-      <c r="K55" s="136"/>
+      <c r="K55" s="143"/>
       <c r="L55" s="11" t="str">
         <f>"-- "&amp;C56</f>
         <v xml:space="preserve">-- </v>
@@ -20646,15 +20646,15 @@
         <v>1</v>
       </c>
       <c r="B56" s="138"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="142"/>
-      <c r="I56" s="142"/>
-      <c r="J56" s="142"/>
-      <c r="K56" s="143"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="140"/>
+      <c r="K56" s="141"/>
       <c r="L56" s="49"/>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
@@ -20807,7 +20807,7 @@
         <v>204</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>201</v>
@@ -20855,10 +20855,10 @@
         <v>2</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>201</v>
@@ -20900,10 +20900,10 @@
         <v>3</v>
       </c>
       <c r="B62" s="56" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D62" s="53" t="s">
         <v>201</v>
@@ -20945,10 +20945,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="56" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D63" s="53" t="s">
         <v>203</v>
@@ -20962,7 +20962,7 @@
       <c r="I63" s="54"/>
       <c r="J63" s="52"/>
       <c r="K63" s="55" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="L63" s="11" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20992,16 +20992,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D64" s="53" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E64" s="52" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F64" s="54"/>
       <c r="G64" s="54"/>
@@ -21037,16 +21037,16 @@
         <v>6</v>
       </c>
       <c r="B65" s="56" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E65" s="52" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F65" s="54"/>
       <c r="G65" s="54"/>
@@ -21082,10 +21082,10 @@
         <v>7</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D66" s="53" t="s">
         <v>201</v>
@@ -21125,10 +21125,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D67" s="53" t="s">
         <v>200</v>
@@ -21168,10 +21168,10 @@
         <v>9</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D68" s="53" t="s">
         <v>201</v>
@@ -21211,10 +21211,10 @@
         <v>11</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D69" s="53" t="s">
         <v>202</v>
@@ -21259,7 +21259,7 @@
         <v>321</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D70" s="53" t="s">
         <v>202</v>
@@ -21304,7 +21304,7 @@
         <v>57</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>201</v>
@@ -21347,7 +21347,7 @@
         <v>58</v>
       </c>
       <c r="C72" s="52" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D72" s="53" t="s">
         <v>200</v>
@@ -21393,10 +21393,10 @@
         <v>11</v>
       </c>
       <c r="B75" s="138"/>
-      <c r="C75" s="139" t="s">
+      <c r="C75" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="D75" s="140"/>
+      <c r="D75" s="136"/>
       <c r="E75" s="137" t="s">
         <v>12</v>
       </c>
@@ -21405,8 +21405,8 @@
       <c r="H75" s="126"/>
       <c r="I75" s="126"/>
       <c r="J75" s="126"/>
-      <c r="K75" s="135" t="s">
-        <v>705</v>
+      <c r="K75" s="142" t="s">
+        <v>701</v>
       </c>
       <c r="L75" s="11" t="str">
         <f>"-- "&amp;C76</f>
@@ -21436,10 +21436,10 @@
         <v>0</v>
       </c>
       <c r="B76" s="138"/>
-      <c r="C76" s="139" t="s">
-        <v>704</v>
-      </c>
-      <c r="D76" s="140"/>
+      <c r="C76" s="135" t="s">
+        <v>700</v>
+      </c>
+      <c r="D76" s="136"/>
       <c r="E76" s="137" t="s">
         <v>13</v>
       </c>
@@ -21448,7 +21448,7 @@
       <c r="H76" s="126"/>
       <c r="I76" s="126"/>
       <c r="J76" s="126"/>
-      <c r="K76" s="136"/>
+      <c r="K76" s="143"/>
       <c r="L76" s="11" t="str">
         <f>"-- "&amp;C77</f>
         <v xml:space="preserve">-- </v>
@@ -21477,15 +21477,15 @@
         <v>1</v>
       </c>
       <c r="B77" s="138"/>
-      <c r="C77" s="141"/>
-      <c r="D77" s="142"/>
-      <c r="E77" s="142"/>
-      <c r="F77" s="142"/>
-      <c r="G77" s="142"/>
-      <c r="H77" s="142"/>
-      <c r="I77" s="142"/>
-      <c r="J77" s="142"/>
-      <c r="K77" s="143"/>
+      <c r="C77" s="139"/>
+      <c r="D77" s="140"/>
+      <c r="E77" s="140"/>
+      <c r="F77" s="140"/>
+      <c r="G77" s="140"/>
+      <c r="H77" s="140"/>
+      <c r="I77" s="140"/>
+      <c r="J77" s="140"/>
+      <c r="K77" s="141"/>
       <c r="L77" s="49"/>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
@@ -21635,10 +21635,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>201</v>
@@ -21686,10 +21686,10 @@
         <v>2</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>201</v>
@@ -21731,10 +21731,10 @@
         <v>3</v>
       </c>
       <c r="B83" s="56" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D83" s="53" t="s">
         <v>201</v>
@@ -21776,16 +21776,16 @@
         <v>4</v>
       </c>
       <c r="B84" s="56" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D84" s="53" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E84" s="52" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F84" s="54"/>
       <c r="G84" s="54"/>
@@ -21826,7 +21826,7 @@
         <v>57</v>
       </c>
       <c r="C85" s="52" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>201</v>
@@ -21869,7 +21869,7 @@
         <v>58</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D86" s="53" t="s">
         <v>200</v>
@@ -21912,13 +21912,33 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:K77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="A3:B3"/>
@@ -21930,33 +21950,13 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:K77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -21998,10 +21998,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="138"/>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="140"/>
+      <c r="D1" s="136"/>
       <c r="E1" s="137" t="s">
         <v>12</v>
       </c>
@@ -22010,8 +22010,8 @@
       <c r="H1" s="111"/>
       <c r="I1" s="111"/>
       <c r="J1" s="111"/>
-      <c r="K1" s="135" t="s">
-        <v>757</v>
+      <c r="K1" s="142" t="s">
+        <v>752</v>
       </c>
       <c r="L1" s="11" t="str">
         <f>"-- "&amp;C2</f>
@@ -22023,10 +22023,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="138"/>
-      <c r="C2" s="139" t="s">
-        <v>657</v>
-      </c>
-      <c r="D2" s="140"/>
+      <c r="C2" s="135" t="s">
+        <v>653</v>
+      </c>
+      <c r="D2" s="136"/>
       <c r="E2" s="137" t="s">
         <v>13</v>
       </c>
@@ -22035,7 +22035,7 @@
       <c r="H2" s="111"/>
       <c r="I2" s="111"/>
       <c r="J2" s="111"/>
-      <c r="K2" s="136"/>
+      <c r="K2" s="143"/>
       <c r="L2" s="11" t="str">
         <f>"-- "&amp;C3</f>
         <v xml:space="preserve">-- </v>
@@ -22046,15 +22046,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="138"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="141"/>
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12">
@@ -22135,7 +22135,7 @@
         <v>204</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>201</v>
@@ -22168,7 +22168,7 @@
         <v>210</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>202</v>
@@ -22197,7 +22197,7 @@
         <v>212</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>202</v>
@@ -22221,10 +22221,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D10" s="53" t="s">
         <v>202</v>
@@ -22251,7 +22251,7 @@
         <v>214</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>203</v>
@@ -22278,7 +22278,7 @@
         <v>216</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D12" s="53" t="s">
         <v>201</v>
@@ -22300,10 +22300,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>200</v>
@@ -22328,7 +22328,7 @@
         <v>273</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D14" s="68" t="s">
         <v>200</v>
@@ -22353,7 +22353,7 @@
         <v>321</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D15" s="68" t="s">
         <v>202</v>
@@ -22377,10 +22377,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="D16" s="68" t="s">
         <v>201</v>
@@ -22408,10 +22408,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="138"/>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="D18" s="140"/>
+      <c r="D18" s="136"/>
       <c r="E18" s="137" t="s">
         <v>12</v>
       </c>
@@ -22420,8 +22420,8 @@
       <c r="H18" s="111"/>
       <c r="I18" s="111"/>
       <c r="J18" s="111"/>
-      <c r="K18" s="135" t="s">
-        <v>760</v>
+      <c r="K18" s="142" t="s">
+        <v>755</v>
       </c>
       <c r="L18" s="11" t="str">
         <f>"-- "&amp;C19</f>
@@ -22433,10 +22433,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="138"/>
-      <c r="C19" s="139" t="s">
-        <v>689</v>
-      </c>
-      <c r="D19" s="140"/>
+      <c r="C19" s="135" t="s">
+        <v>685</v>
+      </c>
+      <c r="D19" s="136"/>
       <c r="E19" s="137" t="s">
         <v>13</v>
       </c>
@@ -22445,7 +22445,7 @@
       <c r="H19" s="111"/>
       <c r="I19" s="111"/>
       <c r="J19" s="111"/>
-      <c r="K19" s="136"/>
+      <c r="K19" s="143"/>
       <c r="L19" s="11" t="str">
         <f>"-- "&amp;C20</f>
         <v xml:space="preserve">-- </v>
@@ -22456,15 +22456,15 @@
         <v>1</v>
       </c>
       <c r="B20" s="138"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="143"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="141"/>
       <c r="L20" s="49"/>
     </row>
     <row r="21" spans="1:12">
@@ -22545,7 +22545,7 @@
         <v>204</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>201</v>
@@ -22578,7 +22578,7 @@
         <v>229</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>202</v>
@@ -22607,7 +22607,7 @@
         <v>230</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D26" s="53" t="s">
         <v>202</v>
@@ -22634,7 +22634,7 @@
         <v>231</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D27" s="53" t="s">
         <v>203</v>
@@ -22661,7 +22661,7 @@
         <v>232</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D28" s="53" t="s">
         <v>201</v>
@@ -22686,7 +22686,7 @@
         <v>233</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D29" s="53" t="s">
         <v>202</v>
@@ -22713,7 +22713,7 @@
         <v>234</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D30" s="53" t="s">
         <v>201</v>
@@ -22738,7 +22738,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D31" s="52" t="s">
         <v>20</v>
@@ -22763,7 +22763,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D32" s="53" t="s">
         <v>200</v>
@@ -22791,10 +22791,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="138"/>
-      <c r="C34" s="139" t="s">
+      <c r="C34" s="135" t="s">
         <v>219</v>
       </c>
-      <c r="D34" s="140"/>
+      <c r="D34" s="136"/>
       <c r="E34" s="137" t="s">
         <v>12</v>
       </c>
@@ -22803,8 +22803,8 @@
       <c r="H34" s="115"/>
       <c r="I34" s="115"/>
       <c r="J34" s="115"/>
-      <c r="K34" s="135" t="s">
-        <v>769</v>
+      <c r="K34" s="142" t="s">
+        <v>764</v>
       </c>
       <c r="L34" s="11" t="str">
         <f>"-- "&amp;C35</f>
@@ -22816,10 +22816,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="138"/>
-      <c r="C35" s="139" t="s">
-        <v>675</v>
-      </c>
-      <c r="D35" s="140"/>
+      <c r="C35" s="135" t="s">
+        <v>671</v>
+      </c>
+      <c r="D35" s="136"/>
       <c r="E35" s="137" t="s">
         <v>13</v>
       </c>
@@ -22828,7 +22828,7 @@
       <c r="H35" s="115"/>
       <c r="I35" s="115"/>
       <c r="J35" s="115"/>
-      <c r="K35" s="136"/>
+      <c r="K35" s="143"/>
       <c r="L35" s="11" t="str">
         <f>"-- "&amp;C36</f>
         <v xml:space="preserve">-- </v>
@@ -22839,15 +22839,15 @@
         <v>1</v>
       </c>
       <c r="B36" s="138"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="142"/>
-      <c r="J36" s="142"/>
-      <c r="K36" s="143"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="141"/>
       <c r="L36" s="49"/>
     </row>
     <row r="37" spans="1:12">
@@ -22928,7 +22928,7 @@
         <v>204</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>201</v>
@@ -22961,7 +22961,7 @@
         <v>242</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>202</v>
@@ -22990,7 +22990,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D42" s="53" t="s">
         <v>202</v>
@@ -23017,7 +23017,7 @@
         <v>57</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D43" s="53" t="s">
         <v>201</v>
@@ -23042,7 +23042,7 @@
         <v>58</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D44" s="53" t="s">
         <v>200</v>
@@ -23070,10 +23070,10 @@
         <v>11</v>
       </c>
       <c r="B46" s="138"/>
-      <c r="C46" s="139" t="s">
+      <c r="C46" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="140"/>
+      <c r="D46" s="136"/>
       <c r="E46" s="137" t="s">
         <v>12</v>
       </c>
@@ -23082,8 +23082,8 @@
       <c r="H46" s="115"/>
       <c r="I46" s="115"/>
       <c r="J46" s="115"/>
-      <c r="K46" s="135" t="s">
-        <v>682</v>
+      <c r="K46" s="142" t="s">
+        <v>678</v>
       </c>
       <c r="L46" s="11" t="str">
         <f>"-- "&amp;C47</f>
@@ -23095,10 +23095,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="138"/>
-      <c r="C47" s="139" t="s">
-        <v>680</v>
-      </c>
-      <c r="D47" s="140"/>
+      <c r="C47" s="135" t="s">
+        <v>676</v>
+      </c>
+      <c r="D47" s="136"/>
       <c r="E47" s="137" t="s">
         <v>13</v>
       </c>
@@ -23107,7 +23107,7 @@
       <c r="H47" s="115"/>
       <c r="I47" s="115"/>
       <c r="J47" s="115"/>
-      <c r="K47" s="136"/>
+      <c r="K47" s="143"/>
       <c r="L47" s="11" t="str">
         <f>"-- "&amp;C48</f>
         <v xml:space="preserve">-- </v>
@@ -23118,15 +23118,15 @@
         <v>1</v>
       </c>
       <c r="B48" s="138"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="142"/>
-      <c r="J48" s="142"/>
-      <c r="K48" s="143"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="140"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="140"/>
+      <c r="J48" s="140"/>
+      <c r="K48" s="141"/>
       <c r="L48" s="49"/>
     </row>
     <row r="49" spans="1:12">
@@ -23207,7 +23207,7 @@
         <v>246</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>201</v>
@@ -23236,7 +23236,7 @@
         <v>247</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>201</v>
@@ -23265,7 +23265,7 @@
         <v>248</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D54" s="53" t="s">
         <v>200</v>
@@ -23296,10 +23296,10 @@
         <v>11</v>
       </c>
       <c r="B57" s="138"/>
-      <c r="C57" s="139" t="s">
+      <c r="C57" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="D57" s="140"/>
+      <c r="D57" s="136"/>
       <c r="E57" s="137" t="s">
         <v>12</v>
       </c>
@@ -23308,8 +23308,8 @@
       <c r="H57" s="115"/>
       <c r="I57" s="115"/>
       <c r="J57" s="115"/>
-      <c r="K57" s="135" t="s">
-        <v>762</v>
+      <c r="K57" s="142" t="s">
+        <v>757</v>
       </c>
       <c r="L57" s="11" t="str">
         <f>"-- "&amp;C58</f>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="B58" s="138"/>
-      <c r="C58" s="139" t="s">
-        <v>681</v>
-      </c>
-      <c r="D58" s="140"/>
+      <c r="C58" s="135" t="s">
+        <v>677</v>
+      </c>
+      <c r="D58" s="136"/>
       <c r="E58" s="137" t="s">
         <v>13</v>
       </c>
@@ -23333,7 +23333,7 @@
       <c r="H58" s="115"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
-      <c r="K58" s="136"/>
+      <c r="K58" s="143"/>
       <c r="L58" s="11" t="str">
         <f>"-- "&amp;C59</f>
         <v xml:space="preserve">-- </v>
@@ -23344,15 +23344,15 @@
         <v>1</v>
       </c>
       <c r="B59" s="138"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="142"/>
-      <c r="F59" s="142"/>
-      <c r="G59" s="142"/>
-      <c r="H59" s="142"/>
-      <c r="I59" s="142"/>
-      <c r="J59" s="142"/>
-      <c r="K59" s="143"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="141"/>
       <c r="L59" s="49"/>
     </row>
     <row r="60" spans="1:12">
@@ -23433,7 +23433,7 @@
         <v>246</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>201</v>
@@ -23462,7 +23462,7 @@
         <v>249</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>201</v>
@@ -23491,7 +23491,7 @@
         <v>248</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D65" s="53" t="s">
         <v>200</v>
@@ -23533,10 +23533,10 @@
         <v>11</v>
       </c>
       <c r="B68" s="138"/>
-      <c r="C68" s="139" t="s">
+      <c r="C68" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="D68" s="140"/>
+      <c r="D68" s="136"/>
       <c r="E68" s="137" t="s">
         <v>12</v>
       </c>
@@ -23545,8 +23545,8 @@
       <c r="H68" s="115"/>
       <c r="I68" s="115"/>
       <c r="J68" s="115"/>
-      <c r="K68" s="135" t="s">
-        <v>761</v>
+      <c r="K68" s="142" t="s">
+        <v>756</v>
       </c>
       <c r="L68" s="11" t="str">
         <f>"-- "&amp;C69</f>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="B69" s="138"/>
-      <c r="C69" s="139" t="s">
-        <v>688</v>
-      </c>
-      <c r="D69" s="140"/>
+      <c r="C69" s="135" t="s">
+        <v>684</v>
+      </c>
+      <c r="D69" s="136"/>
       <c r="E69" s="137" t="s">
         <v>13</v>
       </c>
@@ -23570,7 +23570,7 @@
       <c r="H69" s="115"/>
       <c r="I69" s="115"/>
       <c r="J69" s="115"/>
-      <c r="K69" s="136"/>
+      <c r="K69" s="143"/>
       <c r="L69" s="11" t="str">
         <f>"-- "&amp;C70</f>
         <v xml:space="preserve">-- </v>
@@ -23581,15 +23581,15 @@
         <v>1</v>
       </c>
       <c r="B70" s="138"/>
-      <c r="C70" s="141"/>
-      <c r="D70" s="142"/>
-      <c r="E70" s="142"/>
-      <c r="F70" s="142"/>
-      <c r="G70" s="142"/>
-      <c r="H70" s="142"/>
-      <c r="I70" s="142"/>
-      <c r="J70" s="142"/>
-      <c r="K70" s="143"/>
+      <c r="C70" s="139"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="140"/>
+      <c r="F70" s="140"/>
+      <c r="G70" s="140"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="140"/>
+      <c r="J70" s="140"/>
+      <c r="K70" s="141"/>
       <c r="L70" s="49"/>
     </row>
     <row r="71" spans="1:12">
@@ -23670,7 +23670,7 @@
         <v>251</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>201</v>
@@ -23699,14 +23699,14 @@
         <v>252</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>201</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="117" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
@@ -23728,7 +23728,7 @@
         <v>253</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D76" s="53" t="s">
         <v>200</v>
@@ -23756,10 +23756,10 @@
         <v>11</v>
       </c>
       <c r="B78" s="138"/>
-      <c r="C78" s="139" t="s">
+      <c r="C78" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="D78" s="140"/>
+      <c r="D78" s="136"/>
       <c r="E78" s="137" t="s">
         <v>12</v>
       </c>
@@ -23768,8 +23768,8 @@
       <c r="H78" s="133"/>
       <c r="I78" s="133"/>
       <c r="J78" s="133"/>
-      <c r="K78" s="135" t="s">
-        <v>770</v>
+      <c r="K78" s="142" t="s">
+        <v>765</v>
       </c>
       <c r="L78" s="11" t="str">
         <f>"-- "&amp;C79</f>
@@ -23781,10 +23781,10 @@
         <v>0</v>
       </c>
       <c r="B79" s="138"/>
-      <c r="C79" s="139" t="s">
-        <v>771</v>
-      </c>
-      <c r="D79" s="140"/>
+      <c r="C79" s="135" t="s">
+        <v>766</v>
+      </c>
+      <c r="D79" s="136"/>
       <c r="E79" s="137" t="s">
         <v>13</v>
       </c>
@@ -23793,7 +23793,7 @@
       <c r="H79" s="133"/>
       <c r="I79" s="133"/>
       <c r="J79" s="133"/>
-      <c r="K79" s="136"/>
+      <c r="K79" s="143"/>
       <c r="L79" s="11" t="str">
         <f>"-- "&amp;C80</f>
         <v xml:space="preserve">-- </v>
@@ -23804,15 +23804,15 @@
         <v>1</v>
       </c>
       <c r="B80" s="138"/>
-      <c r="C80" s="141"/>
-      <c r="D80" s="142"/>
-      <c r="E80" s="142"/>
-      <c r="F80" s="142"/>
-      <c r="G80" s="142"/>
-      <c r="H80" s="142"/>
-      <c r="I80" s="142"/>
-      <c r="J80" s="142"/>
-      <c r="K80" s="143"/>
+      <c r="C80" s="139"/>
+      <c r="D80" s="140"/>
+      <c r="E80" s="140"/>
+      <c r="F80" s="140"/>
+      <c r="G80" s="140"/>
+      <c r="H80" s="140"/>
+      <c r="I80" s="140"/>
+      <c r="J80" s="140"/>
+      <c r="K80" s="141"/>
       <c r="L80" s="49"/>
     </row>
     <row r="81" spans="1:12">
@@ -23890,10 +23890,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>201</v>
@@ -23923,10 +23923,10 @@
         <v>2</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>202</v>
@@ -23952,10 +23952,10 @@
         <v>3</v>
       </c>
       <c r="B86" s="56" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D86" s="53" t="s">
         <v>201</v>
@@ -23977,10 +23977,10 @@
         <v>4</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="D87" s="53" t="s">
         <v>201</v>
@@ -24002,10 +24002,10 @@
         <v>5</v>
       </c>
       <c r="B88" s="56" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D88" s="53" t="s">
         <v>201</v>
@@ -24027,10 +24027,10 @@
         <v>6</v>
       </c>
       <c r="B89" s="56" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D89" s="53" t="s">
         <v>201</v>
@@ -24052,10 +24052,10 @@
         <v>8</v>
       </c>
       <c r="B90" s="82" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D90" s="53" t="s">
         <v>201</v>
@@ -24077,10 +24077,10 @@
         <v>9</v>
       </c>
       <c r="B91" s="82" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D91" s="53" t="s">
         <v>202</v>
@@ -24104,10 +24104,10 @@
         <v>10</v>
       </c>
       <c r="B92" s="82" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D92" s="53" t="s">
         <v>202</v>
@@ -24131,10 +24131,10 @@
         <v>11</v>
       </c>
       <c r="B93" s="82" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D93" s="53" t="s">
         <v>201</v>
@@ -24156,10 +24156,10 @@
         <v>12</v>
       </c>
       <c r="B94" s="82" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D94" s="53" t="s">
         <v>200</v>
@@ -24187,15 +24187,44 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:K80"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:K70"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="K34:K35"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -24212,44 +24241,15 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:K70"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:K80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/document/crm数据结构.xlsx
+++ b/document/crm数据结构.xlsx
@@ -23041,7 +23041,7 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="L97" sqref="L97:L111"/>
+      <selection activeCell="L113" sqref="L112:L113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23056,7 +23056,7 @@
     <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.375" customWidth="1"/>
+    <col min="11" max="11" width="44.5" customWidth="1"/>
     <col min="12" max="12" width="60.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25473,7 +25473,7 @@
         <v>AWE_ADMIN_ID INT   ,</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="24">
+    <row r="105" spans="1:12">
       <c r="A105" s="191">
         <v>3</v>
       </c>
@@ -25502,7 +25502,7 @@
         <v>AWE_USER_ID VARCHAR(80)   ,</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="24">
+    <row r="106" spans="1:12">
       <c r="A106" s="191">
         <v>4</v>
       </c>
